--- a/仕様書/カラマリテープ_仕様書_SE_ME_リソース.xlsx
+++ b/仕様書/カラマリテープ_仕様書_SE_ME_リソース.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ゲーム制作サークル\2021年度\日本ゲーム大賞アマチュア部門\JGA_2021_バージョン管理\仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{075C4289-32C5-4F91-9607-AA22E0375F8B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9F71D52-5BA2-43FF-8F1D-9E4F6131B6DD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F6F2A0B8-DF02-473D-B3F4-90E1A5A03874}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="95">
   <si>
     <t>仕様書：更新履歴</t>
     <rPh sb="0" eb="3">
@@ -444,10 +444,6 @@
     <rPh sb="3" eb="4">
       <t>ビョウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>wav</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1295,18 +1291,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1323,6 +1307,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2441,7 +2437,7 @@
       <c r="AO16" s="2"/>
       <c r="AP16" s="2"/>
       <c r="AQ16" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AR16" s="2"/>
       <c r="AS16" s="2"/>
@@ -2523,7 +2519,7 @@
       <c r="AO17" s="2"/>
       <c r="AP17" s="2"/>
       <c r="AQ17" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AR17" s="2"/>
       <c r="AS17" s="2"/>
@@ -4203,82 +4199,82 @@
       <c r="E11" s="26"/>
       <c r="F11" s="26"/>
       <c r="G11" s="27"/>
-      <c r="I11" s="51" t="s">
+      <c r="I11" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="J11" s="52"/>
-      <c r="K11" s="52"/>
-      <c r="L11" s="52"/>
-      <c r="M11" s="52"/>
-      <c r="N11" s="52"/>
-      <c r="O11" s="52"/>
-      <c r="P11" s="52"/>
-      <c r="Q11" s="52"/>
-      <c r="R11" s="52"/>
-      <c r="S11" s="52"/>
-      <c r="T11" s="52"/>
-      <c r="U11" s="52"/>
-      <c r="V11" s="52"/>
-      <c r="W11" s="52"/>
-      <c r="X11" s="52"/>
-      <c r="Y11" s="52"/>
-      <c r="Z11" s="52"/>
-      <c r="AA11" s="52"/>
-      <c r="AB11" s="52"/>
-      <c r="AC11" s="52"/>
-      <c r="AD11" s="52"/>
-      <c r="AE11" s="52"/>
-      <c r="AF11" s="52"/>
-      <c r="AG11" s="52"/>
-      <c r="AH11" s="52"/>
-      <c r="AI11" s="52"/>
-      <c r="AJ11" s="52"/>
-      <c r="AK11" s="52"/>
-      <c r="AL11" s="52"/>
-      <c r="AM11" s="52"/>
-      <c r="AN11" s="52"/>
-      <c r="AO11" s="52"/>
-      <c r="AP11" s="52"/>
-      <c r="AQ11" s="52"/>
-      <c r="AR11" s="52"/>
-      <c r="AS11" s="52"/>
-      <c r="AT11" s="52"/>
-      <c r="AU11" s="52"/>
-      <c r="AV11" s="52"/>
-      <c r="AW11" s="52"/>
-      <c r="AX11" s="52"/>
-      <c r="AY11" s="52"/>
-      <c r="AZ11" s="52"/>
-      <c r="BA11" s="52"/>
-      <c r="BB11" s="52"/>
-      <c r="BC11" s="52"/>
-      <c r="BD11" s="52"/>
-      <c r="BE11" s="52"/>
-      <c r="BF11" s="52"/>
-      <c r="BG11" s="52"/>
-      <c r="BH11" s="52"/>
-      <c r="BI11" s="52"/>
-      <c r="BJ11" s="52"/>
-      <c r="BK11" s="52"/>
-      <c r="BL11" s="52"/>
-      <c r="BM11" s="52"/>
-      <c r="BN11" s="52"/>
-      <c r="BO11" s="52"/>
-      <c r="BP11" s="52"/>
-      <c r="BQ11" s="52"/>
-      <c r="BR11" s="52"/>
-      <c r="BS11" s="52"/>
-      <c r="BT11" s="52"/>
-      <c r="BU11" s="52"/>
-      <c r="BV11" s="52"/>
-      <c r="BW11" s="52"/>
-      <c r="BX11" s="52"/>
-      <c r="BY11" s="52"/>
-      <c r="BZ11" s="52"/>
-      <c r="CA11" s="52"/>
-      <c r="CB11" s="52"/>
-      <c r="CC11" s="52"/>
-      <c r="CD11" s="53"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="48"/>
+      <c r="L11" s="48"/>
+      <c r="M11" s="48"/>
+      <c r="N11" s="48"/>
+      <c r="O11" s="48"/>
+      <c r="P11" s="48"/>
+      <c r="Q11" s="48"/>
+      <c r="R11" s="48"/>
+      <c r="S11" s="48"/>
+      <c r="T11" s="48"/>
+      <c r="U11" s="48"/>
+      <c r="V11" s="48"/>
+      <c r="W11" s="48"/>
+      <c r="X11" s="48"/>
+      <c r="Y11" s="48"/>
+      <c r="Z11" s="48"/>
+      <c r="AA11" s="48"/>
+      <c r="AB11" s="48"/>
+      <c r="AC11" s="48"/>
+      <c r="AD11" s="48"/>
+      <c r="AE11" s="48"/>
+      <c r="AF11" s="48"/>
+      <c r="AG11" s="48"/>
+      <c r="AH11" s="48"/>
+      <c r="AI11" s="48"/>
+      <c r="AJ11" s="48"/>
+      <c r="AK11" s="48"/>
+      <c r="AL11" s="48"/>
+      <c r="AM11" s="48"/>
+      <c r="AN11" s="48"/>
+      <c r="AO11" s="48"/>
+      <c r="AP11" s="48"/>
+      <c r="AQ11" s="48"/>
+      <c r="AR11" s="48"/>
+      <c r="AS11" s="48"/>
+      <c r="AT11" s="48"/>
+      <c r="AU11" s="48"/>
+      <c r="AV11" s="48"/>
+      <c r="AW11" s="48"/>
+      <c r="AX11" s="48"/>
+      <c r="AY11" s="48"/>
+      <c r="AZ11" s="48"/>
+      <c r="BA11" s="48"/>
+      <c r="BB11" s="48"/>
+      <c r="BC11" s="48"/>
+      <c r="BD11" s="48"/>
+      <c r="BE11" s="48"/>
+      <c r="BF11" s="48"/>
+      <c r="BG11" s="48"/>
+      <c r="BH11" s="48"/>
+      <c r="BI11" s="48"/>
+      <c r="BJ11" s="48"/>
+      <c r="BK11" s="48"/>
+      <c r="BL11" s="48"/>
+      <c r="BM11" s="48"/>
+      <c r="BN11" s="48"/>
+      <c r="BO11" s="48"/>
+      <c r="BP11" s="48"/>
+      <c r="BQ11" s="48"/>
+      <c r="BR11" s="48"/>
+      <c r="BS11" s="48"/>
+      <c r="BT11" s="48"/>
+      <c r="BU11" s="48"/>
+      <c r="BV11" s="48"/>
+      <c r="BW11" s="48"/>
+      <c r="BX11" s="48"/>
+      <c r="BY11" s="48"/>
+      <c r="BZ11" s="48"/>
+      <c r="CA11" s="48"/>
+      <c r="CB11" s="48"/>
+      <c r="CC11" s="48"/>
+      <c r="CD11" s="49"/>
     </row>
     <row r="12" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="8"/>
@@ -4288,80 +4284,80 @@
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
       <c r="G12" s="10"/>
-      <c r="I12" s="54"/>
-      <c r="J12" s="55"/>
-      <c r="K12" s="55"/>
-      <c r="L12" s="55"/>
-      <c r="M12" s="55"/>
-      <c r="N12" s="55"/>
-      <c r="O12" s="55"/>
-      <c r="P12" s="55"/>
-      <c r="Q12" s="55"/>
-      <c r="R12" s="55"/>
-      <c r="S12" s="55"/>
-      <c r="T12" s="55"/>
-      <c r="U12" s="55"/>
-      <c r="V12" s="55"/>
-      <c r="W12" s="55"/>
-      <c r="X12" s="55"/>
-      <c r="Y12" s="55"/>
-      <c r="Z12" s="55"/>
-      <c r="AA12" s="55"/>
-      <c r="AB12" s="55"/>
-      <c r="AC12" s="55"/>
-      <c r="AD12" s="55"/>
-      <c r="AE12" s="55"/>
-      <c r="AF12" s="55"/>
-      <c r="AG12" s="55"/>
-      <c r="AH12" s="55"/>
-      <c r="AI12" s="55"/>
-      <c r="AJ12" s="55"/>
-      <c r="AK12" s="55"/>
-      <c r="AL12" s="55"/>
-      <c r="AM12" s="55"/>
-      <c r="AN12" s="55"/>
-      <c r="AO12" s="55"/>
-      <c r="AP12" s="55"/>
-      <c r="AQ12" s="55"/>
-      <c r="AR12" s="55"/>
-      <c r="AS12" s="55"/>
-      <c r="AT12" s="55"/>
-      <c r="AU12" s="55"/>
-      <c r="AV12" s="55"/>
-      <c r="AW12" s="55"/>
-      <c r="AX12" s="55"/>
-      <c r="AY12" s="55"/>
-      <c r="AZ12" s="55"/>
-      <c r="BA12" s="55"/>
-      <c r="BB12" s="55"/>
-      <c r="BC12" s="55"/>
-      <c r="BD12" s="55"/>
-      <c r="BE12" s="55"/>
-      <c r="BF12" s="55"/>
-      <c r="BG12" s="55"/>
-      <c r="BH12" s="55"/>
-      <c r="BI12" s="55"/>
-      <c r="BJ12" s="55"/>
-      <c r="BK12" s="55"/>
-      <c r="BL12" s="55"/>
-      <c r="BM12" s="55"/>
-      <c r="BN12" s="55"/>
-      <c r="BO12" s="55"/>
-      <c r="BP12" s="55"/>
-      <c r="BQ12" s="55"/>
-      <c r="BR12" s="55"/>
-      <c r="BS12" s="55"/>
-      <c r="BT12" s="55"/>
-      <c r="BU12" s="55"/>
-      <c r="BV12" s="55"/>
-      <c r="BW12" s="55"/>
-      <c r="BX12" s="55"/>
-      <c r="BY12" s="55"/>
-      <c r="BZ12" s="55"/>
-      <c r="CA12" s="55"/>
-      <c r="CB12" s="55"/>
-      <c r="CC12" s="55"/>
-      <c r="CD12" s="56"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="51"/>
+      <c r="K12" s="51"/>
+      <c r="L12" s="51"/>
+      <c r="M12" s="51"/>
+      <c r="N12" s="51"/>
+      <c r="O12" s="51"/>
+      <c r="P12" s="51"/>
+      <c r="Q12" s="51"/>
+      <c r="R12" s="51"/>
+      <c r="S12" s="51"/>
+      <c r="T12" s="51"/>
+      <c r="U12" s="51"/>
+      <c r="V12" s="51"/>
+      <c r="W12" s="51"/>
+      <c r="X12" s="51"/>
+      <c r="Y12" s="51"/>
+      <c r="Z12" s="51"/>
+      <c r="AA12" s="51"/>
+      <c r="AB12" s="51"/>
+      <c r="AC12" s="51"/>
+      <c r="AD12" s="51"/>
+      <c r="AE12" s="51"/>
+      <c r="AF12" s="51"/>
+      <c r="AG12" s="51"/>
+      <c r="AH12" s="51"/>
+      <c r="AI12" s="51"/>
+      <c r="AJ12" s="51"/>
+      <c r="AK12" s="51"/>
+      <c r="AL12" s="51"/>
+      <c r="AM12" s="51"/>
+      <c r="AN12" s="51"/>
+      <c r="AO12" s="51"/>
+      <c r="AP12" s="51"/>
+      <c r="AQ12" s="51"/>
+      <c r="AR12" s="51"/>
+      <c r="AS12" s="51"/>
+      <c r="AT12" s="51"/>
+      <c r="AU12" s="51"/>
+      <c r="AV12" s="51"/>
+      <c r="AW12" s="51"/>
+      <c r="AX12" s="51"/>
+      <c r="AY12" s="51"/>
+      <c r="AZ12" s="51"/>
+      <c r="BA12" s="51"/>
+      <c r="BB12" s="51"/>
+      <c r="BC12" s="51"/>
+      <c r="BD12" s="51"/>
+      <c r="BE12" s="51"/>
+      <c r="BF12" s="51"/>
+      <c r="BG12" s="51"/>
+      <c r="BH12" s="51"/>
+      <c r="BI12" s="51"/>
+      <c r="BJ12" s="51"/>
+      <c r="BK12" s="51"/>
+      <c r="BL12" s="51"/>
+      <c r="BM12" s="51"/>
+      <c r="BN12" s="51"/>
+      <c r="BO12" s="51"/>
+      <c r="BP12" s="51"/>
+      <c r="BQ12" s="51"/>
+      <c r="BR12" s="51"/>
+      <c r="BS12" s="51"/>
+      <c r="BT12" s="51"/>
+      <c r="BU12" s="51"/>
+      <c r="BV12" s="51"/>
+      <c r="BW12" s="51"/>
+      <c r="BX12" s="51"/>
+      <c r="BY12" s="51"/>
+      <c r="BZ12" s="51"/>
+      <c r="CA12" s="51"/>
+      <c r="CB12" s="51"/>
+      <c r="CC12" s="51"/>
+      <c r="CD12" s="52"/>
     </row>
     <row r="13" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13" s="11"/>
@@ -4371,90 +4367,90 @@
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="13"/>
-      <c r="I13" s="47" t="s">
+      <c r="I13" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="J13" s="47"/>
-      <c r="K13" s="47"/>
-      <c r="L13" s="47"/>
-      <c r="M13" s="47"/>
-      <c r="N13" s="47"/>
-      <c r="O13" s="47"/>
-      <c r="P13" s="47"/>
-      <c r="Q13" s="47"/>
-      <c r="R13" s="47"/>
-      <c r="S13" s="47"/>
-      <c r="T13" s="47"/>
-      <c r="U13" s="47"/>
-      <c r="V13" s="47" t="s">
+      <c r="J13" s="53"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="53"/>
+      <c r="M13" s="53"/>
+      <c r="N13" s="53"/>
+      <c r="O13" s="53"/>
+      <c r="P13" s="53"/>
+      <c r="Q13" s="53"/>
+      <c r="R13" s="53"/>
+      <c r="S13" s="53"/>
+      <c r="T13" s="53"/>
+      <c r="U13" s="53"/>
+      <c r="V13" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="W13" s="47"/>
-      <c r="X13" s="47"/>
-      <c r="Y13" s="47"/>
-      <c r="Z13" s="47"/>
-      <c r="AA13" s="47"/>
-      <c r="AB13" s="47"/>
-      <c r="AC13" s="47"/>
-      <c r="AD13" s="47"/>
-      <c r="AE13" s="47"/>
-      <c r="AF13" s="47"/>
-      <c r="AG13" s="47"/>
-      <c r="AH13" s="47"/>
-      <c r="AI13" s="47"/>
-      <c r="AJ13" s="47"/>
-      <c r="AK13" s="47"/>
-      <c r="AL13" s="47"/>
-      <c r="AM13" s="47"/>
-      <c r="AN13" s="47"/>
-      <c r="AO13" s="47"/>
-      <c r="AP13" s="47"/>
-      <c r="AQ13" s="47"/>
-      <c r="AR13" s="47"/>
-      <c r="AS13" s="47"/>
-      <c r="AT13" s="47"/>
-      <c r="AU13" s="47"/>
-      <c r="AV13" s="47"/>
-      <c r="AW13" s="47"/>
-      <c r="AX13" s="47" t="s">
+      <c r="W13" s="53"/>
+      <c r="X13" s="53"/>
+      <c r="Y13" s="53"/>
+      <c r="Z13" s="53"/>
+      <c r="AA13" s="53"/>
+      <c r="AB13" s="53"/>
+      <c r="AC13" s="53"/>
+      <c r="AD13" s="53"/>
+      <c r="AE13" s="53"/>
+      <c r="AF13" s="53"/>
+      <c r="AG13" s="53"/>
+      <c r="AH13" s="53"/>
+      <c r="AI13" s="53"/>
+      <c r="AJ13" s="53"/>
+      <c r="AK13" s="53"/>
+      <c r="AL13" s="53"/>
+      <c r="AM13" s="53"/>
+      <c r="AN13" s="53"/>
+      <c r="AO13" s="53"/>
+      <c r="AP13" s="53"/>
+      <c r="AQ13" s="53"/>
+      <c r="AR13" s="53"/>
+      <c r="AS13" s="53"/>
+      <c r="AT13" s="53"/>
+      <c r="AU13" s="53"/>
+      <c r="AV13" s="53"/>
+      <c r="AW13" s="53"/>
+      <c r="AX13" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="AY13" s="47"/>
-      <c r="AZ13" s="47"/>
-      <c r="BA13" s="47"/>
-      <c r="BB13" s="47"/>
-      <c r="BC13" s="47"/>
-      <c r="BD13" s="47"/>
-      <c r="BE13" s="47"/>
-      <c r="BF13" s="47"/>
-      <c r="BG13" s="47"/>
-      <c r="BH13" s="47"/>
-      <c r="BI13" s="47"/>
-      <c r="BJ13" s="47" t="s">
+      <c r="AY13" s="53"/>
+      <c r="AZ13" s="53"/>
+      <c r="BA13" s="53"/>
+      <c r="BB13" s="53"/>
+      <c r="BC13" s="53"/>
+      <c r="BD13" s="53"/>
+      <c r="BE13" s="53"/>
+      <c r="BF13" s="53"/>
+      <c r="BG13" s="53"/>
+      <c r="BH13" s="53"/>
+      <c r="BI13" s="53"/>
+      <c r="BJ13" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="BK13" s="47"/>
-      <c r="BL13" s="47"/>
-      <c r="BM13" s="47"/>
-      <c r="BN13" s="47"/>
-      <c r="BO13" s="47"/>
-      <c r="BP13" s="47" t="s">
+      <c r="BK13" s="53"/>
+      <c r="BL13" s="53"/>
+      <c r="BM13" s="53"/>
+      <c r="BN13" s="53"/>
+      <c r="BO13" s="53"/>
+      <c r="BP13" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="BQ13" s="47"/>
-      <c r="BR13" s="47"/>
-      <c r="BS13" s="47"/>
-      <c r="BT13" s="47"/>
-      <c r="BU13" s="47"/>
-      <c r="BV13" s="47"/>
-      <c r="BW13" s="47"/>
-      <c r="BX13" s="47"/>
-      <c r="BY13" s="47"/>
-      <c r="BZ13" s="47"/>
-      <c r="CA13" s="47"/>
-      <c r="CB13" s="47"/>
-      <c r="CC13" s="47"/>
-      <c r="CD13" s="47"/>
+      <c r="BQ13" s="53"/>
+      <c r="BR13" s="53"/>
+      <c r="BS13" s="53"/>
+      <c r="BT13" s="53"/>
+      <c r="BU13" s="53"/>
+      <c r="BV13" s="53"/>
+      <c r="BW13" s="53"/>
+      <c r="BX13" s="53"/>
+      <c r="BY13" s="53"/>
+      <c r="BZ13" s="53"/>
+      <c r="CA13" s="53"/>
+      <c r="CB13" s="53"/>
+      <c r="CC13" s="53"/>
+      <c r="CD13" s="53"/>
     </row>
     <row r="14" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="8"/>
@@ -4650,90 +4646,90 @@
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
       <c r="G16" s="10"/>
-      <c r="I16" s="48" t="s">
+      <c r="I16" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="J16" s="49"/>
-      <c r="K16" s="49"/>
-      <c r="L16" s="49"/>
-      <c r="M16" s="49"/>
-      <c r="N16" s="49"/>
-      <c r="O16" s="49"/>
-      <c r="P16" s="49"/>
-      <c r="Q16" s="49"/>
-      <c r="R16" s="49"/>
-      <c r="S16" s="49"/>
-      <c r="T16" s="49"/>
-      <c r="U16" s="50"/>
-      <c r="V16" s="48" t="s">
+      <c r="J16" s="55"/>
+      <c r="K16" s="55"/>
+      <c r="L16" s="55"/>
+      <c r="M16" s="55"/>
+      <c r="N16" s="55"/>
+      <c r="O16" s="55"/>
+      <c r="P16" s="55"/>
+      <c r="Q16" s="55"/>
+      <c r="R16" s="55"/>
+      <c r="S16" s="55"/>
+      <c r="T16" s="55"/>
+      <c r="U16" s="56"/>
+      <c r="V16" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="W16" s="49"/>
-      <c r="X16" s="49"/>
-      <c r="Y16" s="49"/>
-      <c r="Z16" s="49"/>
-      <c r="AA16" s="49"/>
-      <c r="AB16" s="49"/>
-      <c r="AC16" s="49"/>
-      <c r="AD16" s="49"/>
-      <c r="AE16" s="49"/>
-      <c r="AF16" s="49"/>
-      <c r="AG16" s="49"/>
-      <c r="AH16" s="49"/>
-      <c r="AI16" s="49"/>
-      <c r="AJ16" s="49"/>
-      <c r="AK16" s="49"/>
-      <c r="AL16" s="49"/>
-      <c r="AM16" s="49"/>
-      <c r="AN16" s="49"/>
-      <c r="AO16" s="49"/>
-      <c r="AP16" s="49"/>
-      <c r="AQ16" s="49"/>
-      <c r="AR16" s="49"/>
-      <c r="AS16" s="49"/>
-      <c r="AT16" s="49"/>
-      <c r="AU16" s="49"/>
-      <c r="AV16" s="49"/>
-      <c r="AW16" s="50"/>
-      <c r="AX16" s="48" t="s">
+      <c r="W16" s="55"/>
+      <c r="X16" s="55"/>
+      <c r="Y16" s="55"/>
+      <c r="Z16" s="55"/>
+      <c r="AA16" s="55"/>
+      <c r="AB16" s="55"/>
+      <c r="AC16" s="55"/>
+      <c r="AD16" s="55"/>
+      <c r="AE16" s="55"/>
+      <c r="AF16" s="55"/>
+      <c r="AG16" s="55"/>
+      <c r="AH16" s="55"/>
+      <c r="AI16" s="55"/>
+      <c r="AJ16" s="55"/>
+      <c r="AK16" s="55"/>
+      <c r="AL16" s="55"/>
+      <c r="AM16" s="55"/>
+      <c r="AN16" s="55"/>
+      <c r="AO16" s="55"/>
+      <c r="AP16" s="55"/>
+      <c r="AQ16" s="55"/>
+      <c r="AR16" s="55"/>
+      <c r="AS16" s="55"/>
+      <c r="AT16" s="55"/>
+      <c r="AU16" s="55"/>
+      <c r="AV16" s="55"/>
+      <c r="AW16" s="56"/>
+      <c r="AX16" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="AY16" s="49"/>
-      <c r="AZ16" s="49"/>
-      <c r="BA16" s="49"/>
-      <c r="BB16" s="49"/>
-      <c r="BC16" s="49"/>
-      <c r="BD16" s="49"/>
-      <c r="BE16" s="49"/>
-      <c r="BF16" s="49"/>
-      <c r="BG16" s="49"/>
-      <c r="BH16" s="49"/>
-      <c r="BI16" s="50"/>
-      <c r="BJ16" s="48" t="s">
+      <c r="AY16" s="55"/>
+      <c r="AZ16" s="55"/>
+      <c r="BA16" s="55"/>
+      <c r="BB16" s="55"/>
+      <c r="BC16" s="55"/>
+      <c r="BD16" s="55"/>
+      <c r="BE16" s="55"/>
+      <c r="BF16" s="55"/>
+      <c r="BG16" s="55"/>
+      <c r="BH16" s="55"/>
+      <c r="BI16" s="56"/>
+      <c r="BJ16" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="BK16" s="49"/>
-      <c r="BL16" s="49"/>
-      <c r="BM16" s="49"/>
-      <c r="BN16" s="49"/>
-      <c r="BO16" s="50"/>
-      <c r="BP16" s="49" t="s">
+      <c r="BK16" s="55"/>
+      <c r="BL16" s="55"/>
+      <c r="BM16" s="55"/>
+      <c r="BN16" s="55"/>
+      <c r="BO16" s="56"/>
+      <c r="BP16" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="BQ16" s="49"/>
-      <c r="BR16" s="49"/>
-      <c r="BS16" s="49"/>
-      <c r="BT16" s="49"/>
-      <c r="BU16" s="49"/>
-      <c r="BV16" s="49"/>
-      <c r="BW16" s="49"/>
-      <c r="BX16" s="49"/>
-      <c r="BY16" s="49"/>
-      <c r="BZ16" s="49"/>
-      <c r="CA16" s="49"/>
-      <c r="CB16" s="49"/>
-      <c r="CC16" s="49"/>
-      <c r="CD16" s="50"/>
+      <c r="BQ16" s="55"/>
+      <c r="BR16" s="55"/>
+      <c r="BS16" s="55"/>
+      <c r="BT16" s="55"/>
+      <c r="BU16" s="55"/>
+      <c r="BV16" s="55"/>
+      <c r="BW16" s="55"/>
+      <c r="BX16" s="55"/>
+      <c r="BY16" s="55"/>
+      <c r="BZ16" s="55"/>
+      <c r="CA16" s="55"/>
+      <c r="CB16" s="55"/>
+      <c r="CC16" s="55"/>
+      <c r="CD16" s="56"/>
     </row>
     <row r="17" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="11"/>
@@ -4743,90 +4739,90 @@
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
       <c r="G17" s="13"/>
-      <c r="I17" s="48" t="s">
+      <c r="I17" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="J17" s="49"/>
-      <c r="K17" s="49"/>
-      <c r="L17" s="49"/>
-      <c r="M17" s="49"/>
-      <c r="N17" s="49"/>
-      <c r="O17" s="49"/>
-      <c r="P17" s="49"/>
-      <c r="Q17" s="49"/>
-      <c r="R17" s="49"/>
-      <c r="S17" s="49"/>
-      <c r="T17" s="49"/>
-      <c r="U17" s="50"/>
-      <c r="V17" s="48" t="s">
+      <c r="J17" s="55"/>
+      <c r="K17" s="55"/>
+      <c r="L17" s="55"/>
+      <c r="M17" s="55"/>
+      <c r="N17" s="55"/>
+      <c r="O17" s="55"/>
+      <c r="P17" s="55"/>
+      <c r="Q17" s="55"/>
+      <c r="R17" s="55"/>
+      <c r="S17" s="55"/>
+      <c r="T17" s="55"/>
+      <c r="U17" s="56"/>
+      <c r="V17" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="W17" s="49"/>
-      <c r="X17" s="49"/>
-      <c r="Y17" s="49"/>
-      <c r="Z17" s="49"/>
-      <c r="AA17" s="49"/>
-      <c r="AB17" s="49"/>
-      <c r="AC17" s="49"/>
-      <c r="AD17" s="49"/>
-      <c r="AE17" s="49"/>
-      <c r="AF17" s="49"/>
-      <c r="AG17" s="49"/>
-      <c r="AH17" s="49"/>
-      <c r="AI17" s="49"/>
-      <c r="AJ17" s="49"/>
-      <c r="AK17" s="49"/>
-      <c r="AL17" s="49"/>
-      <c r="AM17" s="49"/>
-      <c r="AN17" s="49"/>
-      <c r="AO17" s="49"/>
-      <c r="AP17" s="49"/>
-      <c r="AQ17" s="49"/>
-      <c r="AR17" s="49"/>
-      <c r="AS17" s="49"/>
-      <c r="AT17" s="49"/>
-      <c r="AU17" s="49"/>
-      <c r="AV17" s="49"/>
-      <c r="AW17" s="50"/>
-      <c r="AX17" s="48" t="s">
+      <c r="W17" s="55"/>
+      <c r="X17" s="55"/>
+      <c r="Y17" s="55"/>
+      <c r="Z17" s="55"/>
+      <c r="AA17" s="55"/>
+      <c r="AB17" s="55"/>
+      <c r="AC17" s="55"/>
+      <c r="AD17" s="55"/>
+      <c r="AE17" s="55"/>
+      <c r="AF17" s="55"/>
+      <c r="AG17" s="55"/>
+      <c r="AH17" s="55"/>
+      <c r="AI17" s="55"/>
+      <c r="AJ17" s="55"/>
+      <c r="AK17" s="55"/>
+      <c r="AL17" s="55"/>
+      <c r="AM17" s="55"/>
+      <c r="AN17" s="55"/>
+      <c r="AO17" s="55"/>
+      <c r="AP17" s="55"/>
+      <c r="AQ17" s="55"/>
+      <c r="AR17" s="55"/>
+      <c r="AS17" s="55"/>
+      <c r="AT17" s="55"/>
+      <c r="AU17" s="55"/>
+      <c r="AV17" s="55"/>
+      <c r="AW17" s="56"/>
+      <c r="AX17" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="AY17" s="49"/>
-      <c r="AZ17" s="49"/>
-      <c r="BA17" s="49"/>
-      <c r="BB17" s="49"/>
-      <c r="BC17" s="49"/>
-      <c r="BD17" s="49"/>
-      <c r="BE17" s="49"/>
-      <c r="BF17" s="49"/>
-      <c r="BG17" s="49"/>
-      <c r="BH17" s="49"/>
-      <c r="BI17" s="50"/>
-      <c r="BJ17" s="48" t="s">
+      <c r="AY17" s="55"/>
+      <c r="AZ17" s="55"/>
+      <c r="BA17" s="55"/>
+      <c r="BB17" s="55"/>
+      <c r="BC17" s="55"/>
+      <c r="BD17" s="55"/>
+      <c r="BE17" s="55"/>
+      <c r="BF17" s="55"/>
+      <c r="BG17" s="55"/>
+      <c r="BH17" s="55"/>
+      <c r="BI17" s="56"/>
+      <c r="BJ17" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="BK17" s="49"/>
-      <c r="BL17" s="49"/>
-      <c r="BM17" s="49"/>
-      <c r="BN17" s="49"/>
-      <c r="BO17" s="50"/>
-      <c r="BP17" s="49" t="s">
+      <c r="BK17" s="55"/>
+      <c r="BL17" s="55"/>
+      <c r="BM17" s="55"/>
+      <c r="BN17" s="55"/>
+      <c r="BO17" s="56"/>
+      <c r="BP17" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="BQ17" s="49"/>
-      <c r="BR17" s="49"/>
-      <c r="BS17" s="49"/>
-      <c r="BT17" s="49"/>
-      <c r="BU17" s="49"/>
-      <c r="BV17" s="49"/>
-      <c r="BW17" s="49"/>
-      <c r="BX17" s="49"/>
-      <c r="BY17" s="49"/>
-      <c r="BZ17" s="49"/>
-      <c r="CA17" s="49"/>
-      <c r="CB17" s="49"/>
-      <c r="CC17" s="49"/>
-      <c r="CD17" s="50"/>
+      <c r="BQ17" s="55"/>
+      <c r="BR17" s="55"/>
+      <c r="BS17" s="55"/>
+      <c r="BT17" s="55"/>
+      <c r="BU17" s="55"/>
+      <c r="BV17" s="55"/>
+      <c r="BW17" s="55"/>
+      <c r="BX17" s="55"/>
+      <c r="BY17" s="55"/>
+      <c r="BZ17" s="55"/>
+      <c r="CA17" s="55"/>
+      <c r="CB17" s="55"/>
+      <c r="CC17" s="55"/>
+      <c r="CD17" s="56"/>
     </row>
     <row r="18" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="8"/>
@@ -4836,90 +4832,90 @@
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
       <c r="G18" s="10"/>
-      <c r="I18" s="48" t="s">
+      <c r="I18" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="J18" s="49"/>
-      <c r="K18" s="49"/>
-      <c r="L18" s="49"/>
-      <c r="M18" s="49"/>
-      <c r="N18" s="49"/>
-      <c r="O18" s="49"/>
-      <c r="P18" s="49"/>
-      <c r="Q18" s="49"/>
-      <c r="R18" s="49"/>
-      <c r="S18" s="49"/>
-      <c r="T18" s="49"/>
-      <c r="U18" s="50"/>
-      <c r="V18" s="48" t="s">
+      <c r="J18" s="55"/>
+      <c r="K18" s="55"/>
+      <c r="L18" s="55"/>
+      <c r="M18" s="55"/>
+      <c r="N18" s="55"/>
+      <c r="O18" s="55"/>
+      <c r="P18" s="55"/>
+      <c r="Q18" s="55"/>
+      <c r="R18" s="55"/>
+      <c r="S18" s="55"/>
+      <c r="T18" s="55"/>
+      <c r="U18" s="56"/>
+      <c r="V18" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="W18" s="49"/>
-      <c r="X18" s="49"/>
-      <c r="Y18" s="49"/>
-      <c r="Z18" s="49"/>
-      <c r="AA18" s="49"/>
-      <c r="AB18" s="49"/>
-      <c r="AC18" s="49"/>
-      <c r="AD18" s="49"/>
-      <c r="AE18" s="49"/>
-      <c r="AF18" s="49"/>
-      <c r="AG18" s="49"/>
-      <c r="AH18" s="49"/>
-      <c r="AI18" s="49"/>
-      <c r="AJ18" s="49"/>
-      <c r="AK18" s="49"/>
-      <c r="AL18" s="49"/>
-      <c r="AM18" s="49"/>
-      <c r="AN18" s="49"/>
-      <c r="AO18" s="49"/>
-      <c r="AP18" s="49"/>
-      <c r="AQ18" s="49"/>
-      <c r="AR18" s="49"/>
-      <c r="AS18" s="49"/>
-      <c r="AT18" s="49"/>
-      <c r="AU18" s="49"/>
-      <c r="AV18" s="49"/>
-      <c r="AW18" s="50"/>
-      <c r="AX18" s="48" t="s">
+      <c r="W18" s="55"/>
+      <c r="X18" s="55"/>
+      <c r="Y18" s="55"/>
+      <c r="Z18" s="55"/>
+      <c r="AA18" s="55"/>
+      <c r="AB18" s="55"/>
+      <c r="AC18" s="55"/>
+      <c r="AD18" s="55"/>
+      <c r="AE18" s="55"/>
+      <c r="AF18" s="55"/>
+      <c r="AG18" s="55"/>
+      <c r="AH18" s="55"/>
+      <c r="AI18" s="55"/>
+      <c r="AJ18" s="55"/>
+      <c r="AK18" s="55"/>
+      <c r="AL18" s="55"/>
+      <c r="AM18" s="55"/>
+      <c r="AN18" s="55"/>
+      <c r="AO18" s="55"/>
+      <c r="AP18" s="55"/>
+      <c r="AQ18" s="55"/>
+      <c r="AR18" s="55"/>
+      <c r="AS18" s="55"/>
+      <c r="AT18" s="55"/>
+      <c r="AU18" s="55"/>
+      <c r="AV18" s="55"/>
+      <c r="AW18" s="56"/>
+      <c r="AX18" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="AY18" s="49"/>
-      <c r="AZ18" s="49"/>
-      <c r="BA18" s="49"/>
-      <c r="BB18" s="49"/>
-      <c r="BC18" s="49"/>
-      <c r="BD18" s="49"/>
-      <c r="BE18" s="49"/>
-      <c r="BF18" s="49"/>
-      <c r="BG18" s="49"/>
-      <c r="BH18" s="49"/>
-      <c r="BI18" s="50"/>
-      <c r="BJ18" s="48" t="s">
+      <c r="AY18" s="55"/>
+      <c r="AZ18" s="55"/>
+      <c r="BA18" s="55"/>
+      <c r="BB18" s="55"/>
+      <c r="BC18" s="55"/>
+      <c r="BD18" s="55"/>
+      <c r="BE18" s="55"/>
+      <c r="BF18" s="55"/>
+      <c r="BG18" s="55"/>
+      <c r="BH18" s="55"/>
+      <c r="BI18" s="56"/>
+      <c r="BJ18" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="BK18" s="49"/>
-      <c r="BL18" s="49"/>
-      <c r="BM18" s="49"/>
-      <c r="BN18" s="49"/>
-      <c r="BO18" s="50"/>
-      <c r="BP18" s="49" t="s">
+      <c r="BK18" s="55"/>
+      <c r="BL18" s="55"/>
+      <c r="BM18" s="55"/>
+      <c r="BN18" s="55"/>
+      <c r="BO18" s="56"/>
+      <c r="BP18" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="BQ18" s="49"/>
-      <c r="BR18" s="49"/>
-      <c r="BS18" s="49"/>
-      <c r="BT18" s="49"/>
-      <c r="BU18" s="49"/>
-      <c r="BV18" s="49"/>
-      <c r="BW18" s="49"/>
-      <c r="BX18" s="49"/>
-      <c r="BY18" s="49"/>
-      <c r="BZ18" s="49"/>
-      <c r="CA18" s="49"/>
-      <c r="CB18" s="49"/>
-      <c r="CC18" s="49"/>
-      <c r="CD18" s="50"/>
+      <c r="BQ18" s="55"/>
+      <c r="BR18" s="55"/>
+      <c r="BS18" s="55"/>
+      <c r="BT18" s="55"/>
+      <c r="BU18" s="55"/>
+      <c r="BV18" s="55"/>
+      <c r="BW18" s="55"/>
+      <c r="BX18" s="55"/>
+      <c r="BY18" s="55"/>
+      <c r="BZ18" s="55"/>
+      <c r="CA18" s="55"/>
+      <c r="CB18" s="55"/>
+      <c r="CC18" s="55"/>
+      <c r="CD18" s="56"/>
     </row>
     <row r="19" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="11"/>
@@ -4929,90 +4925,90 @@
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
       <c r="G19" s="13"/>
-      <c r="I19" s="48" t="s">
+      <c r="I19" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="J19" s="49"/>
-      <c r="K19" s="49"/>
-      <c r="L19" s="49"/>
-      <c r="M19" s="49"/>
-      <c r="N19" s="49"/>
-      <c r="O19" s="49"/>
-      <c r="P19" s="49"/>
-      <c r="Q19" s="49"/>
-      <c r="R19" s="49"/>
-      <c r="S19" s="49"/>
-      <c r="T19" s="49"/>
-      <c r="U19" s="50"/>
-      <c r="V19" s="48" t="s">
+      <c r="J19" s="55"/>
+      <c r="K19" s="55"/>
+      <c r="L19" s="55"/>
+      <c r="M19" s="55"/>
+      <c r="N19" s="55"/>
+      <c r="O19" s="55"/>
+      <c r="P19" s="55"/>
+      <c r="Q19" s="55"/>
+      <c r="R19" s="55"/>
+      <c r="S19" s="55"/>
+      <c r="T19" s="55"/>
+      <c r="U19" s="56"/>
+      <c r="V19" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="W19" s="49"/>
-      <c r="X19" s="49"/>
-      <c r="Y19" s="49"/>
-      <c r="Z19" s="49"/>
-      <c r="AA19" s="49"/>
-      <c r="AB19" s="49"/>
-      <c r="AC19" s="49"/>
-      <c r="AD19" s="49"/>
-      <c r="AE19" s="49"/>
-      <c r="AF19" s="49"/>
-      <c r="AG19" s="49"/>
-      <c r="AH19" s="49"/>
-      <c r="AI19" s="49"/>
-      <c r="AJ19" s="49"/>
-      <c r="AK19" s="49"/>
-      <c r="AL19" s="49"/>
-      <c r="AM19" s="49"/>
-      <c r="AN19" s="49"/>
-      <c r="AO19" s="49"/>
-      <c r="AP19" s="49"/>
-      <c r="AQ19" s="49"/>
-      <c r="AR19" s="49"/>
-      <c r="AS19" s="49"/>
-      <c r="AT19" s="49"/>
-      <c r="AU19" s="49"/>
-      <c r="AV19" s="49"/>
-      <c r="AW19" s="50"/>
-      <c r="AX19" s="48" t="s">
+      <c r="W19" s="55"/>
+      <c r="X19" s="55"/>
+      <c r="Y19" s="55"/>
+      <c r="Z19" s="55"/>
+      <c r="AA19" s="55"/>
+      <c r="AB19" s="55"/>
+      <c r="AC19" s="55"/>
+      <c r="AD19" s="55"/>
+      <c r="AE19" s="55"/>
+      <c r="AF19" s="55"/>
+      <c r="AG19" s="55"/>
+      <c r="AH19" s="55"/>
+      <c r="AI19" s="55"/>
+      <c r="AJ19" s="55"/>
+      <c r="AK19" s="55"/>
+      <c r="AL19" s="55"/>
+      <c r="AM19" s="55"/>
+      <c r="AN19" s="55"/>
+      <c r="AO19" s="55"/>
+      <c r="AP19" s="55"/>
+      <c r="AQ19" s="55"/>
+      <c r="AR19" s="55"/>
+      <c r="AS19" s="55"/>
+      <c r="AT19" s="55"/>
+      <c r="AU19" s="55"/>
+      <c r="AV19" s="55"/>
+      <c r="AW19" s="56"/>
+      <c r="AX19" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="AY19" s="49"/>
-      <c r="AZ19" s="49"/>
-      <c r="BA19" s="49"/>
-      <c r="BB19" s="49"/>
-      <c r="BC19" s="49"/>
-      <c r="BD19" s="49"/>
-      <c r="BE19" s="49"/>
-      <c r="BF19" s="49"/>
-      <c r="BG19" s="49"/>
-      <c r="BH19" s="49"/>
-      <c r="BI19" s="50"/>
-      <c r="BJ19" s="48" t="s">
+      <c r="AY19" s="55"/>
+      <c r="AZ19" s="55"/>
+      <c r="BA19" s="55"/>
+      <c r="BB19" s="55"/>
+      <c r="BC19" s="55"/>
+      <c r="BD19" s="55"/>
+      <c r="BE19" s="55"/>
+      <c r="BF19" s="55"/>
+      <c r="BG19" s="55"/>
+      <c r="BH19" s="55"/>
+      <c r="BI19" s="56"/>
+      <c r="BJ19" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="BK19" s="49"/>
-      <c r="BL19" s="49"/>
-      <c r="BM19" s="49"/>
-      <c r="BN19" s="49"/>
-      <c r="BO19" s="50"/>
-      <c r="BP19" s="49" t="s">
+      <c r="BK19" s="55"/>
+      <c r="BL19" s="55"/>
+      <c r="BM19" s="55"/>
+      <c r="BN19" s="55"/>
+      <c r="BO19" s="56"/>
+      <c r="BP19" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="BQ19" s="49"/>
-      <c r="BR19" s="49"/>
-      <c r="BS19" s="49"/>
-      <c r="BT19" s="49"/>
-      <c r="BU19" s="49"/>
-      <c r="BV19" s="49"/>
-      <c r="BW19" s="49"/>
-      <c r="BX19" s="49"/>
-      <c r="BY19" s="49"/>
-      <c r="BZ19" s="49"/>
-      <c r="CA19" s="49"/>
-      <c r="CB19" s="49"/>
-      <c r="CC19" s="49"/>
-      <c r="CD19" s="50"/>
+      <c r="BQ19" s="55"/>
+      <c r="BR19" s="55"/>
+      <c r="BS19" s="55"/>
+      <c r="BT19" s="55"/>
+      <c r="BU19" s="55"/>
+      <c r="BV19" s="55"/>
+      <c r="BW19" s="55"/>
+      <c r="BX19" s="55"/>
+      <c r="BY19" s="55"/>
+      <c r="BZ19" s="55"/>
+      <c r="CA19" s="55"/>
+      <c r="CB19" s="55"/>
+      <c r="CC19" s="55"/>
+      <c r="CD19" s="56"/>
     </row>
     <row r="20" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="8"/>
@@ -5022,90 +5018,90 @@
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
       <c r="G20" s="10"/>
-      <c r="I20" s="48" t="s">
+      <c r="I20" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="J20" s="49"/>
-      <c r="K20" s="49"/>
-      <c r="L20" s="49"/>
-      <c r="M20" s="49"/>
-      <c r="N20" s="49"/>
-      <c r="O20" s="49"/>
-      <c r="P20" s="49"/>
-      <c r="Q20" s="49"/>
-      <c r="R20" s="49"/>
-      <c r="S20" s="49"/>
-      <c r="T20" s="49"/>
-      <c r="U20" s="50"/>
-      <c r="V20" s="48" t="s">
+      <c r="J20" s="55"/>
+      <c r="K20" s="55"/>
+      <c r="L20" s="55"/>
+      <c r="M20" s="55"/>
+      <c r="N20" s="55"/>
+      <c r="O20" s="55"/>
+      <c r="P20" s="55"/>
+      <c r="Q20" s="55"/>
+      <c r="R20" s="55"/>
+      <c r="S20" s="55"/>
+      <c r="T20" s="55"/>
+      <c r="U20" s="56"/>
+      <c r="V20" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="W20" s="55"/>
+      <c r="X20" s="55"/>
+      <c r="Y20" s="55"/>
+      <c r="Z20" s="55"/>
+      <c r="AA20" s="55"/>
+      <c r="AB20" s="55"/>
+      <c r="AC20" s="55"/>
+      <c r="AD20" s="55"/>
+      <c r="AE20" s="55"/>
+      <c r="AF20" s="55"/>
+      <c r="AG20" s="55"/>
+      <c r="AH20" s="55"/>
+      <c r="AI20" s="55"/>
+      <c r="AJ20" s="55"/>
+      <c r="AK20" s="55"/>
+      <c r="AL20" s="55"/>
+      <c r="AM20" s="55"/>
+      <c r="AN20" s="55"/>
+      <c r="AO20" s="55"/>
+      <c r="AP20" s="55"/>
+      <c r="AQ20" s="55"/>
+      <c r="AR20" s="55"/>
+      <c r="AS20" s="55"/>
+      <c r="AT20" s="55"/>
+      <c r="AU20" s="55"/>
+      <c r="AV20" s="55"/>
+      <c r="AW20" s="56"/>
+      <c r="AX20" s="54" t="s">
+        <v>28</v>
+      </c>
+      <c r="AY20" s="55"/>
+      <c r="AZ20" s="55"/>
+      <c r="BA20" s="55"/>
+      <c r="BB20" s="55"/>
+      <c r="BC20" s="55"/>
+      <c r="BD20" s="55"/>
+      <c r="BE20" s="55"/>
+      <c r="BF20" s="55"/>
+      <c r="BG20" s="55"/>
+      <c r="BH20" s="55"/>
+      <c r="BI20" s="56"/>
+      <c r="BJ20" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="BK20" s="55"/>
+      <c r="BL20" s="55"/>
+      <c r="BM20" s="55"/>
+      <c r="BN20" s="55"/>
+      <c r="BO20" s="56"/>
+      <c r="BP20" s="55" t="s">
         <v>77</v>
       </c>
-      <c r="W20" s="49"/>
-      <c r="X20" s="49"/>
-      <c r="Y20" s="49"/>
-      <c r="Z20" s="49"/>
-      <c r="AA20" s="49"/>
-      <c r="AB20" s="49"/>
-      <c r="AC20" s="49"/>
-      <c r="AD20" s="49"/>
-      <c r="AE20" s="49"/>
-      <c r="AF20" s="49"/>
-      <c r="AG20" s="49"/>
-      <c r="AH20" s="49"/>
-      <c r="AI20" s="49"/>
-      <c r="AJ20" s="49"/>
-      <c r="AK20" s="49"/>
-      <c r="AL20" s="49"/>
-      <c r="AM20" s="49"/>
-      <c r="AN20" s="49"/>
-      <c r="AO20" s="49"/>
-      <c r="AP20" s="49"/>
-      <c r="AQ20" s="49"/>
-      <c r="AR20" s="49"/>
-      <c r="AS20" s="49"/>
-      <c r="AT20" s="49"/>
-      <c r="AU20" s="49"/>
-      <c r="AV20" s="49"/>
-      <c r="AW20" s="50"/>
-      <c r="AX20" s="48" t="s">
-        <v>28</v>
-      </c>
-      <c r="AY20" s="49"/>
-      <c r="AZ20" s="49"/>
-      <c r="BA20" s="49"/>
-      <c r="BB20" s="49"/>
-      <c r="BC20" s="49"/>
-      <c r="BD20" s="49"/>
-      <c r="BE20" s="49"/>
-      <c r="BF20" s="49"/>
-      <c r="BG20" s="49"/>
-      <c r="BH20" s="49"/>
-      <c r="BI20" s="50"/>
-      <c r="BJ20" s="48" t="s">
-        <v>24</v>
-      </c>
-      <c r="BK20" s="49"/>
-      <c r="BL20" s="49"/>
-      <c r="BM20" s="49"/>
-      <c r="BN20" s="49"/>
-      <c r="BO20" s="50"/>
-      <c r="BP20" s="49" t="s">
-        <v>78</v>
-      </c>
-      <c r="BQ20" s="49"/>
-      <c r="BR20" s="49"/>
-      <c r="BS20" s="49"/>
-      <c r="BT20" s="49"/>
-      <c r="BU20" s="49"/>
-      <c r="BV20" s="49"/>
-      <c r="BW20" s="49"/>
-      <c r="BX20" s="49"/>
-      <c r="BY20" s="49"/>
-      <c r="BZ20" s="49"/>
-      <c r="CA20" s="49"/>
-      <c r="CB20" s="49"/>
-      <c r="CC20" s="49"/>
-      <c r="CD20" s="50"/>
+      <c r="BQ20" s="55"/>
+      <c r="BR20" s="55"/>
+      <c r="BS20" s="55"/>
+      <c r="BT20" s="55"/>
+      <c r="BU20" s="55"/>
+      <c r="BV20" s="55"/>
+      <c r="BW20" s="55"/>
+      <c r="BX20" s="55"/>
+      <c r="BY20" s="55"/>
+      <c r="BZ20" s="55"/>
+      <c r="CA20" s="55"/>
+      <c r="CB20" s="55"/>
+      <c r="CC20" s="55"/>
+      <c r="CD20" s="56"/>
     </row>
     <row r="21" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="11"/>
@@ -5115,90 +5111,90 @@
       <c r="E21" s="12"/>
       <c r="F21" s="12"/>
       <c r="G21" s="13"/>
-      <c r="I21" s="48" t="s">
+      <c r="I21" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="J21" s="49"/>
-      <c r="K21" s="49"/>
-      <c r="L21" s="49"/>
-      <c r="M21" s="49"/>
-      <c r="N21" s="49"/>
-      <c r="O21" s="49"/>
-      <c r="P21" s="49"/>
-      <c r="Q21" s="49"/>
-      <c r="R21" s="49"/>
-      <c r="S21" s="49"/>
-      <c r="T21" s="49"/>
-      <c r="U21" s="50"/>
-      <c r="V21" s="48" t="s">
+      <c r="J21" s="55"/>
+      <c r="K21" s="55"/>
+      <c r="L21" s="55"/>
+      <c r="M21" s="55"/>
+      <c r="N21" s="55"/>
+      <c r="O21" s="55"/>
+      <c r="P21" s="55"/>
+      <c r="Q21" s="55"/>
+      <c r="R21" s="55"/>
+      <c r="S21" s="55"/>
+      <c r="T21" s="55"/>
+      <c r="U21" s="56"/>
+      <c r="V21" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="W21" s="49"/>
-      <c r="X21" s="49"/>
-      <c r="Y21" s="49"/>
-      <c r="Z21" s="49"/>
-      <c r="AA21" s="49"/>
-      <c r="AB21" s="49"/>
-      <c r="AC21" s="49"/>
-      <c r="AD21" s="49"/>
-      <c r="AE21" s="49"/>
-      <c r="AF21" s="49"/>
-      <c r="AG21" s="49"/>
-      <c r="AH21" s="49"/>
-      <c r="AI21" s="49"/>
-      <c r="AJ21" s="49"/>
-      <c r="AK21" s="49"/>
-      <c r="AL21" s="49"/>
-      <c r="AM21" s="49"/>
-      <c r="AN21" s="49"/>
-      <c r="AO21" s="49"/>
-      <c r="AP21" s="49"/>
-      <c r="AQ21" s="49"/>
-      <c r="AR21" s="49"/>
-      <c r="AS21" s="49"/>
-      <c r="AT21" s="49"/>
-      <c r="AU21" s="49"/>
-      <c r="AV21" s="49"/>
-      <c r="AW21" s="50"/>
-      <c r="AX21" s="48" t="s">
+      <c r="W21" s="55"/>
+      <c r="X21" s="55"/>
+      <c r="Y21" s="55"/>
+      <c r="Z21" s="55"/>
+      <c r="AA21" s="55"/>
+      <c r="AB21" s="55"/>
+      <c r="AC21" s="55"/>
+      <c r="AD21" s="55"/>
+      <c r="AE21" s="55"/>
+      <c r="AF21" s="55"/>
+      <c r="AG21" s="55"/>
+      <c r="AH21" s="55"/>
+      <c r="AI21" s="55"/>
+      <c r="AJ21" s="55"/>
+      <c r="AK21" s="55"/>
+      <c r="AL21" s="55"/>
+      <c r="AM21" s="55"/>
+      <c r="AN21" s="55"/>
+      <c r="AO21" s="55"/>
+      <c r="AP21" s="55"/>
+      <c r="AQ21" s="55"/>
+      <c r="AR21" s="55"/>
+      <c r="AS21" s="55"/>
+      <c r="AT21" s="55"/>
+      <c r="AU21" s="55"/>
+      <c r="AV21" s="55"/>
+      <c r="AW21" s="56"/>
+      <c r="AX21" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="AY21" s="49"/>
-      <c r="AZ21" s="49"/>
-      <c r="BA21" s="49"/>
-      <c r="BB21" s="49"/>
-      <c r="BC21" s="49"/>
-      <c r="BD21" s="49"/>
-      <c r="BE21" s="49"/>
-      <c r="BF21" s="49"/>
-      <c r="BG21" s="49"/>
-      <c r="BH21" s="49"/>
-      <c r="BI21" s="50"/>
-      <c r="BJ21" s="48" t="s">
+      <c r="AY21" s="55"/>
+      <c r="AZ21" s="55"/>
+      <c r="BA21" s="55"/>
+      <c r="BB21" s="55"/>
+      <c r="BC21" s="55"/>
+      <c r="BD21" s="55"/>
+      <c r="BE21" s="55"/>
+      <c r="BF21" s="55"/>
+      <c r="BG21" s="55"/>
+      <c r="BH21" s="55"/>
+      <c r="BI21" s="56"/>
+      <c r="BJ21" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="BK21" s="49"/>
-      <c r="BL21" s="49"/>
-      <c r="BM21" s="49"/>
-      <c r="BN21" s="49"/>
-      <c r="BO21" s="50"/>
-      <c r="BP21" s="49" t="s">
+      <c r="BK21" s="55"/>
+      <c r="BL21" s="55"/>
+      <c r="BM21" s="55"/>
+      <c r="BN21" s="55"/>
+      <c r="BO21" s="56"/>
+      <c r="BP21" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="BQ21" s="49"/>
-      <c r="BR21" s="49"/>
-      <c r="BS21" s="49"/>
-      <c r="BT21" s="49"/>
-      <c r="BU21" s="49"/>
-      <c r="BV21" s="49"/>
-      <c r="BW21" s="49"/>
-      <c r="BX21" s="49"/>
-      <c r="BY21" s="49"/>
-      <c r="BZ21" s="49"/>
-      <c r="CA21" s="49"/>
-      <c r="CB21" s="49"/>
-      <c r="CC21" s="49"/>
-      <c r="CD21" s="50"/>
+      <c r="BQ21" s="55"/>
+      <c r="BR21" s="55"/>
+      <c r="BS21" s="55"/>
+      <c r="BT21" s="55"/>
+      <c r="BU21" s="55"/>
+      <c r="BV21" s="55"/>
+      <c r="BW21" s="55"/>
+      <c r="BX21" s="55"/>
+      <c r="BY21" s="55"/>
+      <c r="BZ21" s="55"/>
+      <c r="CA21" s="55"/>
+      <c r="CB21" s="55"/>
+      <c r="CC21" s="55"/>
+      <c r="CD21" s="56"/>
     </row>
     <row r="22" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="8"/>
@@ -5208,90 +5204,90 @@
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
       <c r="G22" s="10"/>
-      <c r="I22" s="48" t="s">
+      <c r="I22" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="J22" s="49"/>
-      <c r="K22" s="49"/>
-      <c r="L22" s="49"/>
-      <c r="M22" s="49"/>
-      <c r="N22" s="49"/>
-      <c r="O22" s="49"/>
-      <c r="P22" s="49"/>
-      <c r="Q22" s="49"/>
-      <c r="R22" s="49"/>
-      <c r="S22" s="49"/>
-      <c r="T22" s="49"/>
-      <c r="U22" s="50"/>
-      <c r="V22" s="48" t="s">
+      <c r="J22" s="55"/>
+      <c r="K22" s="55"/>
+      <c r="L22" s="55"/>
+      <c r="M22" s="55"/>
+      <c r="N22" s="55"/>
+      <c r="O22" s="55"/>
+      <c r="P22" s="55"/>
+      <c r="Q22" s="55"/>
+      <c r="R22" s="55"/>
+      <c r="S22" s="55"/>
+      <c r="T22" s="55"/>
+      <c r="U22" s="56"/>
+      <c r="V22" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="W22" s="49"/>
-      <c r="X22" s="49"/>
-      <c r="Y22" s="49"/>
-      <c r="Z22" s="49"/>
-      <c r="AA22" s="49"/>
-      <c r="AB22" s="49"/>
-      <c r="AC22" s="49"/>
-      <c r="AD22" s="49"/>
-      <c r="AE22" s="49"/>
-      <c r="AF22" s="49"/>
-      <c r="AG22" s="49"/>
-      <c r="AH22" s="49"/>
-      <c r="AI22" s="49"/>
-      <c r="AJ22" s="49"/>
-      <c r="AK22" s="49"/>
-      <c r="AL22" s="49"/>
-      <c r="AM22" s="49"/>
-      <c r="AN22" s="49"/>
-      <c r="AO22" s="49"/>
-      <c r="AP22" s="49"/>
-      <c r="AQ22" s="49"/>
-      <c r="AR22" s="49"/>
-      <c r="AS22" s="49"/>
-      <c r="AT22" s="49"/>
-      <c r="AU22" s="49"/>
-      <c r="AV22" s="49"/>
-      <c r="AW22" s="50"/>
-      <c r="AX22" s="48" t="s">
+      <c r="W22" s="55"/>
+      <c r="X22" s="55"/>
+      <c r="Y22" s="55"/>
+      <c r="Z22" s="55"/>
+      <c r="AA22" s="55"/>
+      <c r="AB22" s="55"/>
+      <c r="AC22" s="55"/>
+      <c r="AD22" s="55"/>
+      <c r="AE22" s="55"/>
+      <c r="AF22" s="55"/>
+      <c r="AG22" s="55"/>
+      <c r="AH22" s="55"/>
+      <c r="AI22" s="55"/>
+      <c r="AJ22" s="55"/>
+      <c r="AK22" s="55"/>
+      <c r="AL22" s="55"/>
+      <c r="AM22" s="55"/>
+      <c r="AN22" s="55"/>
+      <c r="AO22" s="55"/>
+      <c r="AP22" s="55"/>
+      <c r="AQ22" s="55"/>
+      <c r="AR22" s="55"/>
+      <c r="AS22" s="55"/>
+      <c r="AT22" s="55"/>
+      <c r="AU22" s="55"/>
+      <c r="AV22" s="55"/>
+      <c r="AW22" s="56"/>
+      <c r="AX22" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="AY22" s="49"/>
-      <c r="AZ22" s="49"/>
-      <c r="BA22" s="49"/>
-      <c r="BB22" s="49"/>
-      <c r="BC22" s="49"/>
-      <c r="BD22" s="49"/>
-      <c r="BE22" s="49"/>
-      <c r="BF22" s="49"/>
-      <c r="BG22" s="49"/>
-      <c r="BH22" s="49"/>
-      <c r="BI22" s="50"/>
-      <c r="BJ22" s="48" t="s">
-        <v>49</v>
-      </c>
-      <c r="BK22" s="49"/>
-      <c r="BL22" s="49"/>
-      <c r="BM22" s="49"/>
-      <c r="BN22" s="49"/>
-      <c r="BO22" s="50"/>
-      <c r="BP22" s="49" t="s">
-        <v>85</v>
-      </c>
-      <c r="BQ22" s="49"/>
-      <c r="BR22" s="49"/>
-      <c r="BS22" s="49"/>
-      <c r="BT22" s="49"/>
-      <c r="BU22" s="49"/>
-      <c r="BV22" s="49"/>
-      <c r="BW22" s="49"/>
-      <c r="BX22" s="49"/>
-      <c r="BY22" s="49"/>
-      <c r="BZ22" s="49"/>
-      <c r="CA22" s="49"/>
-      <c r="CB22" s="49"/>
-      <c r="CC22" s="49"/>
-      <c r="CD22" s="50"/>
+      <c r="AY22" s="55"/>
+      <c r="AZ22" s="55"/>
+      <c r="BA22" s="55"/>
+      <c r="BB22" s="55"/>
+      <c r="BC22" s="55"/>
+      <c r="BD22" s="55"/>
+      <c r="BE22" s="55"/>
+      <c r="BF22" s="55"/>
+      <c r="BG22" s="55"/>
+      <c r="BH22" s="55"/>
+      <c r="BI22" s="56"/>
+      <c r="BJ22" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="BK22" s="55"/>
+      <c r="BL22" s="55"/>
+      <c r="BM22" s="55"/>
+      <c r="BN22" s="55"/>
+      <c r="BO22" s="56"/>
+      <c r="BP22" s="55" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ22" s="55"/>
+      <c r="BR22" s="55"/>
+      <c r="BS22" s="55"/>
+      <c r="BT22" s="55"/>
+      <c r="BU22" s="55"/>
+      <c r="BV22" s="55"/>
+      <c r="BW22" s="55"/>
+      <c r="BX22" s="55"/>
+      <c r="BY22" s="55"/>
+      <c r="BZ22" s="55"/>
+      <c r="CA22" s="55"/>
+      <c r="CB22" s="55"/>
+      <c r="CC22" s="55"/>
+      <c r="CD22" s="56"/>
     </row>
     <row r="23" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="11"/>
@@ -5301,90 +5297,90 @@
       <c r="E23" s="12"/>
       <c r="F23" s="12"/>
       <c r="G23" s="13"/>
-      <c r="I23" s="48" t="s">
+      <c r="I23" s="54" t="s">
+        <v>49</v>
+      </c>
+      <c r="J23" s="55"/>
+      <c r="K23" s="55"/>
+      <c r="L23" s="55"/>
+      <c r="M23" s="55"/>
+      <c r="N23" s="55"/>
+      <c r="O23" s="55"/>
+      <c r="P23" s="55"/>
+      <c r="Q23" s="55"/>
+      <c r="R23" s="55"/>
+      <c r="S23" s="55"/>
+      <c r="T23" s="55"/>
+      <c r="U23" s="56"/>
+      <c r="V23" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="J23" s="49"/>
-      <c r="K23" s="49"/>
-      <c r="L23" s="49"/>
-      <c r="M23" s="49"/>
-      <c r="N23" s="49"/>
-      <c r="O23" s="49"/>
-      <c r="P23" s="49"/>
-      <c r="Q23" s="49"/>
-      <c r="R23" s="49"/>
-      <c r="S23" s="49"/>
-      <c r="T23" s="49"/>
-      <c r="U23" s="50"/>
-      <c r="V23" s="48" t="s">
-        <v>51</v>
-      </c>
-      <c r="W23" s="49"/>
-      <c r="X23" s="49"/>
-      <c r="Y23" s="49"/>
-      <c r="Z23" s="49"/>
-      <c r="AA23" s="49"/>
-      <c r="AB23" s="49"/>
-      <c r="AC23" s="49"/>
-      <c r="AD23" s="49"/>
-      <c r="AE23" s="49"/>
-      <c r="AF23" s="49"/>
-      <c r="AG23" s="49"/>
-      <c r="AH23" s="49"/>
-      <c r="AI23" s="49"/>
-      <c r="AJ23" s="49"/>
-      <c r="AK23" s="49"/>
-      <c r="AL23" s="49"/>
-      <c r="AM23" s="49"/>
-      <c r="AN23" s="49"/>
-      <c r="AO23" s="49"/>
-      <c r="AP23" s="49"/>
-      <c r="AQ23" s="49"/>
-      <c r="AR23" s="49"/>
-      <c r="AS23" s="49"/>
-      <c r="AT23" s="49"/>
-      <c r="AU23" s="49"/>
-      <c r="AV23" s="49"/>
-      <c r="AW23" s="50"/>
-      <c r="AX23" s="48" t="s">
+      <c r="W23" s="55"/>
+      <c r="X23" s="55"/>
+      <c r="Y23" s="55"/>
+      <c r="Z23" s="55"/>
+      <c r="AA23" s="55"/>
+      <c r="AB23" s="55"/>
+      <c r="AC23" s="55"/>
+      <c r="AD23" s="55"/>
+      <c r="AE23" s="55"/>
+      <c r="AF23" s="55"/>
+      <c r="AG23" s="55"/>
+      <c r="AH23" s="55"/>
+      <c r="AI23" s="55"/>
+      <c r="AJ23" s="55"/>
+      <c r="AK23" s="55"/>
+      <c r="AL23" s="55"/>
+      <c r="AM23" s="55"/>
+      <c r="AN23" s="55"/>
+      <c r="AO23" s="55"/>
+      <c r="AP23" s="55"/>
+      <c r="AQ23" s="55"/>
+      <c r="AR23" s="55"/>
+      <c r="AS23" s="55"/>
+      <c r="AT23" s="55"/>
+      <c r="AU23" s="55"/>
+      <c r="AV23" s="55"/>
+      <c r="AW23" s="56"/>
+      <c r="AX23" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="AY23" s="49"/>
-      <c r="AZ23" s="49"/>
-      <c r="BA23" s="49"/>
-      <c r="BB23" s="49"/>
-      <c r="BC23" s="49"/>
-      <c r="BD23" s="49"/>
-      <c r="BE23" s="49"/>
-      <c r="BF23" s="49"/>
-      <c r="BG23" s="49"/>
-      <c r="BH23" s="49"/>
-      <c r="BI23" s="50"/>
-      <c r="BJ23" s="48" t="s">
-        <v>49</v>
-      </c>
-      <c r="BK23" s="49"/>
-      <c r="BL23" s="49"/>
-      <c r="BM23" s="49"/>
-      <c r="BN23" s="49"/>
-      <c r="BO23" s="50"/>
-      <c r="BP23" s="48" t="s">
-        <v>86</v>
-      </c>
-      <c r="BQ23" s="49"/>
-      <c r="BR23" s="49"/>
-      <c r="BS23" s="49"/>
-      <c r="BT23" s="49"/>
-      <c r="BU23" s="49"/>
-      <c r="BV23" s="49"/>
-      <c r="BW23" s="49"/>
-      <c r="BX23" s="49"/>
-      <c r="BY23" s="49"/>
-      <c r="BZ23" s="49"/>
-      <c r="CA23" s="49"/>
-      <c r="CB23" s="49"/>
-      <c r="CC23" s="49"/>
-      <c r="CD23" s="50"/>
+      <c r="AY23" s="55"/>
+      <c r="AZ23" s="55"/>
+      <c r="BA23" s="55"/>
+      <c r="BB23" s="55"/>
+      <c r="BC23" s="55"/>
+      <c r="BD23" s="55"/>
+      <c r="BE23" s="55"/>
+      <c r="BF23" s="55"/>
+      <c r="BG23" s="55"/>
+      <c r="BH23" s="55"/>
+      <c r="BI23" s="56"/>
+      <c r="BJ23" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="BK23" s="55"/>
+      <c r="BL23" s="55"/>
+      <c r="BM23" s="55"/>
+      <c r="BN23" s="55"/>
+      <c r="BO23" s="56"/>
+      <c r="BP23" s="54" t="s">
+        <v>85</v>
+      </c>
+      <c r="BQ23" s="55"/>
+      <c r="BR23" s="55"/>
+      <c r="BS23" s="55"/>
+      <c r="BT23" s="55"/>
+      <c r="BU23" s="55"/>
+      <c r="BV23" s="55"/>
+      <c r="BW23" s="55"/>
+      <c r="BX23" s="55"/>
+      <c r="BY23" s="55"/>
+      <c r="BZ23" s="55"/>
+      <c r="CA23" s="55"/>
+      <c r="CB23" s="55"/>
+      <c r="CC23" s="55"/>
+      <c r="CD23" s="56"/>
     </row>
     <row r="24" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="8"/>
@@ -5394,80 +5390,80 @@
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
       <c r="G24" s="10"/>
-      <c r="I24" s="48"/>
-      <c r="J24" s="49"/>
-      <c r="K24" s="49"/>
-      <c r="L24" s="49"/>
-      <c r="M24" s="49"/>
-      <c r="N24" s="49"/>
-      <c r="O24" s="49"/>
-      <c r="P24" s="49"/>
-      <c r="Q24" s="49"/>
-      <c r="R24" s="49"/>
-      <c r="S24" s="49"/>
-      <c r="T24" s="49"/>
-      <c r="U24" s="50"/>
-      <c r="V24" s="48"/>
-      <c r="W24" s="49"/>
-      <c r="X24" s="49"/>
-      <c r="Y24" s="49"/>
-      <c r="Z24" s="49"/>
-      <c r="AA24" s="49"/>
-      <c r="AB24" s="49"/>
-      <c r="AC24" s="49"/>
-      <c r="AD24" s="49"/>
-      <c r="AE24" s="49"/>
-      <c r="AF24" s="49"/>
-      <c r="AG24" s="49"/>
-      <c r="AH24" s="49"/>
-      <c r="AI24" s="49"/>
-      <c r="AJ24" s="49"/>
-      <c r="AK24" s="49"/>
-      <c r="AL24" s="49"/>
-      <c r="AM24" s="49"/>
-      <c r="AN24" s="49"/>
-      <c r="AO24" s="49"/>
-      <c r="AP24" s="49"/>
-      <c r="AQ24" s="49"/>
-      <c r="AR24" s="49"/>
-      <c r="AS24" s="49"/>
-      <c r="AT24" s="49"/>
-      <c r="AU24" s="49"/>
-      <c r="AV24" s="49"/>
-      <c r="AW24" s="50"/>
-      <c r="AX24" s="48"/>
-      <c r="AY24" s="49"/>
-      <c r="AZ24" s="49"/>
-      <c r="BA24" s="49"/>
-      <c r="BB24" s="49"/>
-      <c r="BC24" s="49"/>
-      <c r="BD24" s="49"/>
-      <c r="BE24" s="49"/>
-      <c r="BF24" s="49"/>
-      <c r="BG24" s="49"/>
-      <c r="BH24" s="49"/>
-      <c r="BI24" s="50"/>
-      <c r="BJ24" s="48"/>
-      <c r="BK24" s="49"/>
-      <c r="BL24" s="49"/>
-      <c r="BM24" s="49"/>
-      <c r="BN24" s="49"/>
-      <c r="BO24" s="50"/>
-      <c r="BP24" s="48"/>
-      <c r="BQ24" s="49"/>
-      <c r="BR24" s="49"/>
-      <c r="BS24" s="49"/>
-      <c r="BT24" s="49"/>
-      <c r="BU24" s="49"/>
-      <c r="BV24" s="49"/>
-      <c r="BW24" s="49"/>
-      <c r="BX24" s="49"/>
-      <c r="BY24" s="49"/>
-      <c r="BZ24" s="49"/>
-      <c r="CA24" s="49"/>
-      <c r="CB24" s="49"/>
-      <c r="CC24" s="49"/>
-      <c r="CD24" s="50"/>
+      <c r="I24" s="54"/>
+      <c r="J24" s="55"/>
+      <c r="K24" s="55"/>
+      <c r="L24" s="55"/>
+      <c r="M24" s="55"/>
+      <c r="N24" s="55"/>
+      <c r="O24" s="55"/>
+      <c r="P24" s="55"/>
+      <c r="Q24" s="55"/>
+      <c r="R24" s="55"/>
+      <c r="S24" s="55"/>
+      <c r="T24" s="55"/>
+      <c r="U24" s="56"/>
+      <c r="V24" s="54"/>
+      <c r="W24" s="55"/>
+      <c r="X24" s="55"/>
+      <c r="Y24" s="55"/>
+      <c r="Z24" s="55"/>
+      <c r="AA24" s="55"/>
+      <c r="AB24" s="55"/>
+      <c r="AC24" s="55"/>
+      <c r="AD24" s="55"/>
+      <c r="AE24" s="55"/>
+      <c r="AF24" s="55"/>
+      <c r="AG24" s="55"/>
+      <c r="AH24" s="55"/>
+      <c r="AI24" s="55"/>
+      <c r="AJ24" s="55"/>
+      <c r="AK24" s="55"/>
+      <c r="AL24" s="55"/>
+      <c r="AM24" s="55"/>
+      <c r="AN24" s="55"/>
+      <c r="AO24" s="55"/>
+      <c r="AP24" s="55"/>
+      <c r="AQ24" s="55"/>
+      <c r="AR24" s="55"/>
+      <c r="AS24" s="55"/>
+      <c r="AT24" s="55"/>
+      <c r="AU24" s="55"/>
+      <c r="AV24" s="55"/>
+      <c r="AW24" s="56"/>
+      <c r="AX24" s="54"/>
+      <c r="AY24" s="55"/>
+      <c r="AZ24" s="55"/>
+      <c r="BA24" s="55"/>
+      <c r="BB24" s="55"/>
+      <c r="BC24" s="55"/>
+      <c r="BD24" s="55"/>
+      <c r="BE24" s="55"/>
+      <c r="BF24" s="55"/>
+      <c r="BG24" s="55"/>
+      <c r="BH24" s="55"/>
+      <c r="BI24" s="56"/>
+      <c r="BJ24" s="54"/>
+      <c r="BK24" s="55"/>
+      <c r="BL24" s="55"/>
+      <c r="BM24" s="55"/>
+      <c r="BN24" s="55"/>
+      <c r="BO24" s="56"/>
+      <c r="BP24" s="54"/>
+      <c r="BQ24" s="55"/>
+      <c r="BR24" s="55"/>
+      <c r="BS24" s="55"/>
+      <c r="BT24" s="55"/>
+      <c r="BU24" s="55"/>
+      <c r="BV24" s="55"/>
+      <c r="BW24" s="55"/>
+      <c r="BX24" s="55"/>
+      <c r="BY24" s="55"/>
+      <c r="BZ24" s="55"/>
+      <c r="CA24" s="55"/>
+      <c r="CB24" s="55"/>
+      <c r="CC24" s="55"/>
+      <c r="CD24" s="56"/>
     </row>
     <row r="25" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="11"/>
@@ -5477,80 +5473,80 @@
       <c r="E25" s="12"/>
       <c r="F25" s="12"/>
       <c r="G25" s="13"/>
-      <c r="I25" s="48"/>
-      <c r="J25" s="49"/>
-      <c r="K25" s="49"/>
-      <c r="L25" s="49"/>
-      <c r="M25" s="49"/>
-      <c r="N25" s="49"/>
-      <c r="O25" s="49"/>
-      <c r="P25" s="49"/>
-      <c r="Q25" s="49"/>
-      <c r="R25" s="49"/>
-      <c r="S25" s="49"/>
-      <c r="T25" s="49"/>
-      <c r="U25" s="50"/>
-      <c r="V25" s="48"/>
-      <c r="W25" s="49"/>
-      <c r="X25" s="49"/>
-      <c r="Y25" s="49"/>
-      <c r="Z25" s="49"/>
-      <c r="AA25" s="49"/>
-      <c r="AB25" s="49"/>
-      <c r="AC25" s="49"/>
-      <c r="AD25" s="49"/>
-      <c r="AE25" s="49"/>
-      <c r="AF25" s="49"/>
-      <c r="AG25" s="49"/>
-      <c r="AH25" s="49"/>
-      <c r="AI25" s="49"/>
-      <c r="AJ25" s="49"/>
-      <c r="AK25" s="49"/>
-      <c r="AL25" s="49"/>
-      <c r="AM25" s="49"/>
-      <c r="AN25" s="49"/>
-      <c r="AO25" s="49"/>
-      <c r="AP25" s="49"/>
-      <c r="AQ25" s="49"/>
-      <c r="AR25" s="49"/>
-      <c r="AS25" s="49"/>
-      <c r="AT25" s="49"/>
-      <c r="AU25" s="49"/>
-      <c r="AV25" s="49"/>
-      <c r="AW25" s="50"/>
-      <c r="AX25" s="48"/>
-      <c r="AY25" s="49"/>
-      <c r="AZ25" s="49"/>
-      <c r="BA25" s="49"/>
-      <c r="BB25" s="49"/>
-      <c r="BC25" s="49"/>
-      <c r="BD25" s="49"/>
-      <c r="BE25" s="49"/>
-      <c r="BF25" s="49"/>
-      <c r="BG25" s="49"/>
-      <c r="BH25" s="49"/>
-      <c r="BI25" s="50"/>
-      <c r="BJ25" s="48"/>
-      <c r="BK25" s="49"/>
-      <c r="BL25" s="49"/>
-      <c r="BM25" s="49"/>
-      <c r="BN25" s="49"/>
-      <c r="BO25" s="50"/>
-      <c r="BP25" s="48"/>
-      <c r="BQ25" s="49"/>
-      <c r="BR25" s="49"/>
-      <c r="BS25" s="49"/>
-      <c r="BT25" s="49"/>
-      <c r="BU25" s="49"/>
-      <c r="BV25" s="49"/>
-      <c r="BW25" s="49"/>
-      <c r="BX25" s="49"/>
-      <c r="BY25" s="49"/>
-      <c r="BZ25" s="49"/>
-      <c r="CA25" s="49"/>
-      <c r="CB25" s="49"/>
-      <c r="CC25" s="49"/>
-      <c r="CD25" s="50"/>
+      <c r="I25" s="54"/>
+      <c r="J25" s="55"/>
+      <c r="K25" s="55"/>
+      <c r="L25" s="55"/>
+      <c r="M25" s="55"/>
+      <c r="N25" s="55"/>
+      <c r="O25" s="55"/>
+      <c r="P25" s="55"/>
+      <c r="Q25" s="55"/>
+      <c r="R25" s="55"/>
+      <c r="S25" s="55"/>
+      <c r="T25" s="55"/>
+      <c r="U25" s="56"/>
+      <c r="V25" s="54"/>
+      <c r="W25" s="55"/>
+      <c r="X25" s="55"/>
+      <c r="Y25" s="55"/>
+      <c r="Z25" s="55"/>
+      <c r="AA25" s="55"/>
+      <c r="AB25" s="55"/>
+      <c r="AC25" s="55"/>
+      <c r="AD25" s="55"/>
+      <c r="AE25" s="55"/>
+      <c r="AF25" s="55"/>
+      <c r="AG25" s="55"/>
+      <c r="AH25" s="55"/>
+      <c r="AI25" s="55"/>
+      <c r="AJ25" s="55"/>
+      <c r="AK25" s="55"/>
+      <c r="AL25" s="55"/>
+      <c r="AM25" s="55"/>
+      <c r="AN25" s="55"/>
+      <c r="AO25" s="55"/>
+      <c r="AP25" s="55"/>
+      <c r="AQ25" s="55"/>
+      <c r="AR25" s="55"/>
+      <c r="AS25" s="55"/>
+      <c r="AT25" s="55"/>
+      <c r="AU25" s="55"/>
+      <c r="AV25" s="55"/>
+      <c r="AW25" s="56"/>
+      <c r="AX25" s="54"/>
+      <c r="AY25" s="55"/>
+      <c r="AZ25" s="55"/>
+      <c r="BA25" s="55"/>
+      <c r="BB25" s="55"/>
+      <c r="BC25" s="55"/>
+      <c r="BD25" s="55"/>
+      <c r="BE25" s="55"/>
+      <c r="BF25" s="55"/>
+      <c r="BG25" s="55"/>
+      <c r="BH25" s="55"/>
+      <c r="BI25" s="56"/>
+      <c r="BJ25" s="54"/>
+      <c r="BK25" s="55"/>
+      <c r="BL25" s="55"/>
+      <c r="BM25" s="55"/>
+      <c r="BN25" s="55"/>
+      <c r="BO25" s="56"/>
+      <c r="BP25" s="54"/>
+      <c r="BQ25" s="55"/>
+      <c r="BR25" s="55"/>
+      <c r="BS25" s="55"/>
+      <c r="BT25" s="55"/>
+      <c r="BU25" s="55"/>
+      <c r="BV25" s="55"/>
+      <c r="BW25" s="55"/>
+      <c r="BX25" s="55"/>
+      <c r="BY25" s="55"/>
+      <c r="BZ25" s="55"/>
+      <c r="CA25" s="55"/>
+      <c r="CB25" s="55"/>
+      <c r="CC25" s="55"/>
+      <c r="CD25" s="56"/>
     </row>
     <row r="26" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="8"/>
@@ -5560,80 +5556,80 @@
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
       <c r="G26" s="10"/>
-      <c r="I26" s="48"/>
-      <c r="J26" s="49"/>
-      <c r="K26" s="49"/>
-      <c r="L26" s="49"/>
-      <c r="M26" s="49"/>
-      <c r="N26" s="49"/>
-      <c r="O26" s="49"/>
-      <c r="P26" s="49"/>
-      <c r="Q26" s="49"/>
-      <c r="R26" s="49"/>
-      <c r="S26" s="49"/>
-      <c r="T26" s="49"/>
-      <c r="U26" s="50"/>
-      <c r="V26" s="48"/>
-      <c r="W26" s="49"/>
-      <c r="X26" s="49"/>
-      <c r="Y26" s="49"/>
-      <c r="Z26" s="49"/>
-      <c r="AA26" s="49"/>
-      <c r="AB26" s="49"/>
-      <c r="AC26" s="49"/>
-      <c r="AD26" s="49"/>
-      <c r="AE26" s="49"/>
-      <c r="AF26" s="49"/>
-      <c r="AG26" s="49"/>
-      <c r="AH26" s="49"/>
-      <c r="AI26" s="49"/>
-      <c r="AJ26" s="49"/>
-      <c r="AK26" s="49"/>
-      <c r="AL26" s="49"/>
-      <c r="AM26" s="49"/>
-      <c r="AN26" s="49"/>
-      <c r="AO26" s="49"/>
-      <c r="AP26" s="49"/>
-      <c r="AQ26" s="49"/>
-      <c r="AR26" s="49"/>
-      <c r="AS26" s="49"/>
-      <c r="AT26" s="49"/>
-      <c r="AU26" s="49"/>
-      <c r="AV26" s="49"/>
-      <c r="AW26" s="50"/>
-      <c r="AX26" s="48"/>
-      <c r="AY26" s="49"/>
-      <c r="AZ26" s="49"/>
-      <c r="BA26" s="49"/>
-      <c r="BB26" s="49"/>
-      <c r="BC26" s="49"/>
-      <c r="BD26" s="49"/>
-      <c r="BE26" s="49"/>
-      <c r="BF26" s="49"/>
-      <c r="BG26" s="49"/>
-      <c r="BH26" s="49"/>
-      <c r="BI26" s="50"/>
-      <c r="BJ26" s="48"/>
-      <c r="BK26" s="49"/>
-      <c r="BL26" s="49"/>
-      <c r="BM26" s="49"/>
-      <c r="BN26" s="49"/>
-      <c r="BO26" s="50"/>
-      <c r="BP26" s="48"/>
-      <c r="BQ26" s="49"/>
-      <c r="BR26" s="49"/>
-      <c r="BS26" s="49"/>
-      <c r="BT26" s="49"/>
-      <c r="BU26" s="49"/>
-      <c r="BV26" s="49"/>
-      <c r="BW26" s="49"/>
-      <c r="BX26" s="49"/>
-      <c r="BY26" s="49"/>
-      <c r="BZ26" s="49"/>
-      <c r="CA26" s="49"/>
-      <c r="CB26" s="49"/>
-      <c r="CC26" s="49"/>
-      <c r="CD26" s="50"/>
+      <c r="I26" s="54"/>
+      <c r="J26" s="55"/>
+      <c r="K26" s="55"/>
+      <c r="L26" s="55"/>
+      <c r="M26" s="55"/>
+      <c r="N26" s="55"/>
+      <c r="O26" s="55"/>
+      <c r="P26" s="55"/>
+      <c r="Q26" s="55"/>
+      <c r="R26" s="55"/>
+      <c r="S26" s="55"/>
+      <c r="T26" s="55"/>
+      <c r="U26" s="56"/>
+      <c r="V26" s="54"/>
+      <c r="W26" s="55"/>
+      <c r="X26" s="55"/>
+      <c r="Y26" s="55"/>
+      <c r="Z26" s="55"/>
+      <c r="AA26" s="55"/>
+      <c r="AB26" s="55"/>
+      <c r="AC26" s="55"/>
+      <c r="AD26" s="55"/>
+      <c r="AE26" s="55"/>
+      <c r="AF26" s="55"/>
+      <c r="AG26" s="55"/>
+      <c r="AH26" s="55"/>
+      <c r="AI26" s="55"/>
+      <c r="AJ26" s="55"/>
+      <c r="AK26" s="55"/>
+      <c r="AL26" s="55"/>
+      <c r="AM26" s="55"/>
+      <c r="AN26" s="55"/>
+      <c r="AO26" s="55"/>
+      <c r="AP26" s="55"/>
+      <c r="AQ26" s="55"/>
+      <c r="AR26" s="55"/>
+      <c r="AS26" s="55"/>
+      <c r="AT26" s="55"/>
+      <c r="AU26" s="55"/>
+      <c r="AV26" s="55"/>
+      <c r="AW26" s="56"/>
+      <c r="AX26" s="54"/>
+      <c r="AY26" s="55"/>
+      <c r="AZ26" s="55"/>
+      <c r="BA26" s="55"/>
+      <c r="BB26" s="55"/>
+      <c r="BC26" s="55"/>
+      <c r="BD26" s="55"/>
+      <c r="BE26" s="55"/>
+      <c r="BF26" s="55"/>
+      <c r="BG26" s="55"/>
+      <c r="BH26" s="55"/>
+      <c r="BI26" s="56"/>
+      <c r="BJ26" s="54"/>
+      <c r="BK26" s="55"/>
+      <c r="BL26" s="55"/>
+      <c r="BM26" s="55"/>
+      <c r="BN26" s="55"/>
+      <c r="BO26" s="56"/>
+      <c r="BP26" s="54"/>
+      <c r="BQ26" s="55"/>
+      <c r="BR26" s="55"/>
+      <c r="BS26" s="55"/>
+      <c r="BT26" s="55"/>
+      <c r="BU26" s="55"/>
+      <c r="BV26" s="55"/>
+      <c r="BW26" s="55"/>
+      <c r="BX26" s="55"/>
+      <c r="BY26" s="55"/>
+      <c r="BZ26" s="55"/>
+      <c r="CA26" s="55"/>
+      <c r="CB26" s="55"/>
+      <c r="CC26" s="55"/>
+      <c r="CD26" s="56"/>
     </row>
     <row r="27" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="11"/>
@@ -5920,7 +5916,7 @@
       <c r="F33" s="12"/>
       <c r="G33" s="13"/>
       <c r="I33" s="38" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J33" s="39"/>
       <c r="K33" s="39"/>
@@ -6179,82 +6175,82 @@
       <c r="E37" s="12"/>
       <c r="F37" s="12"/>
       <c r="G37" s="13"/>
-      <c r="I37" s="51" t="s">
-        <v>53</v>
-      </c>
-      <c r="J37" s="52"/>
-      <c r="K37" s="52"/>
-      <c r="L37" s="52"/>
-      <c r="M37" s="52"/>
-      <c r="N37" s="52"/>
-      <c r="O37" s="52"/>
-      <c r="P37" s="52"/>
-      <c r="Q37" s="52"/>
-      <c r="R37" s="52"/>
-      <c r="S37" s="52"/>
-      <c r="T37" s="52"/>
-      <c r="U37" s="52"/>
-      <c r="V37" s="52"/>
-      <c r="W37" s="52"/>
-      <c r="X37" s="52"/>
-      <c r="Y37" s="52"/>
-      <c r="Z37" s="52"/>
-      <c r="AA37" s="52"/>
-      <c r="AB37" s="52"/>
-      <c r="AC37" s="52"/>
-      <c r="AD37" s="52"/>
-      <c r="AE37" s="52"/>
-      <c r="AF37" s="52"/>
-      <c r="AG37" s="52"/>
-      <c r="AH37" s="52"/>
-      <c r="AI37" s="52"/>
-      <c r="AJ37" s="52"/>
-      <c r="AK37" s="52"/>
-      <c r="AL37" s="52"/>
-      <c r="AM37" s="52"/>
-      <c r="AN37" s="52"/>
-      <c r="AO37" s="52"/>
-      <c r="AP37" s="52"/>
-      <c r="AQ37" s="52"/>
-      <c r="AR37" s="52"/>
-      <c r="AS37" s="52"/>
-      <c r="AT37" s="52"/>
-      <c r="AU37" s="52"/>
-      <c r="AV37" s="52"/>
-      <c r="AW37" s="52"/>
-      <c r="AX37" s="52"/>
-      <c r="AY37" s="52"/>
-      <c r="AZ37" s="52"/>
-      <c r="BA37" s="52"/>
-      <c r="BB37" s="52"/>
-      <c r="BC37" s="52"/>
-      <c r="BD37" s="52"/>
-      <c r="BE37" s="52"/>
-      <c r="BF37" s="52"/>
-      <c r="BG37" s="52"/>
-      <c r="BH37" s="52"/>
-      <c r="BI37" s="52"/>
-      <c r="BJ37" s="52"/>
-      <c r="BK37" s="52"/>
-      <c r="BL37" s="52"/>
-      <c r="BM37" s="52"/>
-      <c r="BN37" s="52"/>
-      <c r="BO37" s="52"/>
-      <c r="BP37" s="52"/>
-      <c r="BQ37" s="52"/>
-      <c r="BR37" s="52"/>
-      <c r="BS37" s="52"/>
-      <c r="BT37" s="52"/>
-      <c r="BU37" s="52"/>
-      <c r="BV37" s="52"/>
-      <c r="BW37" s="52"/>
-      <c r="BX37" s="52"/>
-      <c r="BY37" s="52"/>
-      <c r="BZ37" s="52"/>
-      <c r="CA37" s="52"/>
-      <c r="CB37" s="52"/>
-      <c r="CC37" s="52"/>
-      <c r="CD37" s="53"/>
+      <c r="I37" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="J37" s="48"/>
+      <c r="K37" s="48"/>
+      <c r="L37" s="48"/>
+      <c r="M37" s="48"/>
+      <c r="N37" s="48"/>
+      <c r="O37" s="48"/>
+      <c r="P37" s="48"/>
+      <c r="Q37" s="48"/>
+      <c r="R37" s="48"/>
+      <c r="S37" s="48"/>
+      <c r="T37" s="48"/>
+      <c r="U37" s="48"/>
+      <c r="V37" s="48"/>
+      <c r="W37" s="48"/>
+      <c r="X37" s="48"/>
+      <c r="Y37" s="48"/>
+      <c r="Z37" s="48"/>
+      <c r="AA37" s="48"/>
+      <c r="AB37" s="48"/>
+      <c r="AC37" s="48"/>
+      <c r="AD37" s="48"/>
+      <c r="AE37" s="48"/>
+      <c r="AF37" s="48"/>
+      <c r="AG37" s="48"/>
+      <c r="AH37" s="48"/>
+      <c r="AI37" s="48"/>
+      <c r="AJ37" s="48"/>
+      <c r="AK37" s="48"/>
+      <c r="AL37" s="48"/>
+      <c r="AM37" s="48"/>
+      <c r="AN37" s="48"/>
+      <c r="AO37" s="48"/>
+      <c r="AP37" s="48"/>
+      <c r="AQ37" s="48"/>
+      <c r="AR37" s="48"/>
+      <c r="AS37" s="48"/>
+      <c r="AT37" s="48"/>
+      <c r="AU37" s="48"/>
+      <c r="AV37" s="48"/>
+      <c r="AW37" s="48"/>
+      <c r="AX37" s="48"/>
+      <c r="AY37" s="48"/>
+      <c r="AZ37" s="48"/>
+      <c r="BA37" s="48"/>
+      <c r="BB37" s="48"/>
+      <c r="BC37" s="48"/>
+      <c r="BD37" s="48"/>
+      <c r="BE37" s="48"/>
+      <c r="BF37" s="48"/>
+      <c r="BG37" s="48"/>
+      <c r="BH37" s="48"/>
+      <c r="BI37" s="48"/>
+      <c r="BJ37" s="48"/>
+      <c r="BK37" s="48"/>
+      <c r="BL37" s="48"/>
+      <c r="BM37" s="48"/>
+      <c r="BN37" s="48"/>
+      <c r="BO37" s="48"/>
+      <c r="BP37" s="48"/>
+      <c r="BQ37" s="48"/>
+      <c r="BR37" s="48"/>
+      <c r="BS37" s="48"/>
+      <c r="BT37" s="48"/>
+      <c r="BU37" s="48"/>
+      <c r="BV37" s="48"/>
+      <c r="BW37" s="48"/>
+      <c r="BX37" s="48"/>
+      <c r="BY37" s="48"/>
+      <c r="BZ37" s="48"/>
+      <c r="CA37" s="48"/>
+      <c r="CB37" s="48"/>
+      <c r="CC37" s="48"/>
+      <c r="CD37" s="49"/>
     </row>
     <row r="38" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A38" s="8"/>
@@ -6264,80 +6260,80 @@
       <c r="E38" s="9"/>
       <c r="F38" s="9"/>
       <c r="G38" s="10"/>
-      <c r="I38" s="54"/>
-      <c r="J38" s="55"/>
-      <c r="K38" s="55"/>
-      <c r="L38" s="55"/>
-      <c r="M38" s="55"/>
-      <c r="N38" s="55"/>
-      <c r="O38" s="55"/>
-      <c r="P38" s="55"/>
-      <c r="Q38" s="55"/>
-      <c r="R38" s="55"/>
-      <c r="S38" s="55"/>
-      <c r="T38" s="55"/>
-      <c r="U38" s="55"/>
-      <c r="V38" s="55"/>
-      <c r="W38" s="55"/>
-      <c r="X38" s="55"/>
-      <c r="Y38" s="55"/>
-      <c r="Z38" s="55"/>
-      <c r="AA38" s="55"/>
-      <c r="AB38" s="55"/>
-      <c r="AC38" s="55"/>
-      <c r="AD38" s="55"/>
-      <c r="AE38" s="55"/>
-      <c r="AF38" s="55"/>
-      <c r="AG38" s="55"/>
-      <c r="AH38" s="55"/>
-      <c r="AI38" s="55"/>
-      <c r="AJ38" s="55"/>
-      <c r="AK38" s="55"/>
-      <c r="AL38" s="55"/>
-      <c r="AM38" s="55"/>
-      <c r="AN38" s="55"/>
-      <c r="AO38" s="55"/>
-      <c r="AP38" s="55"/>
-      <c r="AQ38" s="55"/>
-      <c r="AR38" s="55"/>
-      <c r="AS38" s="55"/>
-      <c r="AT38" s="55"/>
-      <c r="AU38" s="55"/>
-      <c r="AV38" s="55"/>
-      <c r="AW38" s="55"/>
-      <c r="AX38" s="55"/>
-      <c r="AY38" s="55"/>
-      <c r="AZ38" s="55"/>
-      <c r="BA38" s="55"/>
-      <c r="BB38" s="55"/>
-      <c r="BC38" s="55"/>
-      <c r="BD38" s="55"/>
-      <c r="BE38" s="55"/>
-      <c r="BF38" s="55"/>
-      <c r="BG38" s="55"/>
-      <c r="BH38" s="55"/>
-      <c r="BI38" s="55"/>
-      <c r="BJ38" s="55"/>
-      <c r="BK38" s="55"/>
-      <c r="BL38" s="55"/>
-      <c r="BM38" s="55"/>
-      <c r="BN38" s="55"/>
-      <c r="BO38" s="55"/>
-      <c r="BP38" s="55"/>
-      <c r="BQ38" s="55"/>
-      <c r="BR38" s="55"/>
-      <c r="BS38" s="55"/>
-      <c r="BT38" s="55"/>
-      <c r="BU38" s="55"/>
-      <c r="BV38" s="55"/>
-      <c r="BW38" s="55"/>
-      <c r="BX38" s="55"/>
-      <c r="BY38" s="55"/>
-      <c r="BZ38" s="55"/>
-      <c r="CA38" s="55"/>
-      <c r="CB38" s="55"/>
-      <c r="CC38" s="55"/>
-      <c r="CD38" s="56"/>
+      <c r="I38" s="50"/>
+      <c r="J38" s="51"/>
+      <c r="K38" s="51"/>
+      <c r="L38" s="51"/>
+      <c r="M38" s="51"/>
+      <c r="N38" s="51"/>
+      <c r="O38" s="51"/>
+      <c r="P38" s="51"/>
+      <c r="Q38" s="51"/>
+      <c r="R38" s="51"/>
+      <c r="S38" s="51"/>
+      <c r="T38" s="51"/>
+      <c r="U38" s="51"/>
+      <c r="V38" s="51"/>
+      <c r="W38" s="51"/>
+      <c r="X38" s="51"/>
+      <c r="Y38" s="51"/>
+      <c r="Z38" s="51"/>
+      <c r="AA38" s="51"/>
+      <c r="AB38" s="51"/>
+      <c r="AC38" s="51"/>
+      <c r="AD38" s="51"/>
+      <c r="AE38" s="51"/>
+      <c r="AF38" s="51"/>
+      <c r="AG38" s="51"/>
+      <c r="AH38" s="51"/>
+      <c r="AI38" s="51"/>
+      <c r="AJ38" s="51"/>
+      <c r="AK38" s="51"/>
+      <c r="AL38" s="51"/>
+      <c r="AM38" s="51"/>
+      <c r="AN38" s="51"/>
+      <c r="AO38" s="51"/>
+      <c r="AP38" s="51"/>
+      <c r="AQ38" s="51"/>
+      <c r="AR38" s="51"/>
+      <c r="AS38" s="51"/>
+      <c r="AT38" s="51"/>
+      <c r="AU38" s="51"/>
+      <c r="AV38" s="51"/>
+      <c r="AW38" s="51"/>
+      <c r="AX38" s="51"/>
+      <c r="AY38" s="51"/>
+      <c r="AZ38" s="51"/>
+      <c r="BA38" s="51"/>
+      <c r="BB38" s="51"/>
+      <c r="BC38" s="51"/>
+      <c r="BD38" s="51"/>
+      <c r="BE38" s="51"/>
+      <c r="BF38" s="51"/>
+      <c r="BG38" s="51"/>
+      <c r="BH38" s="51"/>
+      <c r="BI38" s="51"/>
+      <c r="BJ38" s="51"/>
+      <c r="BK38" s="51"/>
+      <c r="BL38" s="51"/>
+      <c r="BM38" s="51"/>
+      <c r="BN38" s="51"/>
+      <c r="BO38" s="51"/>
+      <c r="BP38" s="51"/>
+      <c r="BQ38" s="51"/>
+      <c r="BR38" s="51"/>
+      <c r="BS38" s="51"/>
+      <c r="BT38" s="51"/>
+      <c r="BU38" s="51"/>
+      <c r="BV38" s="51"/>
+      <c r="BW38" s="51"/>
+      <c r="BX38" s="51"/>
+      <c r="BY38" s="51"/>
+      <c r="BZ38" s="51"/>
+      <c r="CA38" s="51"/>
+      <c r="CB38" s="51"/>
+      <c r="CC38" s="51"/>
+      <c r="CD38" s="52"/>
     </row>
     <row r="39" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A39" s="11"/>
@@ -6347,90 +6343,90 @@
       <c r="E39" s="12"/>
       <c r="F39" s="12"/>
       <c r="G39" s="13"/>
-      <c r="I39" s="47" t="s">
+      <c r="I39" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="J39" s="47"/>
-      <c r="K39" s="47"/>
-      <c r="L39" s="47"/>
-      <c r="M39" s="47"/>
-      <c r="N39" s="47"/>
-      <c r="O39" s="47"/>
-      <c r="P39" s="47"/>
-      <c r="Q39" s="47"/>
-      <c r="R39" s="47"/>
-      <c r="S39" s="47"/>
-      <c r="T39" s="47"/>
-      <c r="U39" s="47"/>
-      <c r="V39" s="47" t="s">
+      <c r="J39" s="53"/>
+      <c r="K39" s="53"/>
+      <c r="L39" s="53"/>
+      <c r="M39" s="53"/>
+      <c r="N39" s="53"/>
+      <c r="O39" s="53"/>
+      <c r="P39" s="53"/>
+      <c r="Q39" s="53"/>
+      <c r="R39" s="53"/>
+      <c r="S39" s="53"/>
+      <c r="T39" s="53"/>
+      <c r="U39" s="53"/>
+      <c r="V39" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="W39" s="47"/>
-      <c r="X39" s="47"/>
-      <c r="Y39" s="47"/>
-      <c r="Z39" s="47"/>
-      <c r="AA39" s="47"/>
-      <c r="AB39" s="47"/>
-      <c r="AC39" s="47"/>
-      <c r="AD39" s="47"/>
-      <c r="AE39" s="47"/>
-      <c r="AF39" s="47"/>
-      <c r="AG39" s="47"/>
-      <c r="AH39" s="47"/>
-      <c r="AI39" s="47"/>
-      <c r="AJ39" s="47"/>
-      <c r="AK39" s="47"/>
-      <c r="AL39" s="47"/>
-      <c r="AM39" s="47"/>
-      <c r="AN39" s="47"/>
-      <c r="AO39" s="47"/>
-      <c r="AP39" s="47"/>
-      <c r="AQ39" s="47"/>
-      <c r="AR39" s="47"/>
-      <c r="AS39" s="47"/>
-      <c r="AT39" s="47"/>
-      <c r="AU39" s="47"/>
-      <c r="AV39" s="47"/>
-      <c r="AW39" s="47"/>
-      <c r="AX39" s="47" t="s">
+      <c r="W39" s="53"/>
+      <c r="X39" s="53"/>
+      <c r="Y39" s="53"/>
+      <c r="Z39" s="53"/>
+      <c r="AA39" s="53"/>
+      <c r="AB39" s="53"/>
+      <c r="AC39" s="53"/>
+      <c r="AD39" s="53"/>
+      <c r="AE39" s="53"/>
+      <c r="AF39" s="53"/>
+      <c r="AG39" s="53"/>
+      <c r="AH39" s="53"/>
+      <c r="AI39" s="53"/>
+      <c r="AJ39" s="53"/>
+      <c r="AK39" s="53"/>
+      <c r="AL39" s="53"/>
+      <c r="AM39" s="53"/>
+      <c r="AN39" s="53"/>
+      <c r="AO39" s="53"/>
+      <c r="AP39" s="53"/>
+      <c r="AQ39" s="53"/>
+      <c r="AR39" s="53"/>
+      <c r="AS39" s="53"/>
+      <c r="AT39" s="53"/>
+      <c r="AU39" s="53"/>
+      <c r="AV39" s="53"/>
+      <c r="AW39" s="53"/>
+      <c r="AX39" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="AY39" s="47"/>
-      <c r="AZ39" s="47"/>
-      <c r="BA39" s="47"/>
-      <c r="BB39" s="47"/>
-      <c r="BC39" s="47"/>
-      <c r="BD39" s="47"/>
-      <c r="BE39" s="47"/>
-      <c r="BF39" s="47"/>
-      <c r="BG39" s="47"/>
-      <c r="BH39" s="47"/>
-      <c r="BI39" s="47"/>
-      <c r="BJ39" s="47" t="s">
+      <c r="AY39" s="53"/>
+      <c r="AZ39" s="53"/>
+      <c r="BA39" s="53"/>
+      <c r="BB39" s="53"/>
+      <c r="BC39" s="53"/>
+      <c r="BD39" s="53"/>
+      <c r="BE39" s="53"/>
+      <c r="BF39" s="53"/>
+      <c r="BG39" s="53"/>
+      <c r="BH39" s="53"/>
+      <c r="BI39" s="53"/>
+      <c r="BJ39" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="BK39" s="47"/>
-      <c r="BL39" s="47"/>
-      <c r="BM39" s="47"/>
-      <c r="BN39" s="47"/>
-      <c r="BO39" s="47"/>
-      <c r="BP39" s="47" t="s">
+      <c r="BK39" s="53"/>
+      <c r="BL39" s="53"/>
+      <c r="BM39" s="53"/>
+      <c r="BN39" s="53"/>
+      <c r="BO39" s="53"/>
+      <c r="BP39" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="BQ39" s="47"/>
-      <c r="BR39" s="47"/>
-      <c r="BS39" s="47"/>
-      <c r="BT39" s="47"/>
-      <c r="BU39" s="47"/>
-      <c r="BV39" s="47"/>
-      <c r="BW39" s="47"/>
-      <c r="BX39" s="47"/>
-      <c r="BY39" s="47"/>
-      <c r="BZ39" s="47"/>
-      <c r="CA39" s="47"/>
-      <c r="CB39" s="47"/>
-      <c r="CC39" s="47"/>
-      <c r="CD39" s="47"/>
+      <c r="BQ39" s="53"/>
+      <c r="BR39" s="53"/>
+      <c r="BS39" s="53"/>
+      <c r="BT39" s="53"/>
+      <c r="BU39" s="53"/>
+      <c r="BV39" s="53"/>
+      <c r="BW39" s="53"/>
+      <c r="BX39" s="53"/>
+      <c r="BY39" s="53"/>
+      <c r="BZ39" s="53"/>
+      <c r="CA39" s="53"/>
+      <c r="CB39" s="53"/>
+      <c r="CC39" s="53"/>
+      <c r="CD39" s="53"/>
     </row>
     <row r="40" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="8"/>
@@ -6441,7 +6437,7 @@
       <c r="F40" s="9"/>
       <c r="G40" s="10"/>
       <c r="I40" s="37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J40" s="37"/>
       <c r="K40" s="37"/>
@@ -6456,7 +6452,7 @@
       <c r="T40" s="37"/>
       <c r="U40" s="37"/>
       <c r="V40" s="37" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W40" s="37"/>
       <c r="X40" s="37"/>
@@ -6486,7 +6482,7 @@
       <c r="AV40" s="37"/>
       <c r="AW40" s="37"/>
       <c r="AX40" s="37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AY40" s="37"/>
       <c r="AZ40" s="37"/>
@@ -6508,7 +6504,7 @@
       <c r="BN40" s="37"/>
       <c r="BO40" s="37"/>
       <c r="BP40" s="37" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="BQ40" s="37"/>
       <c r="BR40" s="37"/>
@@ -7047,7 +7043,7 @@
       <c r="F7" s="26"/>
       <c r="G7" s="27"/>
       <c r="I7" s="38" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J7" s="39"/>
       <c r="K7" s="39"/>
@@ -7310,82 +7306,82 @@
       <c r="E11" s="26"/>
       <c r="F11" s="26"/>
       <c r="G11" s="27"/>
-      <c r="I11" s="51" t="s">
+      <c r="I11" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="J11" s="52"/>
-      <c r="K11" s="52"/>
-      <c r="L11" s="52"/>
-      <c r="M11" s="52"/>
-      <c r="N11" s="52"/>
-      <c r="O11" s="52"/>
-      <c r="P11" s="52"/>
-      <c r="Q11" s="52"/>
-      <c r="R11" s="52"/>
-      <c r="S11" s="52"/>
-      <c r="T11" s="52"/>
-      <c r="U11" s="52"/>
-      <c r="V11" s="52"/>
-      <c r="W11" s="52"/>
-      <c r="X11" s="52"/>
-      <c r="Y11" s="52"/>
-      <c r="Z11" s="52"/>
-      <c r="AA11" s="52"/>
-      <c r="AB11" s="52"/>
-      <c r="AC11" s="52"/>
-      <c r="AD11" s="52"/>
-      <c r="AE11" s="52"/>
-      <c r="AF11" s="52"/>
-      <c r="AG11" s="52"/>
-      <c r="AH11" s="52"/>
-      <c r="AI11" s="52"/>
-      <c r="AJ11" s="52"/>
-      <c r="AK11" s="52"/>
-      <c r="AL11" s="52"/>
-      <c r="AM11" s="52"/>
-      <c r="AN11" s="52"/>
-      <c r="AO11" s="52"/>
-      <c r="AP11" s="52"/>
-      <c r="AQ11" s="52"/>
-      <c r="AR11" s="52"/>
-      <c r="AS11" s="52"/>
-      <c r="AT11" s="52"/>
-      <c r="AU11" s="52"/>
-      <c r="AV11" s="52"/>
-      <c r="AW11" s="52"/>
-      <c r="AX11" s="52"/>
-      <c r="AY11" s="52"/>
-      <c r="AZ11" s="52"/>
-      <c r="BA11" s="52"/>
-      <c r="BB11" s="52"/>
-      <c r="BC11" s="52"/>
-      <c r="BD11" s="52"/>
-      <c r="BE11" s="52"/>
-      <c r="BF11" s="52"/>
-      <c r="BG11" s="52"/>
-      <c r="BH11" s="52"/>
-      <c r="BI11" s="52"/>
-      <c r="BJ11" s="52"/>
-      <c r="BK11" s="52"/>
-      <c r="BL11" s="52"/>
-      <c r="BM11" s="52"/>
-      <c r="BN11" s="52"/>
-      <c r="BO11" s="52"/>
-      <c r="BP11" s="52"/>
-      <c r="BQ11" s="52"/>
-      <c r="BR11" s="52"/>
-      <c r="BS11" s="52"/>
-      <c r="BT11" s="52"/>
-      <c r="BU11" s="52"/>
-      <c r="BV11" s="52"/>
-      <c r="BW11" s="52"/>
-      <c r="BX11" s="52"/>
-      <c r="BY11" s="52"/>
-      <c r="BZ11" s="52"/>
-      <c r="CA11" s="52"/>
-      <c r="CB11" s="52"/>
-      <c r="CC11" s="52"/>
-      <c r="CD11" s="53"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="48"/>
+      <c r="L11" s="48"/>
+      <c r="M11" s="48"/>
+      <c r="N11" s="48"/>
+      <c r="O11" s="48"/>
+      <c r="P11" s="48"/>
+      <c r="Q11" s="48"/>
+      <c r="R11" s="48"/>
+      <c r="S11" s="48"/>
+      <c r="T11" s="48"/>
+      <c r="U11" s="48"/>
+      <c r="V11" s="48"/>
+      <c r="W11" s="48"/>
+      <c r="X11" s="48"/>
+      <c r="Y11" s="48"/>
+      <c r="Z11" s="48"/>
+      <c r="AA11" s="48"/>
+      <c r="AB11" s="48"/>
+      <c r="AC11" s="48"/>
+      <c r="AD11" s="48"/>
+      <c r="AE11" s="48"/>
+      <c r="AF11" s="48"/>
+      <c r="AG11" s="48"/>
+      <c r="AH11" s="48"/>
+      <c r="AI11" s="48"/>
+      <c r="AJ11" s="48"/>
+      <c r="AK11" s="48"/>
+      <c r="AL11" s="48"/>
+      <c r="AM11" s="48"/>
+      <c r="AN11" s="48"/>
+      <c r="AO11" s="48"/>
+      <c r="AP11" s="48"/>
+      <c r="AQ11" s="48"/>
+      <c r="AR11" s="48"/>
+      <c r="AS11" s="48"/>
+      <c r="AT11" s="48"/>
+      <c r="AU11" s="48"/>
+      <c r="AV11" s="48"/>
+      <c r="AW11" s="48"/>
+      <c r="AX11" s="48"/>
+      <c r="AY11" s="48"/>
+      <c r="AZ11" s="48"/>
+      <c r="BA11" s="48"/>
+      <c r="BB11" s="48"/>
+      <c r="BC11" s="48"/>
+      <c r="BD11" s="48"/>
+      <c r="BE11" s="48"/>
+      <c r="BF11" s="48"/>
+      <c r="BG11" s="48"/>
+      <c r="BH11" s="48"/>
+      <c r="BI11" s="48"/>
+      <c r="BJ11" s="48"/>
+      <c r="BK11" s="48"/>
+      <c r="BL11" s="48"/>
+      <c r="BM11" s="48"/>
+      <c r="BN11" s="48"/>
+      <c r="BO11" s="48"/>
+      <c r="BP11" s="48"/>
+      <c r="BQ11" s="48"/>
+      <c r="BR11" s="48"/>
+      <c r="BS11" s="48"/>
+      <c r="BT11" s="48"/>
+      <c r="BU11" s="48"/>
+      <c r="BV11" s="48"/>
+      <c r="BW11" s="48"/>
+      <c r="BX11" s="48"/>
+      <c r="BY11" s="48"/>
+      <c r="BZ11" s="48"/>
+      <c r="CA11" s="48"/>
+      <c r="CB11" s="48"/>
+      <c r="CC11" s="48"/>
+      <c r="CD11" s="49"/>
     </row>
     <row r="12" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="8"/>
@@ -7395,80 +7391,80 @@
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
       <c r="G12" s="10"/>
-      <c r="I12" s="54"/>
-      <c r="J12" s="55"/>
-      <c r="K12" s="55"/>
-      <c r="L12" s="55"/>
-      <c r="M12" s="55"/>
-      <c r="N12" s="55"/>
-      <c r="O12" s="55"/>
-      <c r="P12" s="55"/>
-      <c r="Q12" s="55"/>
-      <c r="R12" s="55"/>
-      <c r="S12" s="55"/>
-      <c r="T12" s="55"/>
-      <c r="U12" s="55"/>
-      <c r="V12" s="55"/>
-      <c r="W12" s="55"/>
-      <c r="X12" s="55"/>
-      <c r="Y12" s="55"/>
-      <c r="Z12" s="55"/>
-      <c r="AA12" s="55"/>
-      <c r="AB12" s="55"/>
-      <c r="AC12" s="55"/>
-      <c r="AD12" s="55"/>
-      <c r="AE12" s="55"/>
-      <c r="AF12" s="55"/>
-      <c r="AG12" s="55"/>
-      <c r="AH12" s="55"/>
-      <c r="AI12" s="55"/>
-      <c r="AJ12" s="55"/>
-      <c r="AK12" s="55"/>
-      <c r="AL12" s="55"/>
-      <c r="AM12" s="55"/>
-      <c r="AN12" s="55"/>
-      <c r="AO12" s="55"/>
-      <c r="AP12" s="55"/>
-      <c r="AQ12" s="55"/>
-      <c r="AR12" s="55"/>
-      <c r="AS12" s="55"/>
-      <c r="AT12" s="55"/>
-      <c r="AU12" s="55"/>
-      <c r="AV12" s="55"/>
-      <c r="AW12" s="55"/>
-      <c r="AX12" s="55"/>
-      <c r="AY12" s="55"/>
-      <c r="AZ12" s="55"/>
-      <c r="BA12" s="55"/>
-      <c r="BB12" s="55"/>
-      <c r="BC12" s="55"/>
-      <c r="BD12" s="55"/>
-      <c r="BE12" s="55"/>
-      <c r="BF12" s="55"/>
-      <c r="BG12" s="55"/>
-      <c r="BH12" s="55"/>
-      <c r="BI12" s="55"/>
-      <c r="BJ12" s="55"/>
-      <c r="BK12" s="55"/>
-      <c r="BL12" s="55"/>
-      <c r="BM12" s="55"/>
-      <c r="BN12" s="55"/>
-      <c r="BO12" s="55"/>
-      <c r="BP12" s="55"/>
-      <c r="BQ12" s="55"/>
-      <c r="BR12" s="55"/>
-      <c r="BS12" s="55"/>
-      <c r="BT12" s="55"/>
-      <c r="BU12" s="55"/>
-      <c r="BV12" s="55"/>
-      <c r="BW12" s="55"/>
-      <c r="BX12" s="55"/>
-      <c r="BY12" s="55"/>
-      <c r="BZ12" s="55"/>
-      <c r="CA12" s="55"/>
-      <c r="CB12" s="55"/>
-      <c r="CC12" s="55"/>
-      <c r="CD12" s="56"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="51"/>
+      <c r="K12" s="51"/>
+      <c r="L12" s="51"/>
+      <c r="M12" s="51"/>
+      <c r="N12" s="51"/>
+      <c r="O12" s="51"/>
+      <c r="P12" s="51"/>
+      <c r="Q12" s="51"/>
+      <c r="R12" s="51"/>
+      <c r="S12" s="51"/>
+      <c r="T12" s="51"/>
+      <c r="U12" s="51"/>
+      <c r="V12" s="51"/>
+      <c r="W12" s="51"/>
+      <c r="X12" s="51"/>
+      <c r="Y12" s="51"/>
+      <c r="Z12" s="51"/>
+      <c r="AA12" s="51"/>
+      <c r="AB12" s="51"/>
+      <c r="AC12" s="51"/>
+      <c r="AD12" s="51"/>
+      <c r="AE12" s="51"/>
+      <c r="AF12" s="51"/>
+      <c r="AG12" s="51"/>
+      <c r="AH12" s="51"/>
+      <c r="AI12" s="51"/>
+      <c r="AJ12" s="51"/>
+      <c r="AK12" s="51"/>
+      <c r="AL12" s="51"/>
+      <c r="AM12" s="51"/>
+      <c r="AN12" s="51"/>
+      <c r="AO12" s="51"/>
+      <c r="AP12" s="51"/>
+      <c r="AQ12" s="51"/>
+      <c r="AR12" s="51"/>
+      <c r="AS12" s="51"/>
+      <c r="AT12" s="51"/>
+      <c r="AU12" s="51"/>
+      <c r="AV12" s="51"/>
+      <c r="AW12" s="51"/>
+      <c r="AX12" s="51"/>
+      <c r="AY12" s="51"/>
+      <c r="AZ12" s="51"/>
+      <c r="BA12" s="51"/>
+      <c r="BB12" s="51"/>
+      <c r="BC12" s="51"/>
+      <c r="BD12" s="51"/>
+      <c r="BE12" s="51"/>
+      <c r="BF12" s="51"/>
+      <c r="BG12" s="51"/>
+      <c r="BH12" s="51"/>
+      <c r="BI12" s="51"/>
+      <c r="BJ12" s="51"/>
+      <c r="BK12" s="51"/>
+      <c r="BL12" s="51"/>
+      <c r="BM12" s="51"/>
+      <c r="BN12" s="51"/>
+      <c r="BO12" s="51"/>
+      <c r="BP12" s="51"/>
+      <c r="BQ12" s="51"/>
+      <c r="BR12" s="51"/>
+      <c r="BS12" s="51"/>
+      <c r="BT12" s="51"/>
+      <c r="BU12" s="51"/>
+      <c r="BV12" s="51"/>
+      <c r="BW12" s="51"/>
+      <c r="BX12" s="51"/>
+      <c r="BY12" s="51"/>
+      <c r="BZ12" s="51"/>
+      <c r="CA12" s="51"/>
+      <c r="CB12" s="51"/>
+      <c r="CC12" s="51"/>
+      <c r="CD12" s="52"/>
     </row>
     <row r="13" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13" s="11"/>
@@ -7478,90 +7474,90 @@
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="13"/>
-      <c r="I13" s="47" t="s">
+      <c r="I13" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="J13" s="47"/>
-      <c r="K13" s="47"/>
-      <c r="L13" s="47"/>
-      <c r="M13" s="47"/>
-      <c r="N13" s="47"/>
-      <c r="O13" s="47"/>
-      <c r="P13" s="47"/>
-      <c r="Q13" s="47"/>
-      <c r="R13" s="47"/>
-      <c r="S13" s="47"/>
-      <c r="T13" s="47"/>
-      <c r="U13" s="47"/>
-      <c r="V13" s="47" t="s">
+      <c r="J13" s="53"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="53"/>
+      <c r="M13" s="53"/>
+      <c r="N13" s="53"/>
+      <c r="O13" s="53"/>
+      <c r="P13" s="53"/>
+      <c r="Q13" s="53"/>
+      <c r="R13" s="53"/>
+      <c r="S13" s="53"/>
+      <c r="T13" s="53"/>
+      <c r="U13" s="53"/>
+      <c r="V13" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="W13" s="47"/>
-      <c r="X13" s="47"/>
-      <c r="Y13" s="47"/>
-      <c r="Z13" s="47"/>
-      <c r="AA13" s="47"/>
-      <c r="AB13" s="47"/>
-      <c r="AC13" s="47"/>
-      <c r="AD13" s="47"/>
-      <c r="AE13" s="47"/>
-      <c r="AF13" s="47"/>
-      <c r="AG13" s="47"/>
-      <c r="AH13" s="47"/>
-      <c r="AI13" s="47"/>
-      <c r="AJ13" s="47"/>
-      <c r="AK13" s="47"/>
-      <c r="AL13" s="47"/>
-      <c r="AM13" s="47"/>
-      <c r="AN13" s="47"/>
-      <c r="AO13" s="47"/>
-      <c r="AP13" s="47"/>
-      <c r="AQ13" s="47"/>
-      <c r="AR13" s="47"/>
-      <c r="AS13" s="47"/>
-      <c r="AT13" s="47"/>
-      <c r="AU13" s="47"/>
-      <c r="AV13" s="47"/>
-      <c r="AW13" s="47"/>
-      <c r="AX13" s="47" t="s">
-        <v>59</v>
-      </c>
-      <c r="AY13" s="47"/>
-      <c r="AZ13" s="47"/>
-      <c r="BA13" s="47"/>
-      <c r="BB13" s="47"/>
-      <c r="BC13" s="47"/>
-      <c r="BD13" s="47"/>
-      <c r="BE13" s="47"/>
-      <c r="BF13" s="47"/>
-      <c r="BG13" s="47"/>
-      <c r="BH13" s="47"/>
-      <c r="BI13" s="47"/>
-      <c r="BJ13" s="47" t="s">
+      <c r="W13" s="53"/>
+      <c r="X13" s="53"/>
+      <c r="Y13" s="53"/>
+      <c r="Z13" s="53"/>
+      <c r="AA13" s="53"/>
+      <c r="AB13" s="53"/>
+      <c r="AC13" s="53"/>
+      <c r="AD13" s="53"/>
+      <c r="AE13" s="53"/>
+      <c r="AF13" s="53"/>
+      <c r="AG13" s="53"/>
+      <c r="AH13" s="53"/>
+      <c r="AI13" s="53"/>
+      <c r="AJ13" s="53"/>
+      <c r="AK13" s="53"/>
+      <c r="AL13" s="53"/>
+      <c r="AM13" s="53"/>
+      <c r="AN13" s="53"/>
+      <c r="AO13" s="53"/>
+      <c r="AP13" s="53"/>
+      <c r="AQ13" s="53"/>
+      <c r="AR13" s="53"/>
+      <c r="AS13" s="53"/>
+      <c r="AT13" s="53"/>
+      <c r="AU13" s="53"/>
+      <c r="AV13" s="53"/>
+      <c r="AW13" s="53"/>
+      <c r="AX13" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY13" s="53"/>
+      <c r="AZ13" s="53"/>
+      <c r="BA13" s="53"/>
+      <c r="BB13" s="53"/>
+      <c r="BC13" s="53"/>
+      <c r="BD13" s="53"/>
+      <c r="BE13" s="53"/>
+      <c r="BF13" s="53"/>
+      <c r="BG13" s="53"/>
+      <c r="BH13" s="53"/>
+      <c r="BI13" s="53"/>
+      <c r="BJ13" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="BK13" s="47"/>
-      <c r="BL13" s="47"/>
-      <c r="BM13" s="47"/>
-      <c r="BN13" s="47"/>
-      <c r="BO13" s="47"/>
-      <c r="BP13" s="47" t="s">
+      <c r="BK13" s="53"/>
+      <c r="BL13" s="53"/>
+      <c r="BM13" s="53"/>
+      <c r="BN13" s="53"/>
+      <c r="BO13" s="53"/>
+      <c r="BP13" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="BQ13" s="47"/>
-      <c r="BR13" s="47"/>
-      <c r="BS13" s="47"/>
-      <c r="BT13" s="47"/>
-      <c r="BU13" s="47"/>
-      <c r="BV13" s="47"/>
-      <c r="BW13" s="47"/>
-      <c r="BX13" s="47"/>
-      <c r="BY13" s="47"/>
-      <c r="BZ13" s="47"/>
-      <c r="CA13" s="47"/>
-      <c r="CB13" s="47"/>
-      <c r="CC13" s="47"/>
-      <c r="CD13" s="47"/>
+      <c r="BQ13" s="53"/>
+      <c r="BR13" s="53"/>
+      <c r="BS13" s="53"/>
+      <c r="BT13" s="53"/>
+      <c r="BU13" s="53"/>
+      <c r="BV13" s="53"/>
+      <c r="BW13" s="53"/>
+      <c r="BX13" s="53"/>
+      <c r="BY13" s="53"/>
+      <c r="BZ13" s="53"/>
+      <c r="CA13" s="53"/>
+      <c r="CB13" s="53"/>
+      <c r="CC13" s="53"/>
+      <c r="CD13" s="53"/>
     </row>
     <row r="14" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="8"/>
@@ -7587,7 +7583,7 @@
       <c r="T14" s="37"/>
       <c r="U14" s="37"/>
       <c r="V14" s="37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W14" s="37"/>
       <c r="X14" s="37"/>
@@ -7617,7 +7613,7 @@
       <c r="AV14" s="37"/>
       <c r="AW14" s="37"/>
       <c r="AX14" s="37" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AY14" s="37"/>
       <c r="AZ14" s="37"/>
@@ -7831,7 +7827,7 @@
       <c r="F17" s="12"/>
       <c r="G17" s="13"/>
       <c r="I17" s="36" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J17" s="36"/>
       <c r="K17" s="36"/>
@@ -7999,7 +7995,7 @@
       <c r="F19" s="12"/>
       <c r="G19" s="13"/>
       <c r="I19" s="36" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J19" s="36"/>
       <c r="K19" s="36"/>
@@ -8276,82 +8272,82 @@
       <c r="E25" s="12"/>
       <c r="F25" s="12"/>
       <c r="G25" s="13"/>
-      <c r="I25" s="51" t="s">
-        <v>64</v>
-      </c>
-      <c r="J25" s="52"/>
-      <c r="K25" s="52"/>
-      <c r="L25" s="52"/>
-      <c r="M25" s="52"/>
-      <c r="N25" s="52"/>
-      <c r="O25" s="52"/>
-      <c r="P25" s="52"/>
-      <c r="Q25" s="52"/>
-      <c r="R25" s="52"/>
-      <c r="S25" s="52"/>
-      <c r="T25" s="52"/>
-      <c r="U25" s="52"/>
-      <c r="V25" s="52"/>
-      <c r="W25" s="52"/>
-      <c r="X25" s="52"/>
-      <c r="Y25" s="52"/>
-      <c r="Z25" s="52"/>
-      <c r="AA25" s="52"/>
-      <c r="AB25" s="52"/>
-      <c r="AC25" s="52"/>
-      <c r="AD25" s="52"/>
-      <c r="AE25" s="52"/>
-      <c r="AF25" s="52"/>
-      <c r="AG25" s="52"/>
-      <c r="AH25" s="52"/>
-      <c r="AI25" s="52"/>
-      <c r="AJ25" s="52"/>
-      <c r="AK25" s="52"/>
-      <c r="AL25" s="52"/>
-      <c r="AM25" s="52"/>
-      <c r="AN25" s="52"/>
-      <c r="AO25" s="52"/>
-      <c r="AP25" s="52"/>
-      <c r="AQ25" s="52"/>
-      <c r="AR25" s="52"/>
-      <c r="AS25" s="52"/>
-      <c r="AT25" s="52"/>
-      <c r="AU25" s="52"/>
-      <c r="AV25" s="52"/>
-      <c r="AW25" s="52"/>
-      <c r="AX25" s="52"/>
-      <c r="AY25" s="52"/>
-      <c r="AZ25" s="52"/>
-      <c r="BA25" s="52"/>
-      <c r="BB25" s="52"/>
-      <c r="BC25" s="52"/>
-      <c r="BD25" s="52"/>
-      <c r="BE25" s="52"/>
-      <c r="BF25" s="52"/>
-      <c r="BG25" s="52"/>
-      <c r="BH25" s="52"/>
-      <c r="BI25" s="52"/>
-      <c r="BJ25" s="52"/>
-      <c r="BK25" s="52"/>
-      <c r="BL25" s="52"/>
-      <c r="BM25" s="52"/>
-      <c r="BN25" s="52"/>
-      <c r="BO25" s="52"/>
-      <c r="BP25" s="52"/>
-      <c r="BQ25" s="52"/>
-      <c r="BR25" s="52"/>
-      <c r="BS25" s="52"/>
-      <c r="BT25" s="52"/>
-      <c r="BU25" s="52"/>
-      <c r="BV25" s="52"/>
-      <c r="BW25" s="52"/>
-      <c r="BX25" s="52"/>
-      <c r="BY25" s="52"/>
-      <c r="BZ25" s="52"/>
-      <c r="CA25" s="52"/>
-      <c r="CB25" s="52"/>
-      <c r="CC25" s="52"/>
-      <c r="CD25" s="53"/>
+      <c r="I25" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="J25" s="48"/>
+      <c r="K25" s="48"/>
+      <c r="L25" s="48"/>
+      <c r="M25" s="48"/>
+      <c r="N25" s="48"/>
+      <c r="O25" s="48"/>
+      <c r="P25" s="48"/>
+      <c r="Q25" s="48"/>
+      <c r="R25" s="48"/>
+      <c r="S25" s="48"/>
+      <c r="T25" s="48"/>
+      <c r="U25" s="48"/>
+      <c r="V25" s="48"/>
+      <c r="W25" s="48"/>
+      <c r="X25" s="48"/>
+      <c r="Y25" s="48"/>
+      <c r="Z25" s="48"/>
+      <c r="AA25" s="48"/>
+      <c r="AB25" s="48"/>
+      <c r="AC25" s="48"/>
+      <c r="AD25" s="48"/>
+      <c r="AE25" s="48"/>
+      <c r="AF25" s="48"/>
+      <c r="AG25" s="48"/>
+      <c r="AH25" s="48"/>
+      <c r="AI25" s="48"/>
+      <c r="AJ25" s="48"/>
+      <c r="AK25" s="48"/>
+      <c r="AL25" s="48"/>
+      <c r="AM25" s="48"/>
+      <c r="AN25" s="48"/>
+      <c r="AO25" s="48"/>
+      <c r="AP25" s="48"/>
+      <c r="AQ25" s="48"/>
+      <c r="AR25" s="48"/>
+      <c r="AS25" s="48"/>
+      <c r="AT25" s="48"/>
+      <c r="AU25" s="48"/>
+      <c r="AV25" s="48"/>
+      <c r="AW25" s="48"/>
+      <c r="AX25" s="48"/>
+      <c r="AY25" s="48"/>
+      <c r="AZ25" s="48"/>
+      <c r="BA25" s="48"/>
+      <c r="BB25" s="48"/>
+      <c r="BC25" s="48"/>
+      <c r="BD25" s="48"/>
+      <c r="BE25" s="48"/>
+      <c r="BF25" s="48"/>
+      <c r="BG25" s="48"/>
+      <c r="BH25" s="48"/>
+      <c r="BI25" s="48"/>
+      <c r="BJ25" s="48"/>
+      <c r="BK25" s="48"/>
+      <c r="BL25" s="48"/>
+      <c r="BM25" s="48"/>
+      <c r="BN25" s="48"/>
+      <c r="BO25" s="48"/>
+      <c r="BP25" s="48"/>
+      <c r="BQ25" s="48"/>
+      <c r="BR25" s="48"/>
+      <c r="BS25" s="48"/>
+      <c r="BT25" s="48"/>
+      <c r="BU25" s="48"/>
+      <c r="BV25" s="48"/>
+      <c r="BW25" s="48"/>
+      <c r="BX25" s="48"/>
+      <c r="BY25" s="48"/>
+      <c r="BZ25" s="48"/>
+      <c r="CA25" s="48"/>
+      <c r="CB25" s="48"/>
+      <c r="CC25" s="48"/>
+      <c r="CD25" s="49"/>
     </row>
     <row r="26" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A26" s="8"/>
@@ -8361,80 +8357,80 @@
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
       <c r="G26" s="10"/>
-      <c r="I26" s="54"/>
-      <c r="J26" s="55"/>
-      <c r="K26" s="55"/>
-      <c r="L26" s="55"/>
-      <c r="M26" s="55"/>
-      <c r="N26" s="55"/>
-      <c r="O26" s="55"/>
-      <c r="P26" s="55"/>
-      <c r="Q26" s="55"/>
-      <c r="R26" s="55"/>
-      <c r="S26" s="55"/>
-      <c r="T26" s="55"/>
-      <c r="U26" s="55"/>
-      <c r="V26" s="55"/>
-      <c r="W26" s="55"/>
-      <c r="X26" s="55"/>
-      <c r="Y26" s="55"/>
-      <c r="Z26" s="55"/>
-      <c r="AA26" s="55"/>
-      <c r="AB26" s="55"/>
-      <c r="AC26" s="55"/>
-      <c r="AD26" s="55"/>
-      <c r="AE26" s="55"/>
-      <c r="AF26" s="55"/>
-      <c r="AG26" s="55"/>
-      <c r="AH26" s="55"/>
-      <c r="AI26" s="55"/>
-      <c r="AJ26" s="55"/>
-      <c r="AK26" s="55"/>
-      <c r="AL26" s="55"/>
-      <c r="AM26" s="55"/>
-      <c r="AN26" s="55"/>
-      <c r="AO26" s="55"/>
-      <c r="AP26" s="55"/>
-      <c r="AQ26" s="55"/>
-      <c r="AR26" s="55"/>
-      <c r="AS26" s="55"/>
-      <c r="AT26" s="55"/>
-      <c r="AU26" s="55"/>
-      <c r="AV26" s="55"/>
-      <c r="AW26" s="55"/>
-      <c r="AX26" s="55"/>
-      <c r="AY26" s="55"/>
-      <c r="AZ26" s="55"/>
-      <c r="BA26" s="55"/>
-      <c r="BB26" s="55"/>
-      <c r="BC26" s="55"/>
-      <c r="BD26" s="55"/>
-      <c r="BE26" s="55"/>
-      <c r="BF26" s="55"/>
-      <c r="BG26" s="55"/>
-      <c r="BH26" s="55"/>
-      <c r="BI26" s="55"/>
-      <c r="BJ26" s="55"/>
-      <c r="BK26" s="55"/>
-      <c r="BL26" s="55"/>
-      <c r="BM26" s="55"/>
-      <c r="BN26" s="55"/>
-      <c r="BO26" s="55"/>
-      <c r="BP26" s="55"/>
-      <c r="BQ26" s="55"/>
-      <c r="BR26" s="55"/>
-      <c r="BS26" s="55"/>
-      <c r="BT26" s="55"/>
-      <c r="BU26" s="55"/>
-      <c r="BV26" s="55"/>
-      <c r="BW26" s="55"/>
-      <c r="BX26" s="55"/>
-      <c r="BY26" s="55"/>
-      <c r="BZ26" s="55"/>
-      <c r="CA26" s="55"/>
-      <c r="CB26" s="55"/>
-      <c r="CC26" s="55"/>
-      <c r="CD26" s="56"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="51"/>
+      <c r="K26" s="51"/>
+      <c r="L26" s="51"/>
+      <c r="M26" s="51"/>
+      <c r="N26" s="51"/>
+      <c r="O26" s="51"/>
+      <c r="P26" s="51"/>
+      <c r="Q26" s="51"/>
+      <c r="R26" s="51"/>
+      <c r="S26" s="51"/>
+      <c r="T26" s="51"/>
+      <c r="U26" s="51"/>
+      <c r="V26" s="51"/>
+      <c r="W26" s="51"/>
+      <c r="X26" s="51"/>
+      <c r="Y26" s="51"/>
+      <c r="Z26" s="51"/>
+      <c r="AA26" s="51"/>
+      <c r="AB26" s="51"/>
+      <c r="AC26" s="51"/>
+      <c r="AD26" s="51"/>
+      <c r="AE26" s="51"/>
+      <c r="AF26" s="51"/>
+      <c r="AG26" s="51"/>
+      <c r="AH26" s="51"/>
+      <c r="AI26" s="51"/>
+      <c r="AJ26" s="51"/>
+      <c r="AK26" s="51"/>
+      <c r="AL26" s="51"/>
+      <c r="AM26" s="51"/>
+      <c r="AN26" s="51"/>
+      <c r="AO26" s="51"/>
+      <c r="AP26" s="51"/>
+      <c r="AQ26" s="51"/>
+      <c r="AR26" s="51"/>
+      <c r="AS26" s="51"/>
+      <c r="AT26" s="51"/>
+      <c r="AU26" s="51"/>
+      <c r="AV26" s="51"/>
+      <c r="AW26" s="51"/>
+      <c r="AX26" s="51"/>
+      <c r="AY26" s="51"/>
+      <c r="AZ26" s="51"/>
+      <c r="BA26" s="51"/>
+      <c r="BB26" s="51"/>
+      <c r="BC26" s="51"/>
+      <c r="BD26" s="51"/>
+      <c r="BE26" s="51"/>
+      <c r="BF26" s="51"/>
+      <c r="BG26" s="51"/>
+      <c r="BH26" s="51"/>
+      <c r="BI26" s="51"/>
+      <c r="BJ26" s="51"/>
+      <c r="BK26" s="51"/>
+      <c r="BL26" s="51"/>
+      <c r="BM26" s="51"/>
+      <c r="BN26" s="51"/>
+      <c r="BO26" s="51"/>
+      <c r="BP26" s="51"/>
+      <c r="BQ26" s="51"/>
+      <c r="BR26" s="51"/>
+      <c r="BS26" s="51"/>
+      <c r="BT26" s="51"/>
+      <c r="BU26" s="51"/>
+      <c r="BV26" s="51"/>
+      <c r="BW26" s="51"/>
+      <c r="BX26" s="51"/>
+      <c r="BY26" s="51"/>
+      <c r="BZ26" s="51"/>
+      <c r="CA26" s="51"/>
+      <c r="CB26" s="51"/>
+      <c r="CC26" s="51"/>
+      <c r="CD26" s="52"/>
     </row>
     <row r="27" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A27" s="11"/>
@@ -8444,90 +8440,90 @@
       <c r="E27" s="12"/>
       <c r="F27" s="12"/>
       <c r="G27" s="13"/>
-      <c r="I27" s="47" t="s">
+      <c r="I27" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="J27" s="47"/>
-      <c r="K27" s="47"/>
-      <c r="L27" s="47"/>
-      <c r="M27" s="47"/>
-      <c r="N27" s="47"/>
-      <c r="O27" s="47"/>
-      <c r="P27" s="47"/>
-      <c r="Q27" s="47"/>
-      <c r="R27" s="47"/>
-      <c r="S27" s="47"/>
-      <c r="T27" s="47"/>
-      <c r="U27" s="47"/>
-      <c r="V27" s="47" t="s">
+      <c r="J27" s="53"/>
+      <c r="K27" s="53"/>
+      <c r="L27" s="53"/>
+      <c r="M27" s="53"/>
+      <c r="N27" s="53"/>
+      <c r="O27" s="53"/>
+      <c r="P27" s="53"/>
+      <c r="Q27" s="53"/>
+      <c r="R27" s="53"/>
+      <c r="S27" s="53"/>
+      <c r="T27" s="53"/>
+      <c r="U27" s="53"/>
+      <c r="V27" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="W27" s="47"/>
-      <c r="X27" s="47"/>
-      <c r="Y27" s="47"/>
-      <c r="Z27" s="47"/>
-      <c r="AA27" s="47"/>
-      <c r="AB27" s="47"/>
-      <c r="AC27" s="47"/>
-      <c r="AD27" s="47"/>
-      <c r="AE27" s="47"/>
-      <c r="AF27" s="47"/>
-      <c r="AG27" s="47"/>
-      <c r="AH27" s="47"/>
-      <c r="AI27" s="47"/>
-      <c r="AJ27" s="47"/>
-      <c r="AK27" s="47"/>
-      <c r="AL27" s="47"/>
-      <c r="AM27" s="47"/>
-      <c r="AN27" s="47"/>
-      <c r="AO27" s="47"/>
-      <c r="AP27" s="47"/>
-      <c r="AQ27" s="47"/>
-      <c r="AR27" s="47"/>
-      <c r="AS27" s="47"/>
-      <c r="AT27" s="47"/>
-      <c r="AU27" s="47"/>
-      <c r="AV27" s="47"/>
-      <c r="AW27" s="47"/>
-      <c r="AX27" s="47" t="s">
-        <v>59</v>
-      </c>
-      <c r="AY27" s="47"/>
-      <c r="AZ27" s="47"/>
-      <c r="BA27" s="47"/>
-      <c r="BB27" s="47"/>
-      <c r="BC27" s="47"/>
-      <c r="BD27" s="47"/>
-      <c r="BE27" s="47"/>
-      <c r="BF27" s="47"/>
-      <c r="BG27" s="47"/>
-      <c r="BH27" s="47"/>
-      <c r="BI27" s="47"/>
-      <c r="BJ27" s="47" t="s">
+      <c r="W27" s="53"/>
+      <c r="X27" s="53"/>
+      <c r="Y27" s="53"/>
+      <c r="Z27" s="53"/>
+      <c r="AA27" s="53"/>
+      <c r="AB27" s="53"/>
+      <c r="AC27" s="53"/>
+      <c r="AD27" s="53"/>
+      <c r="AE27" s="53"/>
+      <c r="AF27" s="53"/>
+      <c r="AG27" s="53"/>
+      <c r="AH27" s="53"/>
+      <c r="AI27" s="53"/>
+      <c r="AJ27" s="53"/>
+      <c r="AK27" s="53"/>
+      <c r="AL27" s="53"/>
+      <c r="AM27" s="53"/>
+      <c r="AN27" s="53"/>
+      <c r="AO27" s="53"/>
+      <c r="AP27" s="53"/>
+      <c r="AQ27" s="53"/>
+      <c r="AR27" s="53"/>
+      <c r="AS27" s="53"/>
+      <c r="AT27" s="53"/>
+      <c r="AU27" s="53"/>
+      <c r="AV27" s="53"/>
+      <c r="AW27" s="53"/>
+      <c r="AX27" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY27" s="53"/>
+      <c r="AZ27" s="53"/>
+      <c r="BA27" s="53"/>
+      <c r="BB27" s="53"/>
+      <c r="BC27" s="53"/>
+      <c r="BD27" s="53"/>
+      <c r="BE27" s="53"/>
+      <c r="BF27" s="53"/>
+      <c r="BG27" s="53"/>
+      <c r="BH27" s="53"/>
+      <c r="BI27" s="53"/>
+      <c r="BJ27" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="BK27" s="47"/>
-      <c r="BL27" s="47"/>
-      <c r="BM27" s="47"/>
-      <c r="BN27" s="47"/>
-      <c r="BO27" s="47"/>
-      <c r="BP27" s="47" t="s">
+      <c r="BK27" s="53"/>
+      <c r="BL27" s="53"/>
+      <c r="BM27" s="53"/>
+      <c r="BN27" s="53"/>
+      <c r="BO27" s="53"/>
+      <c r="BP27" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="BQ27" s="47"/>
-      <c r="BR27" s="47"/>
-      <c r="BS27" s="47"/>
-      <c r="BT27" s="47"/>
-      <c r="BU27" s="47"/>
-      <c r="BV27" s="47"/>
-      <c r="BW27" s="47"/>
-      <c r="BX27" s="47"/>
-      <c r="BY27" s="47"/>
-      <c r="BZ27" s="47"/>
-      <c r="CA27" s="47"/>
-      <c r="CB27" s="47"/>
-      <c r="CC27" s="47"/>
-      <c r="CD27" s="47"/>
+      <c r="BQ27" s="53"/>
+      <c r="BR27" s="53"/>
+      <c r="BS27" s="53"/>
+      <c r="BT27" s="53"/>
+      <c r="BU27" s="53"/>
+      <c r="BV27" s="53"/>
+      <c r="BW27" s="53"/>
+      <c r="BX27" s="53"/>
+      <c r="BY27" s="53"/>
+      <c r="BZ27" s="53"/>
+      <c r="CA27" s="53"/>
+      <c r="CB27" s="53"/>
+      <c r="CC27" s="53"/>
+      <c r="CD27" s="53"/>
     </row>
     <row r="28" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="8"/>
@@ -8538,7 +8534,7 @@
       <c r="F28" s="9"/>
       <c r="G28" s="10"/>
       <c r="I28" s="37" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J28" s="37"/>
       <c r="K28" s="37"/>
@@ -8553,7 +8549,7 @@
       <c r="T28" s="37"/>
       <c r="U28" s="37"/>
       <c r="V28" s="37" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="W28" s="37"/>
       <c r="X28" s="37"/>
@@ -8583,7 +8579,7 @@
       <c r="AV28" s="37"/>
       <c r="AW28" s="37"/>
       <c r="AX28" s="37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AY28" s="37"/>
       <c r="AZ28" s="37"/>
@@ -8797,7 +8793,7 @@
       <c r="F31" s="12"/>
       <c r="G31" s="13"/>
       <c r="I31" s="36" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J31" s="36"/>
       <c r="K31" s="36"/>
@@ -8965,7 +8961,7 @@
       <c r="F33" s="12"/>
       <c r="G33" s="13"/>
       <c r="I33" s="36" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J33" s="36"/>
       <c r="K33" s="36"/>
@@ -9242,82 +9238,82 @@
       <c r="E39" s="12"/>
       <c r="F39" s="12"/>
       <c r="G39" s="13"/>
-      <c r="I39" s="51" t="s">
-        <v>67</v>
-      </c>
-      <c r="J39" s="52"/>
-      <c r="K39" s="52"/>
-      <c r="L39" s="52"/>
-      <c r="M39" s="52"/>
-      <c r="N39" s="52"/>
-      <c r="O39" s="52"/>
-      <c r="P39" s="52"/>
-      <c r="Q39" s="52"/>
-      <c r="R39" s="52"/>
-      <c r="S39" s="52"/>
-      <c r="T39" s="52"/>
-      <c r="U39" s="52"/>
-      <c r="V39" s="52"/>
-      <c r="W39" s="52"/>
-      <c r="X39" s="52"/>
-      <c r="Y39" s="52"/>
-      <c r="Z39" s="52"/>
-      <c r="AA39" s="52"/>
-      <c r="AB39" s="52"/>
-      <c r="AC39" s="52"/>
-      <c r="AD39" s="52"/>
-      <c r="AE39" s="52"/>
-      <c r="AF39" s="52"/>
-      <c r="AG39" s="52"/>
-      <c r="AH39" s="52"/>
-      <c r="AI39" s="52"/>
-      <c r="AJ39" s="52"/>
-      <c r="AK39" s="52"/>
-      <c r="AL39" s="52"/>
-      <c r="AM39" s="52"/>
-      <c r="AN39" s="52"/>
-      <c r="AO39" s="52"/>
-      <c r="AP39" s="52"/>
-      <c r="AQ39" s="52"/>
-      <c r="AR39" s="52"/>
-      <c r="AS39" s="52"/>
-      <c r="AT39" s="52"/>
-      <c r="AU39" s="52"/>
-      <c r="AV39" s="52"/>
-      <c r="AW39" s="52"/>
-      <c r="AX39" s="52"/>
-      <c r="AY39" s="52"/>
-      <c r="AZ39" s="52"/>
-      <c r="BA39" s="52"/>
-      <c r="BB39" s="52"/>
-      <c r="BC39" s="52"/>
-      <c r="BD39" s="52"/>
-      <c r="BE39" s="52"/>
-      <c r="BF39" s="52"/>
-      <c r="BG39" s="52"/>
-      <c r="BH39" s="52"/>
-      <c r="BI39" s="52"/>
-      <c r="BJ39" s="52"/>
-      <c r="BK39" s="52"/>
-      <c r="BL39" s="52"/>
-      <c r="BM39" s="52"/>
-      <c r="BN39" s="52"/>
-      <c r="BO39" s="52"/>
-      <c r="BP39" s="52"/>
-      <c r="BQ39" s="52"/>
-      <c r="BR39" s="52"/>
-      <c r="BS39" s="52"/>
-      <c r="BT39" s="52"/>
-      <c r="BU39" s="52"/>
-      <c r="BV39" s="52"/>
-      <c r="BW39" s="52"/>
-      <c r="BX39" s="52"/>
-      <c r="BY39" s="52"/>
-      <c r="BZ39" s="52"/>
-      <c r="CA39" s="52"/>
-      <c r="CB39" s="52"/>
-      <c r="CC39" s="52"/>
-      <c r="CD39" s="53"/>
+      <c r="I39" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="J39" s="48"/>
+      <c r="K39" s="48"/>
+      <c r="L39" s="48"/>
+      <c r="M39" s="48"/>
+      <c r="N39" s="48"/>
+      <c r="O39" s="48"/>
+      <c r="P39" s="48"/>
+      <c r="Q39" s="48"/>
+      <c r="R39" s="48"/>
+      <c r="S39" s="48"/>
+      <c r="T39" s="48"/>
+      <c r="U39" s="48"/>
+      <c r="V39" s="48"/>
+      <c r="W39" s="48"/>
+      <c r="X39" s="48"/>
+      <c r="Y39" s="48"/>
+      <c r="Z39" s="48"/>
+      <c r="AA39" s="48"/>
+      <c r="AB39" s="48"/>
+      <c r="AC39" s="48"/>
+      <c r="AD39" s="48"/>
+      <c r="AE39" s="48"/>
+      <c r="AF39" s="48"/>
+      <c r="AG39" s="48"/>
+      <c r="AH39" s="48"/>
+      <c r="AI39" s="48"/>
+      <c r="AJ39" s="48"/>
+      <c r="AK39" s="48"/>
+      <c r="AL39" s="48"/>
+      <c r="AM39" s="48"/>
+      <c r="AN39" s="48"/>
+      <c r="AO39" s="48"/>
+      <c r="AP39" s="48"/>
+      <c r="AQ39" s="48"/>
+      <c r="AR39" s="48"/>
+      <c r="AS39" s="48"/>
+      <c r="AT39" s="48"/>
+      <c r="AU39" s="48"/>
+      <c r="AV39" s="48"/>
+      <c r="AW39" s="48"/>
+      <c r="AX39" s="48"/>
+      <c r="AY39" s="48"/>
+      <c r="AZ39" s="48"/>
+      <c r="BA39" s="48"/>
+      <c r="BB39" s="48"/>
+      <c r="BC39" s="48"/>
+      <c r="BD39" s="48"/>
+      <c r="BE39" s="48"/>
+      <c r="BF39" s="48"/>
+      <c r="BG39" s="48"/>
+      <c r="BH39" s="48"/>
+      <c r="BI39" s="48"/>
+      <c r="BJ39" s="48"/>
+      <c r="BK39" s="48"/>
+      <c r="BL39" s="48"/>
+      <c r="BM39" s="48"/>
+      <c r="BN39" s="48"/>
+      <c r="BO39" s="48"/>
+      <c r="BP39" s="48"/>
+      <c r="BQ39" s="48"/>
+      <c r="BR39" s="48"/>
+      <c r="BS39" s="48"/>
+      <c r="BT39" s="48"/>
+      <c r="BU39" s="48"/>
+      <c r="BV39" s="48"/>
+      <c r="BW39" s="48"/>
+      <c r="BX39" s="48"/>
+      <c r="BY39" s="48"/>
+      <c r="BZ39" s="48"/>
+      <c r="CA39" s="48"/>
+      <c r="CB39" s="48"/>
+      <c r="CC39" s="48"/>
+      <c r="CD39" s="49"/>
     </row>
     <row r="40" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A40" s="8"/>
@@ -9327,80 +9323,80 @@
       <c r="E40" s="9"/>
       <c r="F40" s="9"/>
       <c r="G40" s="10"/>
-      <c r="I40" s="54"/>
-      <c r="J40" s="55"/>
-      <c r="K40" s="55"/>
-      <c r="L40" s="55"/>
-      <c r="M40" s="55"/>
-      <c r="N40" s="55"/>
-      <c r="O40" s="55"/>
-      <c r="P40" s="55"/>
-      <c r="Q40" s="55"/>
-      <c r="R40" s="55"/>
-      <c r="S40" s="55"/>
-      <c r="T40" s="55"/>
-      <c r="U40" s="55"/>
-      <c r="V40" s="55"/>
-      <c r="W40" s="55"/>
-      <c r="X40" s="55"/>
-      <c r="Y40" s="55"/>
-      <c r="Z40" s="55"/>
-      <c r="AA40" s="55"/>
-      <c r="AB40" s="55"/>
-      <c r="AC40" s="55"/>
-      <c r="AD40" s="55"/>
-      <c r="AE40" s="55"/>
-      <c r="AF40" s="55"/>
-      <c r="AG40" s="55"/>
-      <c r="AH40" s="55"/>
-      <c r="AI40" s="55"/>
-      <c r="AJ40" s="55"/>
-      <c r="AK40" s="55"/>
-      <c r="AL40" s="55"/>
-      <c r="AM40" s="55"/>
-      <c r="AN40" s="55"/>
-      <c r="AO40" s="55"/>
-      <c r="AP40" s="55"/>
-      <c r="AQ40" s="55"/>
-      <c r="AR40" s="55"/>
-      <c r="AS40" s="55"/>
-      <c r="AT40" s="55"/>
-      <c r="AU40" s="55"/>
-      <c r="AV40" s="55"/>
-      <c r="AW40" s="55"/>
-      <c r="AX40" s="55"/>
-      <c r="AY40" s="55"/>
-      <c r="AZ40" s="55"/>
-      <c r="BA40" s="55"/>
-      <c r="BB40" s="55"/>
-      <c r="BC40" s="55"/>
-      <c r="BD40" s="55"/>
-      <c r="BE40" s="55"/>
-      <c r="BF40" s="55"/>
-      <c r="BG40" s="55"/>
-      <c r="BH40" s="55"/>
-      <c r="BI40" s="55"/>
-      <c r="BJ40" s="55"/>
-      <c r="BK40" s="55"/>
-      <c r="BL40" s="55"/>
-      <c r="BM40" s="55"/>
-      <c r="BN40" s="55"/>
-      <c r="BO40" s="55"/>
-      <c r="BP40" s="55"/>
-      <c r="BQ40" s="55"/>
-      <c r="BR40" s="55"/>
-      <c r="BS40" s="55"/>
-      <c r="BT40" s="55"/>
-      <c r="BU40" s="55"/>
-      <c r="BV40" s="55"/>
-      <c r="BW40" s="55"/>
-      <c r="BX40" s="55"/>
-      <c r="BY40" s="55"/>
-      <c r="BZ40" s="55"/>
-      <c r="CA40" s="55"/>
-      <c r="CB40" s="55"/>
-      <c r="CC40" s="55"/>
-      <c r="CD40" s="56"/>
+      <c r="I40" s="50"/>
+      <c r="J40" s="51"/>
+      <c r="K40" s="51"/>
+      <c r="L40" s="51"/>
+      <c r="M40" s="51"/>
+      <c r="N40" s="51"/>
+      <c r="O40" s="51"/>
+      <c r="P40" s="51"/>
+      <c r="Q40" s="51"/>
+      <c r="R40" s="51"/>
+      <c r="S40" s="51"/>
+      <c r="T40" s="51"/>
+      <c r="U40" s="51"/>
+      <c r="V40" s="51"/>
+      <c r="W40" s="51"/>
+      <c r="X40" s="51"/>
+      <c r="Y40" s="51"/>
+      <c r="Z40" s="51"/>
+      <c r="AA40" s="51"/>
+      <c r="AB40" s="51"/>
+      <c r="AC40" s="51"/>
+      <c r="AD40" s="51"/>
+      <c r="AE40" s="51"/>
+      <c r="AF40" s="51"/>
+      <c r="AG40" s="51"/>
+      <c r="AH40" s="51"/>
+      <c r="AI40" s="51"/>
+      <c r="AJ40" s="51"/>
+      <c r="AK40" s="51"/>
+      <c r="AL40" s="51"/>
+      <c r="AM40" s="51"/>
+      <c r="AN40" s="51"/>
+      <c r="AO40" s="51"/>
+      <c r="AP40" s="51"/>
+      <c r="AQ40" s="51"/>
+      <c r="AR40" s="51"/>
+      <c r="AS40" s="51"/>
+      <c r="AT40" s="51"/>
+      <c r="AU40" s="51"/>
+      <c r="AV40" s="51"/>
+      <c r="AW40" s="51"/>
+      <c r="AX40" s="51"/>
+      <c r="AY40" s="51"/>
+      <c r="AZ40" s="51"/>
+      <c r="BA40" s="51"/>
+      <c r="BB40" s="51"/>
+      <c r="BC40" s="51"/>
+      <c r="BD40" s="51"/>
+      <c r="BE40" s="51"/>
+      <c r="BF40" s="51"/>
+      <c r="BG40" s="51"/>
+      <c r="BH40" s="51"/>
+      <c r="BI40" s="51"/>
+      <c r="BJ40" s="51"/>
+      <c r="BK40" s="51"/>
+      <c r="BL40" s="51"/>
+      <c r="BM40" s="51"/>
+      <c r="BN40" s="51"/>
+      <c r="BO40" s="51"/>
+      <c r="BP40" s="51"/>
+      <c r="BQ40" s="51"/>
+      <c r="BR40" s="51"/>
+      <c r="BS40" s="51"/>
+      <c r="BT40" s="51"/>
+      <c r="BU40" s="51"/>
+      <c r="BV40" s="51"/>
+      <c r="BW40" s="51"/>
+      <c r="BX40" s="51"/>
+      <c r="BY40" s="51"/>
+      <c r="BZ40" s="51"/>
+      <c r="CA40" s="51"/>
+      <c r="CB40" s="51"/>
+      <c r="CC40" s="51"/>
+      <c r="CD40" s="52"/>
     </row>
     <row r="41" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A41" s="11"/>
@@ -9410,90 +9406,90 @@
       <c r="E41" s="12"/>
       <c r="F41" s="12"/>
       <c r="G41" s="13"/>
-      <c r="I41" s="47" t="s">
+      <c r="I41" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="J41" s="47"/>
-      <c r="K41" s="47"/>
-      <c r="L41" s="47"/>
-      <c r="M41" s="47"/>
-      <c r="N41" s="47"/>
-      <c r="O41" s="47"/>
-      <c r="P41" s="47"/>
-      <c r="Q41" s="47"/>
-      <c r="R41" s="47"/>
-      <c r="S41" s="47"/>
-      <c r="T41" s="47"/>
-      <c r="U41" s="47"/>
-      <c r="V41" s="47" t="s">
+      <c r="J41" s="53"/>
+      <c r="K41" s="53"/>
+      <c r="L41" s="53"/>
+      <c r="M41" s="53"/>
+      <c r="N41" s="53"/>
+      <c r="O41" s="53"/>
+      <c r="P41" s="53"/>
+      <c r="Q41" s="53"/>
+      <c r="R41" s="53"/>
+      <c r="S41" s="53"/>
+      <c r="T41" s="53"/>
+      <c r="U41" s="53"/>
+      <c r="V41" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="W41" s="47"/>
-      <c r="X41" s="47"/>
-      <c r="Y41" s="47"/>
-      <c r="Z41" s="47"/>
-      <c r="AA41" s="47"/>
-      <c r="AB41" s="47"/>
-      <c r="AC41" s="47"/>
-      <c r="AD41" s="47"/>
-      <c r="AE41" s="47"/>
-      <c r="AF41" s="47"/>
-      <c r="AG41" s="47"/>
-      <c r="AH41" s="47"/>
-      <c r="AI41" s="47"/>
-      <c r="AJ41" s="47"/>
-      <c r="AK41" s="47"/>
-      <c r="AL41" s="47"/>
-      <c r="AM41" s="47"/>
-      <c r="AN41" s="47"/>
-      <c r="AO41" s="47"/>
-      <c r="AP41" s="47"/>
-      <c r="AQ41" s="47"/>
-      <c r="AR41" s="47"/>
-      <c r="AS41" s="47"/>
-      <c r="AT41" s="47"/>
-      <c r="AU41" s="47"/>
-      <c r="AV41" s="47"/>
-      <c r="AW41" s="47"/>
-      <c r="AX41" s="47" t="s">
-        <v>59</v>
-      </c>
-      <c r="AY41" s="47"/>
-      <c r="AZ41" s="47"/>
-      <c r="BA41" s="47"/>
-      <c r="BB41" s="47"/>
-      <c r="BC41" s="47"/>
-      <c r="BD41" s="47"/>
-      <c r="BE41" s="47"/>
-      <c r="BF41" s="47"/>
-      <c r="BG41" s="47"/>
-      <c r="BH41" s="47"/>
-      <c r="BI41" s="47"/>
-      <c r="BJ41" s="47" t="s">
+      <c r="W41" s="53"/>
+      <c r="X41" s="53"/>
+      <c r="Y41" s="53"/>
+      <c r="Z41" s="53"/>
+      <c r="AA41" s="53"/>
+      <c r="AB41" s="53"/>
+      <c r="AC41" s="53"/>
+      <c r="AD41" s="53"/>
+      <c r="AE41" s="53"/>
+      <c r="AF41" s="53"/>
+      <c r="AG41" s="53"/>
+      <c r="AH41" s="53"/>
+      <c r="AI41" s="53"/>
+      <c r="AJ41" s="53"/>
+      <c r="AK41" s="53"/>
+      <c r="AL41" s="53"/>
+      <c r="AM41" s="53"/>
+      <c r="AN41" s="53"/>
+      <c r="AO41" s="53"/>
+      <c r="AP41" s="53"/>
+      <c r="AQ41" s="53"/>
+      <c r="AR41" s="53"/>
+      <c r="AS41" s="53"/>
+      <c r="AT41" s="53"/>
+      <c r="AU41" s="53"/>
+      <c r="AV41" s="53"/>
+      <c r="AW41" s="53"/>
+      <c r="AX41" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY41" s="53"/>
+      <c r="AZ41" s="53"/>
+      <c r="BA41" s="53"/>
+      <c r="BB41" s="53"/>
+      <c r="BC41" s="53"/>
+      <c r="BD41" s="53"/>
+      <c r="BE41" s="53"/>
+      <c r="BF41" s="53"/>
+      <c r="BG41" s="53"/>
+      <c r="BH41" s="53"/>
+      <c r="BI41" s="53"/>
+      <c r="BJ41" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="BK41" s="47"/>
-      <c r="BL41" s="47"/>
-      <c r="BM41" s="47"/>
-      <c r="BN41" s="47"/>
-      <c r="BO41" s="47"/>
-      <c r="BP41" s="47" t="s">
+      <c r="BK41" s="53"/>
+      <c r="BL41" s="53"/>
+      <c r="BM41" s="53"/>
+      <c r="BN41" s="53"/>
+      <c r="BO41" s="53"/>
+      <c r="BP41" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="BQ41" s="47"/>
-      <c r="BR41" s="47"/>
-      <c r="BS41" s="47"/>
-      <c r="BT41" s="47"/>
-      <c r="BU41" s="47"/>
-      <c r="BV41" s="47"/>
-      <c r="BW41" s="47"/>
-      <c r="BX41" s="47"/>
-      <c r="BY41" s="47"/>
-      <c r="BZ41" s="47"/>
-      <c r="CA41" s="47"/>
-      <c r="CB41" s="47"/>
-      <c r="CC41" s="47"/>
-      <c r="CD41" s="47"/>
+      <c r="BQ41" s="53"/>
+      <c r="BR41" s="53"/>
+      <c r="BS41" s="53"/>
+      <c r="BT41" s="53"/>
+      <c r="BU41" s="53"/>
+      <c r="BV41" s="53"/>
+      <c r="BW41" s="53"/>
+      <c r="BX41" s="53"/>
+      <c r="BY41" s="53"/>
+      <c r="BZ41" s="53"/>
+      <c r="CA41" s="53"/>
+      <c r="CB41" s="53"/>
+      <c r="CC41" s="53"/>
+      <c r="CD41" s="53"/>
     </row>
     <row r="42" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="8"/>
@@ -9504,7 +9500,7 @@
       <c r="F42" s="9"/>
       <c r="G42" s="10"/>
       <c r="I42" s="37" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J42" s="37"/>
       <c r="K42" s="37"/>
@@ -9519,7 +9515,7 @@
       <c r="T42" s="37"/>
       <c r="U42" s="37"/>
       <c r="V42" s="37" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="W42" s="37"/>
       <c r="X42" s="37"/>
@@ -9549,7 +9545,7 @@
       <c r="AV42" s="37"/>
       <c r="AW42" s="37"/>
       <c r="AX42" s="37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AY42" s="37"/>
       <c r="AZ42" s="37"/>
@@ -9763,7 +9759,7 @@
       <c r="F45" s="12"/>
       <c r="G45" s="13"/>
       <c r="I45" s="36" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J45" s="36"/>
       <c r="K45" s="36"/>
@@ -9931,7 +9927,7 @@
       <c r="F47" s="12"/>
       <c r="G47" s="13"/>
       <c r="I47" s="36" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J47" s="36"/>
       <c r="K47" s="36"/>
@@ -10193,248 +10189,248 @@
     </row>
     <row r="52" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="53" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="I53" s="51" t="s">
-        <v>69</v>
-      </c>
-      <c r="J53" s="52"/>
-      <c r="K53" s="52"/>
-      <c r="L53" s="52"/>
-      <c r="M53" s="52"/>
-      <c r="N53" s="52"/>
-      <c r="O53" s="52"/>
-      <c r="P53" s="52"/>
-      <c r="Q53" s="52"/>
-      <c r="R53" s="52"/>
-      <c r="S53" s="52"/>
-      <c r="T53" s="52"/>
-      <c r="U53" s="52"/>
-      <c r="V53" s="52"/>
-      <c r="W53" s="52"/>
-      <c r="X53" s="52"/>
-      <c r="Y53" s="52"/>
-      <c r="Z53" s="52"/>
-      <c r="AA53" s="52"/>
-      <c r="AB53" s="52"/>
-      <c r="AC53" s="52"/>
-      <c r="AD53" s="52"/>
-      <c r="AE53" s="52"/>
-      <c r="AF53" s="52"/>
-      <c r="AG53" s="52"/>
-      <c r="AH53" s="52"/>
-      <c r="AI53" s="52"/>
-      <c r="AJ53" s="52"/>
-      <c r="AK53" s="52"/>
-      <c r="AL53" s="52"/>
-      <c r="AM53" s="52"/>
-      <c r="AN53" s="52"/>
-      <c r="AO53" s="52"/>
-      <c r="AP53" s="52"/>
-      <c r="AQ53" s="52"/>
-      <c r="AR53" s="52"/>
-      <c r="AS53" s="52"/>
-      <c r="AT53" s="52"/>
-      <c r="AU53" s="52"/>
-      <c r="AV53" s="52"/>
-      <c r="AW53" s="52"/>
-      <c r="AX53" s="52"/>
-      <c r="AY53" s="52"/>
-      <c r="AZ53" s="52"/>
-      <c r="BA53" s="52"/>
-      <c r="BB53" s="52"/>
-      <c r="BC53" s="52"/>
-      <c r="BD53" s="52"/>
-      <c r="BE53" s="52"/>
-      <c r="BF53" s="52"/>
-      <c r="BG53" s="52"/>
-      <c r="BH53" s="52"/>
-      <c r="BI53" s="52"/>
-      <c r="BJ53" s="52"/>
-      <c r="BK53" s="52"/>
-      <c r="BL53" s="52"/>
-      <c r="BM53" s="52"/>
-      <c r="BN53" s="52"/>
-      <c r="BO53" s="52"/>
-      <c r="BP53" s="52"/>
-      <c r="BQ53" s="52"/>
-      <c r="BR53" s="52"/>
-      <c r="BS53" s="52"/>
-      <c r="BT53" s="52"/>
-      <c r="BU53" s="52"/>
-      <c r="BV53" s="52"/>
-      <c r="BW53" s="52"/>
-      <c r="BX53" s="52"/>
-      <c r="BY53" s="52"/>
-      <c r="BZ53" s="52"/>
-      <c r="CA53" s="52"/>
-      <c r="CB53" s="52"/>
-      <c r="CC53" s="52"/>
-      <c r="CD53" s="53"/>
+      <c r="I53" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="J53" s="48"/>
+      <c r="K53" s="48"/>
+      <c r="L53" s="48"/>
+      <c r="M53" s="48"/>
+      <c r="N53" s="48"/>
+      <c r="O53" s="48"/>
+      <c r="P53" s="48"/>
+      <c r="Q53" s="48"/>
+      <c r="R53" s="48"/>
+      <c r="S53" s="48"/>
+      <c r="T53" s="48"/>
+      <c r="U53" s="48"/>
+      <c r="V53" s="48"/>
+      <c r="W53" s="48"/>
+      <c r="X53" s="48"/>
+      <c r="Y53" s="48"/>
+      <c r="Z53" s="48"/>
+      <c r="AA53" s="48"/>
+      <c r="AB53" s="48"/>
+      <c r="AC53" s="48"/>
+      <c r="AD53" s="48"/>
+      <c r="AE53" s="48"/>
+      <c r="AF53" s="48"/>
+      <c r="AG53" s="48"/>
+      <c r="AH53" s="48"/>
+      <c r="AI53" s="48"/>
+      <c r="AJ53" s="48"/>
+      <c r="AK53" s="48"/>
+      <c r="AL53" s="48"/>
+      <c r="AM53" s="48"/>
+      <c r="AN53" s="48"/>
+      <c r="AO53" s="48"/>
+      <c r="AP53" s="48"/>
+      <c r="AQ53" s="48"/>
+      <c r="AR53" s="48"/>
+      <c r="AS53" s="48"/>
+      <c r="AT53" s="48"/>
+      <c r="AU53" s="48"/>
+      <c r="AV53" s="48"/>
+      <c r="AW53" s="48"/>
+      <c r="AX53" s="48"/>
+      <c r="AY53" s="48"/>
+      <c r="AZ53" s="48"/>
+      <c r="BA53" s="48"/>
+      <c r="BB53" s="48"/>
+      <c r="BC53" s="48"/>
+      <c r="BD53" s="48"/>
+      <c r="BE53" s="48"/>
+      <c r="BF53" s="48"/>
+      <c r="BG53" s="48"/>
+      <c r="BH53" s="48"/>
+      <c r="BI53" s="48"/>
+      <c r="BJ53" s="48"/>
+      <c r="BK53" s="48"/>
+      <c r="BL53" s="48"/>
+      <c r="BM53" s="48"/>
+      <c r="BN53" s="48"/>
+      <c r="BO53" s="48"/>
+      <c r="BP53" s="48"/>
+      <c r="BQ53" s="48"/>
+      <c r="BR53" s="48"/>
+      <c r="BS53" s="48"/>
+      <c r="BT53" s="48"/>
+      <c r="BU53" s="48"/>
+      <c r="BV53" s="48"/>
+      <c r="BW53" s="48"/>
+      <c r="BX53" s="48"/>
+      <c r="BY53" s="48"/>
+      <c r="BZ53" s="48"/>
+      <c r="CA53" s="48"/>
+      <c r="CB53" s="48"/>
+      <c r="CC53" s="48"/>
+      <c r="CD53" s="49"/>
     </row>
     <row r="54" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="I54" s="54"/>
-      <c r="J54" s="55"/>
-      <c r="K54" s="55"/>
-      <c r="L54" s="55"/>
-      <c r="M54" s="55"/>
-      <c r="N54" s="55"/>
-      <c r="O54" s="55"/>
-      <c r="P54" s="55"/>
-      <c r="Q54" s="55"/>
-      <c r="R54" s="55"/>
-      <c r="S54" s="55"/>
-      <c r="T54" s="55"/>
-      <c r="U54" s="55"/>
-      <c r="V54" s="55"/>
-      <c r="W54" s="55"/>
-      <c r="X54" s="55"/>
-      <c r="Y54" s="55"/>
-      <c r="Z54" s="55"/>
-      <c r="AA54" s="55"/>
-      <c r="AB54" s="55"/>
-      <c r="AC54" s="55"/>
-      <c r="AD54" s="55"/>
-      <c r="AE54" s="55"/>
-      <c r="AF54" s="55"/>
-      <c r="AG54" s="55"/>
-      <c r="AH54" s="55"/>
-      <c r="AI54" s="55"/>
-      <c r="AJ54" s="55"/>
-      <c r="AK54" s="55"/>
-      <c r="AL54" s="55"/>
-      <c r="AM54" s="55"/>
-      <c r="AN54" s="55"/>
-      <c r="AO54" s="55"/>
-      <c r="AP54" s="55"/>
-      <c r="AQ54" s="55"/>
-      <c r="AR54" s="55"/>
-      <c r="AS54" s="55"/>
-      <c r="AT54" s="55"/>
-      <c r="AU54" s="55"/>
-      <c r="AV54" s="55"/>
-      <c r="AW54" s="55"/>
-      <c r="AX54" s="55"/>
-      <c r="AY54" s="55"/>
-      <c r="AZ54" s="55"/>
-      <c r="BA54" s="55"/>
-      <c r="BB54" s="55"/>
-      <c r="BC54" s="55"/>
-      <c r="BD54" s="55"/>
-      <c r="BE54" s="55"/>
-      <c r="BF54" s="55"/>
-      <c r="BG54" s="55"/>
-      <c r="BH54" s="55"/>
-      <c r="BI54" s="55"/>
-      <c r="BJ54" s="55"/>
-      <c r="BK54" s="55"/>
-      <c r="BL54" s="55"/>
-      <c r="BM54" s="55"/>
-      <c r="BN54" s="55"/>
-      <c r="BO54" s="55"/>
-      <c r="BP54" s="55"/>
-      <c r="BQ54" s="55"/>
-      <c r="BR54" s="55"/>
-      <c r="BS54" s="55"/>
-      <c r="BT54" s="55"/>
-      <c r="BU54" s="55"/>
-      <c r="BV54" s="55"/>
-      <c r="BW54" s="55"/>
-      <c r="BX54" s="55"/>
-      <c r="BY54" s="55"/>
-      <c r="BZ54" s="55"/>
-      <c r="CA54" s="55"/>
-      <c r="CB54" s="55"/>
-      <c r="CC54" s="55"/>
-      <c r="CD54" s="56"/>
+      <c r="I54" s="50"/>
+      <c r="J54" s="51"/>
+      <c r="K54" s="51"/>
+      <c r="L54" s="51"/>
+      <c r="M54" s="51"/>
+      <c r="N54" s="51"/>
+      <c r="O54" s="51"/>
+      <c r="P54" s="51"/>
+      <c r="Q54" s="51"/>
+      <c r="R54" s="51"/>
+      <c r="S54" s="51"/>
+      <c r="T54" s="51"/>
+      <c r="U54" s="51"/>
+      <c r="V54" s="51"/>
+      <c r="W54" s="51"/>
+      <c r="X54" s="51"/>
+      <c r="Y54" s="51"/>
+      <c r="Z54" s="51"/>
+      <c r="AA54" s="51"/>
+      <c r="AB54" s="51"/>
+      <c r="AC54" s="51"/>
+      <c r="AD54" s="51"/>
+      <c r="AE54" s="51"/>
+      <c r="AF54" s="51"/>
+      <c r="AG54" s="51"/>
+      <c r="AH54" s="51"/>
+      <c r="AI54" s="51"/>
+      <c r="AJ54" s="51"/>
+      <c r="AK54" s="51"/>
+      <c r="AL54" s="51"/>
+      <c r="AM54" s="51"/>
+      <c r="AN54" s="51"/>
+      <c r="AO54" s="51"/>
+      <c r="AP54" s="51"/>
+      <c r="AQ54" s="51"/>
+      <c r="AR54" s="51"/>
+      <c r="AS54" s="51"/>
+      <c r="AT54" s="51"/>
+      <c r="AU54" s="51"/>
+      <c r="AV54" s="51"/>
+      <c r="AW54" s="51"/>
+      <c r="AX54" s="51"/>
+      <c r="AY54" s="51"/>
+      <c r="AZ54" s="51"/>
+      <c r="BA54" s="51"/>
+      <c r="BB54" s="51"/>
+      <c r="BC54" s="51"/>
+      <c r="BD54" s="51"/>
+      <c r="BE54" s="51"/>
+      <c r="BF54" s="51"/>
+      <c r="BG54" s="51"/>
+      <c r="BH54" s="51"/>
+      <c r="BI54" s="51"/>
+      <c r="BJ54" s="51"/>
+      <c r="BK54" s="51"/>
+      <c r="BL54" s="51"/>
+      <c r="BM54" s="51"/>
+      <c r="BN54" s="51"/>
+      <c r="BO54" s="51"/>
+      <c r="BP54" s="51"/>
+      <c r="BQ54" s="51"/>
+      <c r="BR54" s="51"/>
+      <c r="BS54" s="51"/>
+      <c r="BT54" s="51"/>
+      <c r="BU54" s="51"/>
+      <c r="BV54" s="51"/>
+      <c r="BW54" s="51"/>
+      <c r="BX54" s="51"/>
+      <c r="BY54" s="51"/>
+      <c r="BZ54" s="51"/>
+      <c r="CA54" s="51"/>
+      <c r="CB54" s="51"/>
+      <c r="CC54" s="51"/>
+      <c r="CD54" s="52"/>
     </row>
     <row r="55" spans="1:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="I55" s="47" t="s">
+      <c r="I55" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="J55" s="47"/>
-      <c r="K55" s="47"/>
-      <c r="L55" s="47"/>
-      <c r="M55" s="47"/>
-      <c r="N55" s="47"/>
-      <c r="O55" s="47"/>
-      <c r="P55" s="47"/>
-      <c r="Q55" s="47"/>
-      <c r="R55" s="47"/>
-      <c r="S55" s="47"/>
-      <c r="T55" s="47"/>
-      <c r="U55" s="47"/>
-      <c r="V55" s="47" t="s">
+      <c r="J55" s="53"/>
+      <c r="K55" s="53"/>
+      <c r="L55" s="53"/>
+      <c r="M55" s="53"/>
+      <c r="N55" s="53"/>
+      <c r="O55" s="53"/>
+      <c r="P55" s="53"/>
+      <c r="Q55" s="53"/>
+      <c r="R55" s="53"/>
+      <c r="S55" s="53"/>
+      <c r="T55" s="53"/>
+      <c r="U55" s="53"/>
+      <c r="V55" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="W55" s="47"/>
-      <c r="X55" s="47"/>
-      <c r="Y55" s="47"/>
-      <c r="Z55" s="47"/>
-      <c r="AA55" s="47"/>
-      <c r="AB55" s="47"/>
-      <c r="AC55" s="47"/>
-      <c r="AD55" s="47"/>
-      <c r="AE55" s="47"/>
-      <c r="AF55" s="47"/>
-      <c r="AG55" s="47"/>
-      <c r="AH55" s="47"/>
-      <c r="AI55" s="47"/>
-      <c r="AJ55" s="47"/>
-      <c r="AK55" s="47"/>
-      <c r="AL55" s="47"/>
-      <c r="AM55" s="47"/>
-      <c r="AN55" s="47"/>
-      <c r="AO55" s="47"/>
-      <c r="AP55" s="47"/>
-      <c r="AQ55" s="47"/>
-      <c r="AR55" s="47"/>
-      <c r="AS55" s="47"/>
-      <c r="AT55" s="47"/>
-      <c r="AU55" s="47"/>
-      <c r="AV55" s="47"/>
-      <c r="AW55" s="47"/>
-      <c r="AX55" s="47" t="s">
-        <v>59</v>
-      </c>
-      <c r="AY55" s="47"/>
-      <c r="AZ55" s="47"/>
-      <c r="BA55" s="47"/>
-      <c r="BB55" s="47"/>
-      <c r="BC55" s="47"/>
-      <c r="BD55" s="47"/>
-      <c r="BE55" s="47"/>
-      <c r="BF55" s="47"/>
-      <c r="BG55" s="47"/>
-      <c r="BH55" s="47"/>
-      <c r="BI55" s="47"/>
-      <c r="BJ55" s="47" t="s">
+      <c r="W55" s="53"/>
+      <c r="X55" s="53"/>
+      <c r="Y55" s="53"/>
+      <c r="Z55" s="53"/>
+      <c r="AA55" s="53"/>
+      <c r="AB55" s="53"/>
+      <c r="AC55" s="53"/>
+      <c r="AD55" s="53"/>
+      <c r="AE55" s="53"/>
+      <c r="AF55" s="53"/>
+      <c r="AG55" s="53"/>
+      <c r="AH55" s="53"/>
+      <c r="AI55" s="53"/>
+      <c r="AJ55" s="53"/>
+      <c r="AK55" s="53"/>
+      <c r="AL55" s="53"/>
+      <c r="AM55" s="53"/>
+      <c r="AN55" s="53"/>
+      <c r="AO55" s="53"/>
+      <c r="AP55" s="53"/>
+      <c r="AQ55" s="53"/>
+      <c r="AR55" s="53"/>
+      <c r="AS55" s="53"/>
+      <c r="AT55" s="53"/>
+      <c r="AU55" s="53"/>
+      <c r="AV55" s="53"/>
+      <c r="AW55" s="53"/>
+      <c r="AX55" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY55" s="53"/>
+      <c r="AZ55" s="53"/>
+      <c r="BA55" s="53"/>
+      <c r="BB55" s="53"/>
+      <c r="BC55" s="53"/>
+      <c r="BD55" s="53"/>
+      <c r="BE55" s="53"/>
+      <c r="BF55" s="53"/>
+      <c r="BG55" s="53"/>
+      <c r="BH55" s="53"/>
+      <c r="BI55" s="53"/>
+      <c r="BJ55" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="BK55" s="47"/>
-      <c r="BL55" s="47"/>
-      <c r="BM55" s="47"/>
-      <c r="BN55" s="47"/>
-      <c r="BO55" s="47"/>
-      <c r="BP55" s="47" t="s">
+      <c r="BK55" s="53"/>
+      <c r="BL55" s="53"/>
+      <c r="BM55" s="53"/>
+      <c r="BN55" s="53"/>
+      <c r="BO55" s="53"/>
+      <c r="BP55" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="BQ55" s="47"/>
-      <c r="BR55" s="47"/>
-      <c r="BS55" s="47"/>
-      <c r="BT55" s="47"/>
-      <c r="BU55" s="47"/>
-      <c r="BV55" s="47"/>
-      <c r="BW55" s="47"/>
-      <c r="BX55" s="47"/>
-      <c r="BY55" s="47"/>
-      <c r="BZ55" s="47"/>
-      <c r="CA55" s="47"/>
-      <c r="CB55" s="47"/>
-      <c r="CC55" s="47"/>
-      <c r="CD55" s="47"/>
+      <c r="BQ55" s="53"/>
+      <c r="BR55" s="53"/>
+      <c r="BS55" s="53"/>
+      <c r="BT55" s="53"/>
+      <c r="BU55" s="53"/>
+      <c r="BV55" s="53"/>
+      <c r="BW55" s="53"/>
+      <c r="BX55" s="53"/>
+      <c r="BY55" s="53"/>
+      <c r="BZ55" s="53"/>
+      <c r="CA55" s="53"/>
+      <c r="CB55" s="53"/>
+      <c r="CC55" s="53"/>
+      <c r="CD55" s="53"/>
     </row>
     <row r="56" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I56" s="37" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J56" s="37"/>
       <c r="K56" s="37"/>
@@ -10449,7 +10445,7 @@
       <c r="T56" s="37"/>
       <c r="U56" s="37"/>
       <c r="V56" s="37" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="W56" s="37"/>
       <c r="X56" s="37"/>
@@ -10479,7 +10475,7 @@
       <c r="AV56" s="37"/>
       <c r="AW56" s="37"/>
       <c r="AX56" s="37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AY56" s="37"/>
       <c r="AZ56" s="37"/>
@@ -10672,7 +10668,7 @@
     </row>
     <row r="59" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I59" s="36" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J59" s="36"/>
       <c r="K59" s="36"/>
@@ -10826,7 +10822,7 @@
     </row>
     <row r="61" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I61" s="36" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J61" s="36"/>
       <c r="K61" s="36"/>
@@ -11056,248 +11052,248 @@
     </row>
     <row r="66" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="67" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="I67" s="51" t="s">
-        <v>71</v>
-      </c>
-      <c r="J67" s="52"/>
-      <c r="K67" s="52"/>
-      <c r="L67" s="52"/>
-      <c r="M67" s="52"/>
-      <c r="N67" s="52"/>
-      <c r="O67" s="52"/>
-      <c r="P67" s="52"/>
-      <c r="Q67" s="52"/>
-      <c r="R67" s="52"/>
-      <c r="S67" s="52"/>
-      <c r="T67" s="52"/>
-      <c r="U67" s="52"/>
-      <c r="V67" s="52"/>
-      <c r="W67" s="52"/>
-      <c r="X67" s="52"/>
-      <c r="Y67" s="52"/>
-      <c r="Z67" s="52"/>
-      <c r="AA67" s="52"/>
-      <c r="AB67" s="52"/>
-      <c r="AC67" s="52"/>
-      <c r="AD67" s="52"/>
-      <c r="AE67" s="52"/>
-      <c r="AF67" s="52"/>
-      <c r="AG67" s="52"/>
-      <c r="AH67" s="52"/>
-      <c r="AI67" s="52"/>
-      <c r="AJ67" s="52"/>
-      <c r="AK67" s="52"/>
-      <c r="AL67" s="52"/>
-      <c r="AM67" s="52"/>
-      <c r="AN67" s="52"/>
-      <c r="AO67" s="52"/>
-      <c r="AP67" s="52"/>
-      <c r="AQ67" s="52"/>
-      <c r="AR67" s="52"/>
-      <c r="AS67" s="52"/>
-      <c r="AT67" s="52"/>
-      <c r="AU67" s="52"/>
-      <c r="AV67" s="52"/>
-      <c r="AW67" s="52"/>
-      <c r="AX67" s="52"/>
-      <c r="AY67" s="52"/>
-      <c r="AZ67" s="52"/>
-      <c r="BA67" s="52"/>
-      <c r="BB67" s="52"/>
-      <c r="BC67" s="52"/>
-      <c r="BD67" s="52"/>
-      <c r="BE67" s="52"/>
-      <c r="BF67" s="52"/>
-      <c r="BG67" s="52"/>
-      <c r="BH67" s="52"/>
-      <c r="BI67" s="52"/>
-      <c r="BJ67" s="52"/>
-      <c r="BK67" s="52"/>
-      <c r="BL67" s="52"/>
-      <c r="BM67" s="52"/>
-      <c r="BN67" s="52"/>
-      <c r="BO67" s="52"/>
-      <c r="BP67" s="52"/>
-      <c r="BQ67" s="52"/>
-      <c r="BR67" s="52"/>
-      <c r="BS67" s="52"/>
-      <c r="BT67" s="52"/>
-      <c r="BU67" s="52"/>
-      <c r="BV67" s="52"/>
-      <c r="BW67" s="52"/>
-      <c r="BX67" s="52"/>
-      <c r="BY67" s="52"/>
-      <c r="BZ67" s="52"/>
-      <c r="CA67" s="52"/>
-      <c r="CB67" s="52"/>
-      <c r="CC67" s="52"/>
-      <c r="CD67" s="53"/>
+      <c r="I67" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="J67" s="48"/>
+      <c r="K67" s="48"/>
+      <c r="L67" s="48"/>
+      <c r="M67" s="48"/>
+      <c r="N67" s="48"/>
+      <c r="O67" s="48"/>
+      <c r="P67" s="48"/>
+      <c r="Q67" s="48"/>
+      <c r="R67" s="48"/>
+      <c r="S67" s="48"/>
+      <c r="T67" s="48"/>
+      <c r="U67" s="48"/>
+      <c r="V67" s="48"/>
+      <c r="W67" s="48"/>
+      <c r="X67" s="48"/>
+      <c r="Y67" s="48"/>
+      <c r="Z67" s="48"/>
+      <c r="AA67" s="48"/>
+      <c r="AB67" s="48"/>
+      <c r="AC67" s="48"/>
+      <c r="AD67" s="48"/>
+      <c r="AE67" s="48"/>
+      <c r="AF67" s="48"/>
+      <c r="AG67" s="48"/>
+      <c r="AH67" s="48"/>
+      <c r="AI67" s="48"/>
+      <c r="AJ67" s="48"/>
+      <c r="AK67" s="48"/>
+      <c r="AL67" s="48"/>
+      <c r="AM67" s="48"/>
+      <c r="AN67" s="48"/>
+      <c r="AO67" s="48"/>
+      <c r="AP67" s="48"/>
+      <c r="AQ67" s="48"/>
+      <c r="AR67" s="48"/>
+      <c r="AS67" s="48"/>
+      <c r="AT67" s="48"/>
+      <c r="AU67" s="48"/>
+      <c r="AV67" s="48"/>
+      <c r="AW67" s="48"/>
+      <c r="AX67" s="48"/>
+      <c r="AY67" s="48"/>
+      <c r="AZ67" s="48"/>
+      <c r="BA67" s="48"/>
+      <c r="BB67" s="48"/>
+      <c r="BC67" s="48"/>
+      <c r="BD67" s="48"/>
+      <c r="BE67" s="48"/>
+      <c r="BF67" s="48"/>
+      <c r="BG67" s="48"/>
+      <c r="BH67" s="48"/>
+      <c r="BI67" s="48"/>
+      <c r="BJ67" s="48"/>
+      <c r="BK67" s="48"/>
+      <c r="BL67" s="48"/>
+      <c r="BM67" s="48"/>
+      <c r="BN67" s="48"/>
+      <c r="BO67" s="48"/>
+      <c r="BP67" s="48"/>
+      <c r="BQ67" s="48"/>
+      <c r="BR67" s="48"/>
+      <c r="BS67" s="48"/>
+      <c r="BT67" s="48"/>
+      <c r="BU67" s="48"/>
+      <c r="BV67" s="48"/>
+      <c r="BW67" s="48"/>
+      <c r="BX67" s="48"/>
+      <c r="BY67" s="48"/>
+      <c r="BZ67" s="48"/>
+      <c r="CA67" s="48"/>
+      <c r="CB67" s="48"/>
+      <c r="CC67" s="48"/>
+      <c r="CD67" s="49"/>
     </row>
     <row r="68" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="I68" s="54"/>
-      <c r="J68" s="55"/>
-      <c r="K68" s="55"/>
-      <c r="L68" s="55"/>
-      <c r="M68" s="55"/>
-      <c r="N68" s="55"/>
-      <c r="O68" s="55"/>
-      <c r="P68" s="55"/>
-      <c r="Q68" s="55"/>
-      <c r="R68" s="55"/>
-      <c r="S68" s="55"/>
-      <c r="T68" s="55"/>
-      <c r="U68" s="55"/>
-      <c r="V68" s="55"/>
-      <c r="W68" s="55"/>
-      <c r="X68" s="55"/>
-      <c r="Y68" s="55"/>
-      <c r="Z68" s="55"/>
-      <c r="AA68" s="55"/>
-      <c r="AB68" s="55"/>
-      <c r="AC68" s="55"/>
-      <c r="AD68" s="55"/>
-      <c r="AE68" s="55"/>
-      <c r="AF68" s="55"/>
-      <c r="AG68" s="55"/>
-      <c r="AH68" s="55"/>
-      <c r="AI68" s="55"/>
-      <c r="AJ68" s="55"/>
-      <c r="AK68" s="55"/>
-      <c r="AL68" s="55"/>
-      <c r="AM68" s="55"/>
-      <c r="AN68" s="55"/>
-      <c r="AO68" s="55"/>
-      <c r="AP68" s="55"/>
-      <c r="AQ68" s="55"/>
-      <c r="AR68" s="55"/>
-      <c r="AS68" s="55"/>
-      <c r="AT68" s="55"/>
-      <c r="AU68" s="55"/>
-      <c r="AV68" s="55"/>
-      <c r="AW68" s="55"/>
-      <c r="AX68" s="55"/>
-      <c r="AY68" s="55"/>
-      <c r="AZ68" s="55"/>
-      <c r="BA68" s="55"/>
-      <c r="BB68" s="55"/>
-      <c r="BC68" s="55"/>
-      <c r="BD68" s="55"/>
-      <c r="BE68" s="55"/>
-      <c r="BF68" s="55"/>
-      <c r="BG68" s="55"/>
-      <c r="BH68" s="55"/>
-      <c r="BI68" s="55"/>
-      <c r="BJ68" s="55"/>
-      <c r="BK68" s="55"/>
-      <c r="BL68" s="55"/>
-      <c r="BM68" s="55"/>
-      <c r="BN68" s="55"/>
-      <c r="BO68" s="55"/>
-      <c r="BP68" s="55"/>
-      <c r="BQ68" s="55"/>
-      <c r="BR68" s="55"/>
-      <c r="BS68" s="55"/>
-      <c r="BT68" s="55"/>
-      <c r="BU68" s="55"/>
-      <c r="BV68" s="55"/>
-      <c r="BW68" s="55"/>
-      <c r="BX68" s="55"/>
-      <c r="BY68" s="55"/>
-      <c r="BZ68" s="55"/>
-      <c r="CA68" s="55"/>
-      <c r="CB68" s="55"/>
-      <c r="CC68" s="55"/>
-      <c r="CD68" s="56"/>
+      <c r="I68" s="50"/>
+      <c r="J68" s="51"/>
+      <c r="K68" s="51"/>
+      <c r="L68" s="51"/>
+      <c r="M68" s="51"/>
+      <c r="N68" s="51"/>
+      <c r="O68" s="51"/>
+      <c r="P68" s="51"/>
+      <c r="Q68" s="51"/>
+      <c r="R68" s="51"/>
+      <c r="S68" s="51"/>
+      <c r="T68" s="51"/>
+      <c r="U68" s="51"/>
+      <c r="V68" s="51"/>
+      <c r="W68" s="51"/>
+      <c r="X68" s="51"/>
+      <c r="Y68" s="51"/>
+      <c r="Z68" s="51"/>
+      <c r="AA68" s="51"/>
+      <c r="AB68" s="51"/>
+      <c r="AC68" s="51"/>
+      <c r="AD68" s="51"/>
+      <c r="AE68" s="51"/>
+      <c r="AF68" s="51"/>
+      <c r="AG68" s="51"/>
+      <c r="AH68" s="51"/>
+      <c r="AI68" s="51"/>
+      <c r="AJ68" s="51"/>
+      <c r="AK68" s="51"/>
+      <c r="AL68" s="51"/>
+      <c r="AM68" s="51"/>
+      <c r="AN68" s="51"/>
+      <c r="AO68" s="51"/>
+      <c r="AP68" s="51"/>
+      <c r="AQ68" s="51"/>
+      <c r="AR68" s="51"/>
+      <c r="AS68" s="51"/>
+      <c r="AT68" s="51"/>
+      <c r="AU68" s="51"/>
+      <c r="AV68" s="51"/>
+      <c r="AW68" s="51"/>
+      <c r="AX68" s="51"/>
+      <c r="AY68" s="51"/>
+      <c r="AZ68" s="51"/>
+      <c r="BA68" s="51"/>
+      <c r="BB68" s="51"/>
+      <c r="BC68" s="51"/>
+      <c r="BD68" s="51"/>
+      <c r="BE68" s="51"/>
+      <c r="BF68" s="51"/>
+      <c r="BG68" s="51"/>
+      <c r="BH68" s="51"/>
+      <c r="BI68" s="51"/>
+      <c r="BJ68" s="51"/>
+      <c r="BK68" s="51"/>
+      <c r="BL68" s="51"/>
+      <c r="BM68" s="51"/>
+      <c r="BN68" s="51"/>
+      <c r="BO68" s="51"/>
+      <c r="BP68" s="51"/>
+      <c r="BQ68" s="51"/>
+      <c r="BR68" s="51"/>
+      <c r="BS68" s="51"/>
+      <c r="BT68" s="51"/>
+      <c r="BU68" s="51"/>
+      <c r="BV68" s="51"/>
+      <c r="BW68" s="51"/>
+      <c r="BX68" s="51"/>
+      <c r="BY68" s="51"/>
+      <c r="BZ68" s="51"/>
+      <c r="CA68" s="51"/>
+      <c r="CB68" s="51"/>
+      <c r="CC68" s="51"/>
+      <c r="CD68" s="52"/>
     </row>
     <row r="69" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="I69" s="47" t="s">
+      <c r="I69" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="J69" s="47"/>
-      <c r="K69" s="47"/>
-      <c r="L69" s="47"/>
-      <c r="M69" s="47"/>
-      <c r="N69" s="47"/>
-      <c r="O69" s="47"/>
-      <c r="P69" s="47"/>
-      <c r="Q69" s="47"/>
-      <c r="R69" s="47"/>
-      <c r="S69" s="47"/>
-      <c r="T69" s="47"/>
-      <c r="U69" s="47"/>
-      <c r="V69" s="47" t="s">
+      <c r="J69" s="53"/>
+      <c r="K69" s="53"/>
+      <c r="L69" s="53"/>
+      <c r="M69" s="53"/>
+      <c r="N69" s="53"/>
+      <c r="O69" s="53"/>
+      <c r="P69" s="53"/>
+      <c r="Q69" s="53"/>
+      <c r="R69" s="53"/>
+      <c r="S69" s="53"/>
+      <c r="T69" s="53"/>
+      <c r="U69" s="53"/>
+      <c r="V69" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="W69" s="47"/>
-      <c r="X69" s="47"/>
-      <c r="Y69" s="47"/>
-      <c r="Z69" s="47"/>
-      <c r="AA69" s="47"/>
-      <c r="AB69" s="47"/>
-      <c r="AC69" s="47"/>
-      <c r="AD69" s="47"/>
-      <c r="AE69" s="47"/>
-      <c r="AF69" s="47"/>
-      <c r="AG69" s="47"/>
-      <c r="AH69" s="47"/>
-      <c r="AI69" s="47"/>
-      <c r="AJ69" s="47"/>
-      <c r="AK69" s="47"/>
-      <c r="AL69" s="47"/>
-      <c r="AM69" s="47"/>
-      <c r="AN69" s="47"/>
-      <c r="AO69" s="47"/>
-      <c r="AP69" s="47"/>
-      <c r="AQ69" s="47"/>
-      <c r="AR69" s="47"/>
-      <c r="AS69" s="47"/>
-      <c r="AT69" s="47"/>
-      <c r="AU69" s="47"/>
-      <c r="AV69" s="47"/>
-      <c r="AW69" s="47"/>
-      <c r="AX69" s="47" t="s">
-        <v>59</v>
-      </c>
-      <c r="AY69" s="47"/>
-      <c r="AZ69" s="47"/>
-      <c r="BA69" s="47"/>
-      <c r="BB69" s="47"/>
-      <c r="BC69" s="47"/>
-      <c r="BD69" s="47"/>
-      <c r="BE69" s="47"/>
-      <c r="BF69" s="47"/>
-      <c r="BG69" s="47"/>
-      <c r="BH69" s="47"/>
-      <c r="BI69" s="47"/>
-      <c r="BJ69" s="47" t="s">
+      <c r="W69" s="53"/>
+      <c r="X69" s="53"/>
+      <c r="Y69" s="53"/>
+      <c r="Z69" s="53"/>
+      <c r="AA69" s="53"/>
+      <c r="AB69" s="53"/>
+      <c r="AC69" s="53"/>
+      <c r="AD69" s="53"/>
+      <c r="AE69" s="53"/>
+      <c r="AF69" s="53"/>
+      <c r="AG69" s="53"/>
+      <c r="AH69" s="53"/>
+      <c r="AI69" s="53"/>
+      <c r="AJ69" s="53"/>
+      <c r="AK69" s="53"/>
+      <c r="AL69" s="53"/>
+      <c r="AM69" s="53"/>
+      <c r="AN69" s="53"/>
+      <c r="AO69" s="53"/>
+      <c r="AP69" s="53"/>
+      <c r="AQ69" s="53"/>
+      <c r="AR69" s="53"/>
+      <c r="AS69" s="53"/>
+      <c r="AT69" s="53"/>
+      <c r="AU69" s="53"/>
+      <c r="AV69" s="53"/>
+      <c r="AW69" s="53"/>
+      <c r="AX69" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY69" s="53"/>
+      <c r="AZ69" s="53"/>
+      <c r="BA69" s="53"/>
+      <c r="BB69" s="53"/>
+      <c r="BC69" s="53"/>
+      <c r="BD69" s="53"/>
+      <c r="BE69" s="53"/>
+      <c r="BF69" s="53"/>
+      <c r="BG69" s="53"/>
+      <c r="BH69" s="53"/>
+      <c r="BI69" s="53"/>
+      <c r="BJ69" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="BK69" s="47"/>
-      <c r="BL69" s="47"/>
-      <c r="BM69" s="47"/>
-      <c r="BN69" s="47"/>
-      <c r="BO69" s="47"/>
-      <c r="BP69" s="47" t="s">
+      <c r="BK69" s="53"/>
+      <c r="BL69" s="53"/>
+      <c r="BM69" s="53"/>
+      <c r="BN69" s="53"/>
+      <c r="BO69" s="53"/>
+      <c r="BP69" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="BQ69" s="47"/>
-      <c r="BR69" s="47"/>
-      <c r="BS69" s="47"/>
-      <c r="BT69" s="47"/>
-      <c r="BU69" s="47"/>
-      <c r="BV69" s="47"/>
-      <c r="BW69" s="47"/>
-      <c r="BX69" s="47"/>
-      <c r="BY69" s="47"/>
-      <c r="BZ69" s="47"/>
-      <c r="CA69" s="47"/>
-      <c r="CB69" s="47"/>
-      <c r="CC69" s="47"/>
-      <c r="CD69" s="47"/>
+      <c r="BQ69" s="53"/>
+      <c r="BR69" s="53"/>
+      <c r="BS69" s="53"/>
+      <c r="BT69" s="53"/>
+      <c r="BU69" s="53"/>
+      <c r="BV69" s="53"/>
+      <c r="BW69" s="53"/>
+      <c r="BX69" s="53"/>
+      <c r="BY69" s="53"/>
+      <c r="BZ69" s="53"/>
+      <c r="CA69" s="53"/>
+      <c r="CB69" s="53"/>
+      <c r="CC69" s="53"/>
+      <c r="CD69" s="53"/>
     </row>
     <row r="70" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I70" s="37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J70" s="37"/>
       <c r="K70" s="37"/>
@@ -11312,7 +11308,7 @@
       <c r="T70" s="37"/>
       <c r="U70" s="37"/>
       <c r="V70" s="37" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W70" s="37"/>
       <c r="X70" s="37"/>
@@ -11342,7 +11338,7 @@
       <c r="AV70" s="37"/>
       <c r="AW70" s="37"/>
       <c r="AX70" s="37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AY70" s="37"/>
       <c r="AZ70" s="37"/>
@@ -11535,7 +11531,7 @@
     </row>
     <row r="73" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I73" s="36" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J73" s="36"/>
       <c r="K73" s="36"/>
@@ -11689,7 +11685,7 @@
     </row>
     <row r="75" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I75" s="36" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J75" s="36"/>
       <c r="K75" s="36"/>
@@ -11919,248 +11915,248 @@
     </row>
     <row r="80" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="81" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="I81" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="J81" s="52"/>
-      <c r="K81" s="52"/>
-      <c r="L81" s="52"/>
-      <c r="M81" s="52"/>
-      <c r="N81" s="52"/>
-      <c r="O81" s="52"/>
-      <c r="P81" s="52"/>
-      <c r="Q81" s="52"/>
-      <c r="R81" s="52"/>
-      <c r="S81" s="52"/>
-      <c r="T81" s="52"/>
-      <c r="U81" s="52"/>
-      <c r="V81" s="52"/>
-      <c r="W81" s="52"/>
-      <c r="X81" s="52"/>
-      <c r="Y81" s="52"/>
-      <c r="Z81" s="52"/>
-      <c r="AA81" s="52"/>
-      <c r="AB81" s="52"/>
-      <c r="AC81" s="52"/>
-      <c r="AD81" s="52"/>
-      <c r="AE81" s="52"/>
-      <c r="AF81" s="52"/>
-      <c r="AG81" s="52"/>
-      <c r="AH81" s="52"/>
-      <c r="AI81" s="52"/>
-      <c r="AJ81" s="52"/>
-      <c r="AK81" s="52"/>
-      <c r="AL81" s="52"/>
-      <c r="AM81" s="52"/>
-      <c r="AN81" s="52"/>
-      <c r="AO81" s="52"/>
-      <c r="AP81" s="52"/>
-      <c r="AQ81" s="52"/>
-      <c r="AR81" s="52"/>
-      <c r="AS81" s="52"/>
-      <c r="AT81" s="52"/>
-      <c r="AU81" s="52"/>
-      <c r="AV81" s="52"/>
-      <c r="AW81" s="52"/>
-      <c r="AX81" s="52"/>
-      <c r="AY81" s="52"/>
-      <c r="AZ81" s="52"/>
-      <c r="BA81" s="52"/>
-      <c r="BB81" s="52"/>
-      <c r="BC81" s="52"/>
-      <c r="BD81" s="52"/>
-      <c r="BE81" s="52"/>
-      <c r="BF81" s="52"/>
-      <c r="BG81" s="52"/>
-      <c r="BH81" s="52"/>
-      <c r="BI81" s="52"/>
-      <c r="BJ81" s="52"/>
-      <c r="BK81" s="52"/>
-      <c r="BL81" s="52"/>
-      <c r="BM81" s="52"/>
-      <c r="BN81" s="52"/>
-      <c r="BO81" s="52"/>
-      <c r="BP81" s="52"/>
-      <c r="BQ81" s="52"/>
-      <c r="BR81" s="52"/>
-      <c r="BS81" s="52"/>
-      <c r="BT81" s="52"/>
-      <c r="BU81" s="52"/>
-      <c r="BV81" s="52"/>
-      <c r="BW81" s="52"/>
-      <c r="BX81" s="52"/>
-      <c r="BY81" s="52"/>
-      <c r="BZ81" s="52"/>
-      <c r="CA81" s="52"/>
-      <c r="CB81" s="52"/>
-      <c r="CC81" s="52"/>
-      <c r="CD81" s="53"/>
+      <c r="I81" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="J81" s="48"/>
+      <c r="K81" s="48"/>
+      <c r="L81" s="48"/>
+      <c r="M81" s="48"/>
+      <c r="N81" s="48"/>
+      <c r="O81" s="48"/>
+      <c r="P81" s="48"/>
+      <c r="Q81" s="48"/>
+      <c r="R81" s="48"/>
+      <c r="S81" s="48"/>
+      <c r="T81" s="48"/>
+      <c r="U81" s="48"/>
+      <c r="V81" s="48"/>
+      <c r="W81" s="48"/>
+      <c r="X81" s="48"/>
+      <c r="Y81" s="48"/>
+      <c r="Z81" s="48"/>
+      <c r="AA81" s="48"/>
+      <c r="AB81" s="48"/>
+      <c r="AC81" s="48"/>
+      <c r="AD81" s="48"/>
+      <c r="AE81" s="48"/>
+      <c r="AF81" s="48"/>
+      <c r="AG81" s="48"/>
+      <c r="AH81" s="48"/>
+      <c r="AI81" s="48"/>
+      <c r="AJ81" s="48"/>
+      <c r="AK81" s="48"/>
+      <c r="AL81" s="48"/>
+      <c r="AM81" s="48"/>
+      <c r="AN81" s="48"/>
+      <c r="AO81" s="48"/>
+      <c r="AP81" s="48"/>
+      <c r="AQ81" s="48"/>
+      <c r="AR81" s="48"/>
+      <c r="AS81" s="48"/>
+      <c r="AT81" s="48"/>
+      <c r="AU81" s="48"/>
+      <c r="AV81" s="48"/>
+      <c r="AW81" s="48"/>
+      <c r="AX81" s="48"/>
+      <c r="AY81" s="48"/>
+      <c r="AZ81" s="48"/>
+      <c r="BA81" s="48"/>
+      <c r="BB81" s="48"/>
+      <c r="BC81" s="48"/>
+      <c r="BD81" s="48"/>
+      <c r="BE81" s="48"/>
+      <c r="BF81" s="48"/>
+      <c r="BG81" s="48"/>
+      <c r="BH81" s="48"/>
+      <c r="BI81" s="48"/>
+      <c r="BJ81" s="48"/>
+      <c r="BK81" s="48"/>
+      <c r="BL81" s="48"/>
+      <c r="BM81" s="48"/>
+      <c r="BN81" s="48"/>
+      <c r="BO81" s="48"/>
+      <c r="BP81" s="48"/>
+      <c r="BQ81" s="48"/>
+      <c r="BR81" s="48"/>
+      <c r="BS81" s="48"/>
+      <c r="BT81" s="48"/>
+      <c r="BU81" s="48"/>
+      <c r="BV81" s="48"/>
+      <c r="BW81" s="48"/>
+      <c r="BX81" s="48"/>
+      <c r="BY81" s="48"/>
+      <c r="BZ81" s="48"/>
+      <c r="CA81" s="48"/>
+      <c r="CB81" s="48"/>
+      <c r="CC81" s="48"/>
+      <c r="CD81" s="49"/>
     </row>
     <row r="82" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="I82" s="54"/>
-      <c r="J82" s="55"/>
-      <c r="K82" s="55"/>
-      <c r="L82" s="55"/>
-      <c r="M82" s="55"/>
-      <c r="N82" s="55"/>
-      <c r="O82" s="55"/>
-      <c r="P82" s="55"/>
-      <c r="Q82" s="55"/>
-      <c r="R82" s="55"/>
-      <c r="S82" s="55"/>
-      <c r="T82" s="55"/>
-      <c r="U82" s="55"/>
-      <c r="V82" s="55"/>
-      <c r="W82" s="55"/>
-      <c r="X82" s="55"/>
-      <c r="Y82" s="55"/>
-      <c r="Z82" s="55"/>
-      <c r="AA82" s="55"/>
-      <c r="AB82" s="55"/>
-      <c r="AC82" s="55"/>
-      <c r="AD82" s="55"/>
-      <c r="AE82" s="55"/>
-      <c r="AF82" s="55"/>
-      <c r="AG82" s="55"/>
-      <c r="AH82" s="55"/>
-      <c r="AI82" s="55"/>
-      <c r="AJ82" s="55"/>
-      <c r="AK82" s="55"/>
-      <c r="AL82" s="55"/>
-      <c r="AM82" s="55"/>
-      <c r="AN82" s="55"/>
-      <c r="AO82" s="55"/>
-      <c r="AP82" s="55"/>
-      <c r="AQ82" s="55"/>
-      <c r="AR82" s="55"/>
-      <c r="AS82" s="55"/>
-      <c r="AT82" s="55"/>
-      <c r="AU82" s="55"/>
-      <c r="AV82" s="55"/>
-      <c r="AW82" s="55"/>
-      <c r="AX82" s="55"/>
-      <c r="AY82" s="55"/>
-      <c r="AZ82" s="55"/>
-      <c r="BA82" s="55"/>
-      <c r="BB82" s="55"/>
-      <c r="BC82" s="55"/>
-      <c r="BD82" s="55"/>
-      <c r="BE82" s="55"/>
-      <c r="BF82" s="55"/>
-      <c r="BG82" s="55"/>
-      <c r="BH82" s="55"/>
-      <c r="BI82" s="55"/>
-      <c r="BJ82" s="55"/>
-      <c r="BK82" s="55"/>
-      <c r="BL82" s="55"/>
-      <c r="BM82" s="55"/>
-      <c r="BN82" s="55"/>
-      <c r="BO82" s="55"/>
-      <c r="BP82" s="55"/>
-      <c r="BQ82" s="55"/>
-      <c r="BR82" s="55"/>
-      <c r="BS82" s="55"/>
-      <c r="BT82" s="55"/>
-      <c r="BU82" s="55"/>
-      <c r="BV82" s="55"/>
-      <c r="BW82" s="55"/>
-      <c r="BX82" s="55"/>
-      <c r="BY82" s="55"/>
-      <c r="BZ82" s="55"/>
-      <c r="CA82" s="55"/>
-      <c r="CB82" s="55"/>
-      <c r="CC82" s="55"/>
-      <c r="CD82" s="56"/>
+      <c r="I82" s="50"/>
+      <c r="J82" s="51"/>
+      <c r="K82" s="51"/>
+      <c r="L82" s="51"/>
+      <c r="M82" s="51"/>
+      <c r="N82" s="51"/>
+      <c r="O82" s="51"/>
+      <c r="P82" s="51"/>
+      <c r="Q82" s="51"/>
+      <c r="R82" s="51"/>
+      <c r="S82" s="51"/>
+      <c r="T82" s="51"/>
+      <c r="U82" s="51"/>
+      <c r="V82" s="51"/>
+      <c r="W82" s="51"/>
+      <c r="X82" s="51"/>
+      <c r="Y82" s="51"/>
+      <c r="Z82" s="51"/>
+      <c r="AA82" s="51"/>
+      <c r="AB82" s="51"/>
+      <c r="AC82" s="51"/>
+      <c r="AD82" s="51"/>
+      <c r="AE82" s="51"/>
+      <c r="AF82" s="51"/>
+      <c r="AG82" s="51"/>
+      <c r="AH82" s="51"/>
+      <c r="AI82" s="51"/>
+      <c r="AJ82" s="51"/>
+      <c r="AK82" s="51"/>
+      <c r="AL82" s="51"/>
+      <c r="AM82" s="51"/>
+      <c r="AN82" s="51"/>
+      <c r="AO82" s="51"/>
+      <c r="AP82" s="51"/>
+      <c r="AQ82" s="51"/>
+      <c r="AR82" s="51"/>
+      <c r="AS82" s="51"/>
+      <c r="AT82" s="51"/>
+      <c r="AU82" s="51"/>
+      <c r="AV82" s="51"/>
+      <c r="AW82" s="51"/>
+      <c r="AX82" s="51"/>
+      <c r="AY82" s="51"/>
+      <c r="AZ82" s="51"/>
+      <c r="BA82" s="51"/>
+      <c r="BB82" s="51"/>
+      <c r="BC82" s="51"/>
+      <c r="BD82" s="51"/>
+      <c r="BE82" s="51"/>
+      <c r="BF82" s="51"/>
+      <c r="BG82" s="51"/>
+      <c r="BH82" s="51"/>
+      <c r="BI82" s="51"/>
+      <c r="BJ82" s="51"/>
+      <c r="BK82" s="51"/>
+      <c r="BL82" s="51"/>
+      <c r="BM82" s="51"/>
+      <c r="BN82" s="51"/>
+      <c r="BO82" s="51"/>
+      <c r="BP82" s="51"/>
+      <c r="BQ82" s="51"/>
+      <c r="BR82" s="51"/>
+      <c r="BS82" s="51"/>
+      <c r="BT82" s="51"/>
+      <c r="BU82" s="51"/>
+      <c r="BV82" s="51"/>
+      <c r="BW82" s="51"/>
+      <c r="BX82" s="51"/>
+      <c r="BY82" s="51"/>
+      <c r="BZ82" s="51"/>
+      <c r="CA82" s="51"/>
+      <c r="CB82" s="51"/>
+      <c r="CC82" s="51"/>
+      <c r="CD82" s="52"/>
     </row>
     <row r="83" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="I83" s="47" t="s">
+      <c r="I83" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="J83" s="47"/>
-      <c r="K83" s="47"/>
-      <c r="L83" s="47"/>
-      <c r="M83" s="47"/>
-      <c r="N83" s="47"/>
-      <c r="O83" s="47"/>
-      <c r="P83" s="47"/>
-      <c r="Q83" s="47"/>
-      <c r="R83" s="47"/>
-      <c r="S83" s="47"/>
-      <c r="T83" s="47"/>
-      <c r="U83" s="47"/>
-      <c r="V83" s="47" t="s">
+      <c r="J83" s="53"/>
+      <c r="K83" s="53"/>
+      <c r="L83" s="53"/>
+      <c r="M83" s="53"/>
+      <c r="N83" s="53"/>
+      <c r="O83" s="53"/>
+      <c r="P83" s="53"/>
+      <c r="Q83" s="53"/>
+      <c r="R83" s="53"/>
+      <c r="S83" s="53"/>
+      <c r="T83" s="53"/>
+      <c r="U83" s="53"/>
+      <c r="V83" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="W83" s="47"/>
-      <c r="X83" s="47"/>
-      <c r="Y83" s="47"/>
-      <c r="Z83" s="47"/>
-      <c r="AA83" s="47"/>
-      <c r="AB83" s="47"/>
-      <c r="AC83" s="47"/>
-      <c r="AD83" s="47"/>
-      <c r="AE83" s="47"/>
-      <c r="AF83" s="47"/>
-      <c r="AG83" s="47"/>
-      <c r="AH83" s="47"/>
-      <c r="AI83" s="47"/>
-      <c r="AJ83" s="47"/>
-      <c r="AK83" s="47"/>
-      <c r="AL83" s="47"/>
-      <c r="AM83" s="47"/>
-      <c r="AN83" s="47"/>
-      <c r="AO83" s="47"/>
-      <c r="AP83" s="47"/>
-      <c r="AQ83" s="47"/>
-      <c r="AR83" s="47"/>
-      <c r="AS83" s="47"/>
-      <c r="AT83" s="47"/>
-      <c r="AU83" s="47"/>
-      <c r="AV83" s="47"/>
-      <c r="AW83" s="47"/>
-      <c r="AX83" s="47" t="s">
-        <v>59</v>
-      </c>
-      <c r="AY83" s="47"/>
-      <c r="AZ83" s="47"/>
-      <c r="BA83" s="47"/>
-      <c r="BB83" s="47"/>
-      <c r="BC83" s="47"/>
-      <c r="BD83" s="47"/>
-      <c r="BE83" s="47"/>
-      <c r="BF83" s="47"/>
-      <c r="BG83" s="47"/>
-      <c r="BH83" s="47"/>
-      <c r="BI83" s="47"/>
-      <c r="BJ83" s="47" t="s">
+      <c r="W83" s="53"/>
+      <c r="X83" s="53"/>
+      <c r="Y83" s="53"/>
+      <c r="Z83" s="53"/>
+      <c r="AA83" s="53"/>
+      <c r="AB83" s="53"/>
+      <c r="AC83" s="53"/>
+      <c r="AD83" s="53"/>
+      <c r="AE83" s="53"/>
+      <c r="AF83" s="53"/>
+      <c r="AG83" s="53"/>
+      <c r="AH83" s="53"/>
+      <c r="AI83" s="53"/>
+      <c r="AJ83" s="53"/>
+      <c r="AK83" s="53"/>
+      <c r="AL83" s="53"/>
+      <c r="AM83" s="53"/>
+      <c r="AN83" s="53"/>
+      <c r="AO83" s="53"/>
+      <c r="AP83" s="53"/>
+      <c r="AQ83" s="53"/>
+      <c r="AR83" s="53"/>
+      <c r="AS83" s="53"/>
+      <c r="AT83" s="53"/>
+      <c r="AU83" s="53"/>
+      <c r="AV83" s="53"/>
+      <c r="AW83" s="53"/>
+      <c r="AX83" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY83" s="53"/>
+      <c r="AZ83" s="53"/>
+      <c r="BA83" s="53"/>
+      <c r="BB83" s="53"/>
+      <c r="BC83" s="53"/>
+      <c r="BD83" s="53"/>
+      <c r="BE83" s="53"/>
+      <c r="BF83" s="53"/>
+      <c r="BG83" s="53"/>
+      <c r="BH83" s="53"/>
+      <c r="BI83" s="53"/>
+      <c r="BJ83" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="BK83" s="47"/>
-      <c r="BL83" s="47"/>
-      <c r="BM83" s="47"/>
-      <c r="BN83" s="47"/>
-      <c r="BO83" s="47"/>
-      <c r="BP83" s="47" t="s">
+      <c r="BK83" s="53"/>
+      <c r="BL83" s="53"/>
+      <c r="BM83" s="53"/>
+      <c r="BN83" s="53"/>
+      <c r="BO83" s="53"/>
+      <c r="BP83" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="BQ83" s="47"/>
-      <c r="BR83" s="47"/>
-      <c r="BS83" s="47"/>
-      <c r="BT83" s="47"/>
-      <c r="BU83" s="47"/>
-      <c r="BV83" s="47"/>
-      <c r="BW83" s="47"/>
-      <c r="BX83" s="47"/>
-      <c r="BY83" s="47"/>
-      <c r="BZ83" s="47"/>
-      <c r="CA83" s="47"/>
-      <c r="CB83" s="47"/>
-      <c r="CC83" s="47"/>
-      <c r="CD83" s="47"/>
+      <c r="BQ83" s="53"/>
+      <c r="BR83" s="53"/>
+      <c r="BS83" s="53"/>
+      <c r="BT83" s="53"/>
+      <c r="BU83" s="53"/>
+      <c r="BV83" s="53"/>
+      <c r="BW83" s="53"/>
+      <c r="BX83" s="53"/>
+      <c r="BY83" s="53"/>
+      <c r="BZ83" s="53"/>
+      <c r="CA83" s="53"/>
+      <c r="CB83" s="53"/>
+      <c r="CC83" s="53"/>
+      <c r="CD83" s="53"/>
     </row>
     <row r="84" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I84" s="37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J84" s="37"/>
       <c r="K84" s="37"/>
@@ -12175,7 +12171,7 @@
       <c r="T84" s="37"/>
       <c r="U84" s="37"/>
       <c r="V84" s="37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="W84" s="37"/>
       <c r="X84" s="37"/>
@@ -12205,7 +12201,7 @@
       <c r="AV84" s="37"/>
       <c r="AW84" s="37"/>
       <c r="AX84" s="37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AY84" s="37"/>
       <c r="AZ84" s="37"/>
@@ -12398,7 +12394,7 @@
     </row>
     <row r="87" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I87" s="36" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J87" s="36"/>
       <c r="K87" s="36"/>
@@ -12552,7 +12548,7 @@
     </row>
     <row r="89" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I89" s="36" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J89" s="36"/>
       <c r="K89" s="36"/>
@@ -12782,248 +12778,248 @@
     </row>
     <row r="94" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="95" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="I95" s="51" t="s">
-        <v>75</v>
-      </c>
-      <c r="J95" s="52"/>
-      <c r="K95" s="52"/>
-      <c r="L95" s="52"/>
-      <c r="M95" s="52"/>
-      <c r="N95" s="52"/>
-      <c r="O95" s="52"/>
-      <c r="P95" s="52"/>
-      <c r="Q95" s="52"/>
-      <c r="R95" s="52"/>
-      <c r="S95" s="52"/>
-      <c r="T95" s="52"/>
-      <c r="U95" s="52"/>
-      <c r="V95" s="52"/>
-      <c r="W95" s="52"/>
-      <c r="X95" s="52"/>
-      <c r="Y95" s="52"/>
-      <c r="Z95" s="52"/>
-      <c r="AA95" s="52"/>
-      <c r="AB95" s="52"/>
-      <c r="AC95" s="52"/>
-      <c r="AD95" s="52"/>
-      <c r="AE95" s="52"/>
-      <c r="AF95" s="52"/>
-      <c r="AG95" s="52"/>
-      <c r="AH95" s="52"/>
-      <c r="AI95" s="52"/>
-      <c r="AJ95" s="52"/>
-      <c r="AK95" s="52"/>
-      <c r="AL95" s="52"/>
-      <c r="AM95" s="52"/>
-      <c r="AN95" s="52"/>
-      <c r="AO95" s="52"/>
-      <c r="AP95" s="52"/>
-      <c r="AQ95" s="52"/>
-      <c r="AR95" s="52"/>
-      <c r="AS95" s="52"/>
-      <c r="AT95" s="52"/>
-      <c r="AU95" s="52"/>
-      <c r="AV95" s="52"/>
-      <c r="AW95" s="52"/>
-      <c r="AX95" s="52"/>
-      <c r="AY95" s="52"/>
-      <c r="AZ95" s="52"/>
-      <c r="BA95" s="52"/>
-      <c r="BB95" s="52"/>
-      <c r="BC95" s="52"/>
-      <c r="BD95" s="52"/>
-      <c r="BE95" s="52"/>
-      <c r="BF95" s="52"/>
-      <c r="BG95" s="52"/>
-      <c r="BH95" s="52"/>
-      <c r="BI95" s="52"/>
-      <c r="BJ95" s="52"/>
-      <c r="BK95" s="52"/>
-      <c r="BL95" s="52"/>
-      <c r="BM95" s="52"/>
-      <c r="BN95" s="52"/>
-      <c r="BO95" s="52"/>
-      <c r="BP95" s="52"/>
-      <c r="BQ95" s="52"/>
-      <c r="BR95" s="52"/>
-      <c r="BS95" s="52"/>
-      <c r="BT95" s="52"/>
-      <c r="BU95" s="52"/>
-      <c r="BV95" s="52"/>
-      <c r="BW95" s="52"/>
-      <c r="BX95" s="52"/>
-      <c r="BY95" s="52"/>
-      <c r="BZ95" s="52"/>
-      <c r="CA95" s="52"/>
-      <c r="CB95" s="52"/>
-      <c r="CC95" s="52"/>
-      <c r="CD95" s="53"/>
+      <c r="I95" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="J95" s="48"/>
+      <c r="K95" s="48"/>
+      <c r="L95" s="48"/>
+      <c r="M95" s="48"/>
+      <c r="N95" s="48"/>
+      <c r="O95" s="48"/>
+      <c r="P95" s="48"/>
+      <c r="Q95" s="48"/>
+      <c r="R95" s="48"/>
+      <c r="S95" s="48"/>
+      <c r="T95" s="48"/>
+      <c r="U95" s="48"/>
+      <c r="V95" s="48"/>
+      <c r="W95" s="48"/>
+      <c r="X95" s="48"/>
+      <c r="Y95" s="48"/>
+      <c r="Z95" s="48"/>
+      <c r="AA95" s="48"/>
+      <c r="AB95" s="48"/>
+      <c r="AC95" s="48"/>
+      <c r="AD95" s="48"/>
+      <c r="AE95" s="48"/>
+      <c r="AF95" s="48"/>
+      <c r="AG95" s="48"/>
+      <c r="AH95" s="48"/>
+      <c r="AI95" s="48"/>
+      <c r="AJ95" s="48"/>
+      <c r="AK95" s="48"/>
+      <c r="AL95" s="48"/>
+      <c r="AM95" s="48"/>
+      <c r="AN95" s="48"/>
+      <c r="AO95" s="48"/>
+      <c r="AP95" s="48"/>
+      <c r="AQ95" s="48"/>
+      <c r="AR95" s="48"/>
+      <c r="AS95" s="48"/>
+      <c r="AT95" s="48"/>
+      <c r="AU95" s="48"/>
+      <c r="AV95" s="48"/>
+      <c r="AW95" s="48"/>
+      <c r="AX95" s="48"/>
+      <c r="AY95" s="48"/>
+      <c r="AZ95" s="48"/>
+      <c r="BA95" s="48"/>
+      <c r="BB95" s="48"/>
+      <c r="BC95" s="48"/>
+      <c r="BD95" s="48"/>
+      <c r="BE95" s="48"/>
+      <c r="BF95" s="48"/>
+      <c r="BG95" s="48"/>
+      <c r="BH95" s="48"/>
+      <c r="BI95" s="48"/>
+      <c r="BJ95" s="48"/>
+      <c r="BK95" s="48"/>
+      <c r="BL95" s="48"/>
+      <c r="BM95" s="48"/>
+      <c r="BN95" s="48"/>
+      <c r="BO95" s="48"/>
+      <c r="BP95" s="48"/>
+      <c r="BQ95" s="48"/>
+      <c r="BR95" s="48"/>
+      <c r="BS95" s="48"/>
+      <c r="BT95" s="48"/>
+      <c r="BU95" s="48"/>
+      <c r="BV95" s="48"/>
+      <c r="BW95" s="48"/>
+      <c r="BX95" s="48"/>
+      <c r="BY95" s="48"/>
+      <c r="BZ95" s="48"/>
+      <c r="CA95" s="48"/>
+      <c r="CB95" s="48"/>
+      <c r="CC95" s="48"/>
+      <c r="CD95" s="49"/>
     </row>
     <row r="96" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="I96" s="54"/>
-      <c r="J96" s="55"/>
-      <c r="K96" s="55"/>
-      <c r="L96" s="55"/>
-      <c r="M96" s="55"/>
-      <c r="N96" s="55"/>
-      <c r="O96" s="55"/>
-      <c r="P96" s="55"/>
-      <c r="Q96" s="55"/>
-      <c r="R96" s="55"/>
-      <c r="S96" s="55"/>
-      <c r="T96" s="55"/>
-      <c r="U96" s="55"/>
-      <c r="V96" s="55"/>
-      <c r="W96" s="55"/>
-      <c r="X96" s="55"/>
-      <c r="Y96" s="55"/>
-      <c r="Z96" s="55"/>
-      <c r="AA96" s="55"/>
-      <c r="AB96" s="55"/>
-      <c r="AC96" s="55"/>
-      <c r="AD96" s="55"/>
-      <c r="AE96" s="55"/>
-      <c r="AF96" s="55"/>
-      <c r="AG96" s="55"/>
-      <c r="AH96" s="55"/>
-      <c r="AI96" s="55"/>
-      <c r="AJ96" s="55"/>
-      <c r="AK96" s="55"/>
-      <c r="AL96" s="55"/>
-      <c r="AM96" s="55"/>
-      <c r="AN96" s="55"/>
-      <c r="AO96" s="55"/>
-      <c r="AP96" s="55"/>
-      <c r="AQ96" s="55"/>
-      <c r="AR96" s="55"/>
-      <c r="AS96" s="55"/>
-      <c r="AT96" s="55"/>
-      <c r="AU96" s="55"/>
-      <c r="AV96" s="55"/>
-      <c r="AW96" s="55"/>
-      <c r="AX96" s="55"/>
-      <c r="AY96" s="55"/>
-      <c r="AZ96" s="55"/>
-      <c r="BA96" s="55"/>
-      <c r="BB96" s="55"/>
-      <c r="BC96" s="55"/>
-      <c r="BD96" s="55"/>
-      <c r="BE96" s="55"/>
-      <c r="BF96" s="55"/>
-      <c r="BG96" s="55"/>
-      <c r="BH96" s="55"/>
-      <c r="BI96" s="55"/>
-      <c r="BJ96" s="55"/>
-      <c r="BK96" s="55"/>
-      <c r="BL96" s="55"/>
-      <c r="BM96" s="55"/>
-      <c r="BN96" s="55"/>
-      <c r="BO96" s="55"/>
-      <c r="BP96" s="55"/>
-      <c r="BQ96" s="55"/>
-      <c r="BR96" s="55"/>
-      <c r="BS96" s="55"/>
-      <c r="BT96" s="55"/>
-      <c r="BU96" s="55"/>
-      <c r="BV96" s="55"/>
-      <c r="BW96" s="55"/>
-      <c r="BX96" s="55"/>
-      <c r="BY96" s="55"/>
-      <c r="BZ96" s="55"/>
-      <c r="CA96" s="55"/>
-      <c r="CB96" s="55"/>
-      <c r="CC96" s="55"/>
-      <c r="CD96" s="56"/>
+      <c r="I96" s="50"/>
+      <c r="J96" s="51"/>
+      <c r="K96" s="51"/>
+      <c r="L96" s="51"/>
+      <c r="M96" s="51"/>
+      <c r="N96" s="51"/>
+      <c r="O96" s="51"/>
+      <c r="P96" s="51"/>
+      <c r="Q96" s="51"/>
+      <c r="R96" s="51"/>
+      <c r="S96" s="51"/>
+      <c r="T96" s="51"/>
+      <c r="U96" s="51"/>
+      <c r="V96" s="51"/>
+      <c r="W96" s="51"/>
+      <c r="X96" s="51"/>
+      <c r="Y96" s="51"/>
+      <c r="Z96" s="51"/>
+      <c r="AA96" s="51"/>
+      <c r="AB96" s="51"/>
+      <c r="AC96" s="51"/>
+      <c r="AD96" s="51"/>
+      <c r="AE96" s="51"/>
+      <c r="AF96" s="51"/>
+      <c r="AG96" s="51"/>
+      <c r="AH96" s="51"/>
+      <c r="AI96" s="51"/>
+      <c r="AJ96" s="51"/>
+      <c r="AK96" s="51"/>
+      <c r="AL96" s="51"/>
+      <c r="AM96" s="51"/>
+      <c r="AN96" s="51"/>
+      <c r="AO96" s="51"/>
+      <c r="AP96" s="51"/>
+      <c r="AQ96" s="51"/>
+      <c r="AR96" s="51"/>
+      <c r="AS96" s="51"/>
+      <c r="AT96" s="51"/>
+      <c r="AU96" s="51"/>
+      <c r="AV96" s="51"/>
+      <c r="AW96" s="51"/>
+      <c r="AX96" s="51"/>
+      <c r="AY96" s="51"/>
+      <c r="AZ96" s="51"/>
+      <c r="BA96" s="51"/>
+      <c r="BB96" s="51"/>
+      <c r="BC96" s="51"/>
+      <c r="BD96" s="51"/>
+      <c r="BE96" s="51"/>
+      <c r="BF96" s="51"/>
+      <c r="BG96" s="51"/>
+      <c r="BH96" s="51"/>
+      <c r="BI96" s="51"/>
+      <c r="BJ96" s="51"/>
+      <c r="BK96" s="51"/>
+      <c r="BL96" s="51"/>
+      <c r="BM96" s="51"/>
+      <c r="BN96" s="51"/>
+      <c r="BO96" s="51"/>
+      <c r="BP96" s="51"/>
+      <c r="BQ96" s="51"/>
+      <c r="BR96" s="51"/>
+      <c r="BS96" s="51"/>
+      <c r="BT96" s="51"/>
+      <c r="BU96" s="51"/>
+      <c r="BV96" s="51"/>
+      <c r="BW96" s="51"/>
+      <c r="BX96" s="51"/>
+      <c r="BY96" s="51"/>
+      <c r="BZ96" s="51"/>
+      <c r="CA96" s="51"/>
+      <c r="CB96" s="51"/>
+      <c r="CC96" s="51"/>
+      <c r="CD96" s="52"/>
     </row>
     <row r="97" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="I97" s="47" t="s">
+      <c r="I97" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="J97" s="47"/>
-      <c r="K97" s="47"/>
-      <c r="L97" s="47"/>
-      <c r="M97" s="47"/>
-      <c r="N97" s="47"/>
-      <c r="O97" s="47"/>
-      <c r="P97" s="47"/>
-      <c r="Q97" s="47"/>
-      <c r="R97" s="47"/>
-      <c r="S97" s="47"/>
-      <c r="T97" s="47"/>
-      <c r="U97" s="47"/>
-      <c r="V97" s="47" t="s">
+      <c r="J97" s="53"/>
+      <c r="K97" s="53"/>
+      <c r="L97" s="53"/>
+      <c r="M97" s="53"/>
+      <c r="N97" s="53"/>
+      <c r="O97" s="53"/>
+      <c r="P97" s="53"/>
+      <c r="Q97" s="53"/>
+      <c r="R97" s="53"/>
+      <c r="S97" s="53"/>
+      <c r="T97" s="53"/>
+      <c r="U97" s="53"/>
+      <c r="V97" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="W97" s="47"/>
-      <c r="X97" s="47"/>
-      <c r="Y97" s="47"/>
-      <c r="Z97" s="47"/>
-      <c r="AA97" s="47"/>
-      <c r="AB97" s="47"/>
-      <c r="AC97" s="47"/>
-      <c r="AD97" s="47"/>
-      <c r="AE97" s="47"/>
-      <c r="AF97" s="47"/>
-      <c r="AG97" s="47"/>
-      <c r="AH97" s="47"/>
-      <c r="AI97" s="47"/>
-      <c r="AJ97" s="47"/>
-      <c r="AK97" s="47"/>
-      <c r="AL97" s="47"/>
-      <c r="AM97" s="47"/>
-      <c r="AN97" s="47"/>
-      <c r="AO97" s="47"/>
-      <c r="AP97" s="47"/>
-      <c r="AQ97" s="47"/>
-      <c r="AR97" s="47"/>
-      <c r="AS97" s="47"/>
-      <c r="AT97" s="47"/>
-      <c r="AU97" s="47"/>
-      <c r="AV97" s="47"/>
-      <c r="AW97" s="47"/>
-      <c r="AX97" s="47" t="s">
-        <v>59</v>
-      </c>
-      <c r="AY97" s="47"/>
-      <c r="AZ97" s="47"/>
-      <c r="BA97" s="47"/>
-      <c r="BB97" s="47"/>
-      <c r="BC97" s="47"/>
-      <c r="BD97" s="47"/>
-      <c r="BE97" s="47"/>
-      <c r="BF97" s="47"/>
-      <c r="BG97" s="47"/>
-      <c r="BH97" s="47"/>
-      <c r="BI97" s="47"/>
-      <c r="BJ97" s="47" t="s">
+      <c r="W97" s="53"/>
+      <c r="X97" s="53"/>
+      <c r="Y97" s="53"/>
+      <c r="Z97" s="53"/>
+      <c r="AA97" s="53"/>
+      <c r="AB97" s="53"/>
+      <c r="AC97" s="53"/>
+      <c r="AD97" s="53"/>
+      <c r="AE97" s="53"/>
+      <c r="AF97" s="53"/>
+      <c r="AG97" s="53"/>
+      <c r="AH97" s="53"/>
+      <c r="AI97" s="53"/>
+      <c r="AJ97" s="53"/>
+      <c r="AK97" s="53"/>
+      <c r="AL97" s="53"/>
+      <c r="AM97" s="53"/>
+      <c r="AN97" s="53"/>
+      <c r="AO97" s="53"/>
+      <c r="AP97" s="53"/>
+      <c r="AQ97" s="53"/>
+      <c r="AR97" s="53"/>
+      <c r="AS97" s="53"/>
+      <c r="AT97" s="53"/>
+      <c r="AU97" s="53"/>
+      <c r="AV97" s="53"/>
+      <c r="AW97" s="53"/>
+      <c r="AX97" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY97" s="53"/>
+      <c r="AZ97" s="53"/>
+      <c r="BA97" s="53"/>
+      <c r="BB97" s="53"/>
+      <c r="BC97" s="53"/>
+      <c r="BD97" s="53"/>
+      <c r="BE97" s="53"/>
+      <c r="BF97" s="53"/>
+      <c r="BG97" s="53"/>
+      <c r="BH97" s="53"/>
+      <c r="BI97" s="53"/>
+      <c r="BJ97" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="BK97" s="47"/>
-      <c r="BL97" s="47"/>
-      <c r="BM97" s="47"/>
-      <c r="BN97" s="47"/>
-      <c r="BO97" s="47"/>
-      <c r="BP97" s="47" t="s">
+      <c r="BK97" s="53"/>
+      <c r="BL97" s="53"/>
+      <c r="BM97" s="53"/>
+      <c r="BN97" s="53"/>
+      <c r="BO97" s="53"/>
+      <c r="BP97" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="BQ97" s="47"/>
-      <c r="BR97" s="47"/>
-      <c r="BS97" s="47"/>
-      <c r="BT97" s="47"/>
-      <c r="BU97" s="47"/>
-      <c r="BV97" s="47"/>
-      <c r="BW97" s="47"/>
-      <c r="BX97" s="47"/>
-      <c r="BY97" s="47"/>
-      <c r="BZ97" s="47"/>
-      <c r="CA97" s="47"/>
-      <c r="CB97" s="47"/>
-      <c r="CC97" s="47"/>
-      <c r="CD97" s="47"/>
+      <c r="BQ97" s="53"/>
+      <c r="BR97" s="53"/>
+      <c r="BS97" s="53"/>
+      <c r="BT97" s="53"/>
+      <c r="BU97" s="53"/>
+      <c r="BV97" s="53"/>
+      <c r="BW97" s="53"/>
+      <c r="BX97" s="53"/>
+      <c r="BY97" s="53"/>
+      <c r="BZ97" s="53"/>
+      <c r="CA97" s="53"/>
+      <c r="CB97" s="53"/>
+      <c r="CC97" s="53"/>
+      <c r="CD97" s="53"/>
     </row>
     <row r="98" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I98" s="37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J98" s="37"/>
       <c r="K98" s="37"/>
@@ -13038,7 +13034,7 @@
       <c r="T98" s="37"/>
       <c r="U98" s="37"/>
       <c r="V98" s="37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="W98" s="37"/>
       <c r="X98" s="37"/>
@@ -13068,7 +13064,7 @@
       <c r="AV98" s="37"/>
       <c r="AW98" s="37"/>
       <c r="AX98" s="37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AY98" s="37"/>
       <c r="AZ98" s="37"/>
@@ -13090,7 +13086,7 @@
       <c r="BN98" s="37"/>
       <c r="BO98" s="37"/>
       <c r="BP98" s="37" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="BQ98" s="37"/>
       <c r="BR98" s="37"/>
@@ -13261,7 +13257,7 @@
     </row>
     <row r="101" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I101" s="36" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J101" s="36"/>
       <c r="K101" s="36"/>
@@ -13415,7 +13411,7 @@
     </row>
     <row r="103" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I103" s="36" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J103" s="36"/>
       <c r="K103" s="36"/>
@@ -13645,248 +13641,248 @@
     </row>
     <row r="108" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="109" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="I109" s="51" t="s">
-        <v>80</v>
-      </c>
-      <c r="J109" s="52"/>
-      <c r="K109" s="52"/>
-      <c r="L109" s="52"/>
-      <c r="M109" s="52"/>
-      <c r="N109" s="52"/>
-      <c r="O109" s="52"/>
-      <c r="P109" s="52"/>
-      <c r="Q109" s="52"/>
-      <c r="R109" s="52"/>
-      <c r="S109" s="52"/>
-      <c r="T109" s="52"/>
-      <c r="U109" s="52"/>
-      <c r="V109" s="52"/>
-      <c r="W109" s="52"/>
-      <c r="X109" s="52"/>
-      <c r="Y109" s="52"/>
-      <c r="Z109" s="52"/>
-      <c r="AA109" s="52"/>
-      <c r="AB109" s="52"/>
-      <c r="AC109" s="52"/>
-      <c r="AD109" s="52"/>
-      <c r="AE109" s="52"/>
-      <c r="AF109" s="52"/>
-      <c r="AG109" s="52"/>
-      <c r="AH109" s="52"/>
-      <c r="AI109" s="52"/>
-      <c r="AJ109" s="52"/>
-      <c r="AK109" s="52"/>
-      <c r="AL109" s="52"/>
-      <c r="AM109" s="52"/>
-      <c r="AN109" s="52"/>
-      <c r="AO109" s="52"/>
-      <c r="AP109" s="52"/>
-      <c r="AQ109" s="52"/>
-      <c r="AR109" s="52"/>
-      <c r="AS109" s="52"/>
-      <c r="AT109" s="52"/>
-      <c r="AU109" s="52"/>
-      <c r="AV109" s="52"/>
-      <c r="AW109" s="52"/>
-      <c r="AX109" s="52"/>
-      <c r="AY109" s="52"/>
-      <c r="AZ109" s="52"/>
-      <c r="BA109" s="52"/>
-      <c r="BB109" s="52"/>
-      <c r="BC109" s="52"/>
-      <c r="BD109" s="52"/>
-      <c r="BE109" s="52"/>
-      <c r="BF109" s="52"/>
-      <c r="BG109" s="52"/>
-      <c r="BH109" s="52"/>
-      <c r="BI109" s="52"/>
-      <c r="BJ109" s="52"/>
-      <c r="BK109" s="52"/>
-      <c r="BL109" s="52"/>
-      <c r="BM109" s="52"/>
-      <c r="BN109" s="52"/>
-      <c r="BO109" s="52"/>
-      <c r="BP109" s="52"/>
-      <c r="BQ109" s="52"/>
-      <c r="BR109" s="52"/>
-      <c r="BS109" s="52"/>
-      <c r="BT109" s="52"/>
-      <c r="BU109" s="52"/>
-      <c r="BV109" s="52"/>
-      <c r="BW109" s="52"/>
-      <c r="BX109" s="52"/>
-      <c r="BY109" s="52"/>
-      <c r="BZ109" s="52"/>
-      <c r="CA109" s="52"/>
-      <c r="CB109" s="52"/>
-      <c r="CC109" s="52"/>
-      <c r="CD109" s="53"/>
+      <c r="I109" s="47" t="s">
+        <v>79</v>
+      </c>
+      <c r="J109" s="48"/>
+      <c r="K109" s="48"/>
+      <c r="L109" s="48"/>
+      <c r="M109" s="48"/>
+      <c r="N109" s="48"/>
+      <c r="O109" s="48"/>
+      <c r="P109" s="48"/>
+      <c r="Q109" s="48"/>
+      <c r="R109" s="48"/>
+      <c r="S109" s="48"/>
+      <c r="T109" s="48"/>
+      <c r="U109" s="48"/>
+      <c r="V109" s="48"/>
+      <c r="W109" s="48"/>
+      <c r="X109" s="48"/>
+      <c r="Y109" s="48"/>
+      <c r="Z109" s="48"/>
+      <c r="AA109" s="48"/>
+      <c r="AB109" s="48"/>
+      <c r="AC109" s="48"/>
+      <c r="AD109" s="48"/>
+      <c r="AE109" s="48"/>
+      <c r="AF109" s="48"/>
+      <c r="AG109" s="48"/>
+      <c r="AH109" s="48"/>
+      <c r="AI109" s="48"/>
+      <c r="AJ109" s="48"/>
+      <c r="AK109" s="48"/>
+      <c r="AL109" s="48"/>
+      <c r="AM109" s="48"/>
+      <c r="AN109" s="48"/>
+      <c r="AO109" s="48"/>
+      <c r="AP109" s="48"/>
+      <c r="AQ109" s="48"/>
+      <c r="AR109" s="48"/>
+      <c r="AS109" s="48"/>
+      <c r="AT109" s="48"/>
+      <c r="AU109" s="48"/>
+      <c r="AV109" s="48"/>
+      <c r="AW109" s="48"/>
+      <c r="AX109" s="48"/>
+      <c r="AY109" s="48"/>
+      <c r="AZ109" s="48"/>
+      <c r="BA109" s="48"/>
+      <c r="BB109" s="48"/>
+      <c r="BC109" s="48"/>
+      <c r="BD109" s="48"/>
+      <c r="BE109" s="48"/>
+      <c r="BF109" s="48"/>
+      <c r="BG109" s="48"/>
+      <c r="BH109" s="48"/>
+      <c r="BI109" s="48"/>
+      <c r="BJ109" s="48"/>
+      <c r="BK109" s="48"/>
+      <c r="BL109" s="48"/>
+      <c r="BM109" s="48"/>
+      <c r="BN109" s="48"/>
+      <c r="BO109" s="48"/>
+      <c r="BP109" s="48"/>
+      <c r="BQ109" s="48"/>
+      <c r="BR109" s="48"/>
+      <c r="BS109" s="48"/>
+      <c r="BT109" s="48"/>
+      <c r="BU109" s="48"/>
+      <c r="BV109" s="48"/>
+      <c r="BW109" s="48"/>
+      <c r="BX109" s="48"/>
+      <c r="BY109" s="48"/>
+      <c r="BZ109" s="48"/>
+      <c r="CA109" s="48"/>
+      <c r="CB109" s="48"/>
+      <c r="CC109" s="48"/>
+      <c r="CD109" s="49"/>
     </row>
     <row r="110" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="I110" s="54"/>
-      <c r="J110" s="55"/>
-      <c r="K110" s="55"/>
-      <c r="L110" s="55"/>
-      <c r="M110" s="55"/>
-      <c r="N110" s="55"/>
-      <c r="O110" s="55"/>
-      <c r="P110" s="55"/>
-      <c r="Q110" s="55"/>
-      <c r="R110" s="55"/>
-      <c r="S110" s="55"/>
-      <c r="T110" s="55"/>
-      <c r="U110" s="55"/>
-      <c r="V110" s="55"/>
-      <c r="W110" s="55"/>
-      <c r="X110" s="55"/>
-      <c r="Y110" s="55"/>
-      <c r="Z110" s="55"/>
-      <c r="AA110" s="55"/>
-      <c r="AB110" s="55"/>
-      <c r="AC110" s="55"/>
-      <c r="AD110" s="55"/>
-      <c r="AE110" s="55"/>
-      <c r="AF110" s="55"/>
-      <c r="AG110" s="55"/>
-      <c r="AH110" s="55"/>
-      <c r="AI110" s="55"/>
-      <c r="AJ110" s="55"/>
-      <c r="AK110" s="55"/>
-      <c r="AL110" s="55"/>
-      <c r="AM110" s="55"/>
-      <c r="AN110" s="55"/>
-      <c r="AO110" s="55"/>
-      <c r="AP110" s="55"/>
-      <c r="AQ110" s="55"/>
-      <c r="AR110" s="55"/>
-      <c r="AS110" s="55"/>
-      <c r="AT110" s="55"/>
-      <c r="AU110" s="55"/>
-      <c r="AV110" s="55"/>
-      <c r="AW110" s="55"/>
-      <c r="AX110" s="55"/>
-      <c r="AY110" s="55"/>
-      <c r="AZ110" s="55"/>
-      <c r="BA110" s="55"/>
-      <c r="BB110" s="55"/>
-      <c r="BC110" s="55"/>
-      <c r="BD110" s="55"/>
-      <c r="BE110" s="55"/>
-      <c r="BF110" s="55"/>
-      <c r="BG110" s="55"/>
-      <c r="BH110" s="55"/>
-      <c r="BI110" s="55"/>
-      <c r="BJ110" s="55"/>
-      <c r="BK110" s="55"/>
-      <c r="BL110" s="55"/>
-      <c r="BM110" s="55"/>
-      <c r="BN110" s="55"/>
-      <c r="BO110" s="55"/>
-      <c r="BP110" s="55"/>
-      <c r="BQ110" s="55"/>
-      <c r="BR110" s="55"/>
-      <c r="BS110" s="55"/>
-      <c r="BT110" s="55"/>
-      <c r="BU110" s="55"/>
-      <c r="BV110" s="55"/>
-      <c r="BW110" s="55"/>
-      <c r="BX110" s="55"/>
-      <c r="BY110" s="55"/>
-      <c r="BZ110" s="55"/>
-      <c r="CA110" s="55"/>
-      <c r="CB110" s="55"/>
-      <c r="CC110" s="55"/>
-      <c r="CD110" s="56"/>
+      <c r="I110" s="50"/>
+      <c r="J110" s="51"/>
+      <c r="K110" s="51"/>
+      <c r="L110" s="51"/>
+      <c r="M110" s="51"/>
+      <c r="N110" s="51"/>
+      <c r="O110" s="51"/>
+      <c r="P110" s="51"/>
+      <c r="Q110" s="51"/>
+      <c r="R110" s="51"/>
+      <c r="S110" s="51"/>
+      <c r="T110" s="51"/>
+      <c r="U110" s="51"/>
+      <c r="V110" s="51"/>
+      <c r="W110" s="51"/>
+      <c r="X110" s="51"/>
+      <c r="Y110" s="51"/>
+      <c r="Z110" s="51"/>
+      <c r="AA110" s="51"/>
+      <c r="AB110" s="51"/>
+      <c r="AC110" s="51"/>
+      <c r="AD110" s="51"/>
+      <c r="AE110" s="51"/>
+      <c r="AF110" s="51"/>
+      <c r="AG110" s="51"/>
+      <c r="AH110" s="51"/>
+      <c r="AI110" s="51"/>
+      <c r="AJ110" s="51"/>
+      <c r="AK110" s="51"/>
+      <c r="AL110" s="51"/>
+      <c r="AM110" s="51"/>
+      <c r="AN110" s="51"/>
+      <c r="AO110" s="51"/>
+      <c r="AP110" s="51"/>
+      <c r="AQ110" s="51"/>
+      <c r="AR110" s="51"/>
+      <c r="AS110" s="51"/>
+      <c r="AT110" s="51"/>
+      <c r="AU110" s="51"/>
+      <c r="AV110" s="51"/>
+      <c r="AW110" s="51"/>
+      <c r="AX110" s="51"/>
+      <c r="AY110" s="51"/>
+      <c r="AZ110" s="51"/>
+      <c r="BA110" s="51"/>
+      <c r="BB110" s="51"/>
+      <c r="BC110" s="51"/>
+      <c r="BD110" s="51"/>
+      <c r="BE110" s="51"/>
+      <c r="BF110" s="51"/>
+      <c r="BG110" s="51"/>
+      <c r="BH110" s="51"/>
+      <c r="BI110" s="51"/>
+      <c r="BJ110" s="51"/>
+      <c r="BK110" s="51"/>
+      <c r="BL110" s="51"/>
+      <c r="BM110" s="51"/>
+      <c r="BN110" s="51"/>
+      <c r="BO110" s="51"/>
+      <c r="BP110" s="51"/>
+      <c r="BQ110" s="51"/>
+      <c r="BR110" s="51"/>
+      <c r="BS110" s="51"/>
+      <c r="BT110" s="51"/>
+      <c r="BU110" s="51"/>
+      <c r="BV110" s="51"/>
+      <c r="BW110" s="51"/>
+      <c r="BX110" s="51"/>
+      <c r="BY110" s="51"/>
+      <c r="BZ110" s="51"/>
+      <c r="CA110" s="51"/>
+      <c r="CB110" s="51"/>
+      <c r="CC110" s="51"/>
+      <c r="CD110" s="52"/>
     </row>
     <row r="111" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="I111" s="47" t="s">
+      <c r="I111" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="J111" s="47"/>
-      <c r="K111" s="47"/>
-      <c r="L111" s="47"/>
-      <c r="M111" s="47"/>
-      <c r="N111" s="47"/>
-      <c r="O111" s="47"/>
-      <c r="P111" s="47"/>
-      <c r="Q111" s="47"/>
-      <c r="R111" s="47"/>
-      <c r="S111" s="47"/>
-      <c r="T111" s="47"/>
-      <c r="U111" s="47"/>
-      <c r="V111" s="47" t="s">
+      <c r="J111" s="53"/>
+      <c r="K111" s="53"/>
+      <c r="L111" s="53"/>
+      <c r="M111" s="53"/>
+      <c r="N111" s="53"/>
+      <c r="O111" s="53"/>
+      <c r="P111" s="53"/>
+      <c r="Q111" s="53"/>
+      <c r="R111" s="53"/>
+      <c r="S111" s="53"/>
+      <c r="T111" s="53"/>
+      <c r="U111" s="53"/>
+      <c r="V111" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="W111" s="47"/>
-      <c r="X111" s="47"/>
-      <c r="Y111" s="47"/>
-      <c r="Z111" s="47"/>
-      <c r="AA111" s="47"/>
-      <c r="AB111" s="47"/>
-      <c r="AC111" s="47"/>
-      <c r="AD111" s="47"/>
-      <c r="AE111" s="47"/>
-      <c r="AF111" s="47"/>
-      <c r="AG111" s="47"/>
-      <c r="AH111" s="47"/>
-      <c r="AI111" s="47"/>
-      <c r="AJ111" s="47"/>
-      <c r="AK111" s="47"/>
-      <c r="AL111" s="47"/>
-      <c r="AM111" s="47"/>
-      <c r="AN111" s="47"/>
-      <c r="AO111" s="47"/>
-      <c r="AP111" s="47"/>
-      <c r="AQ111" s="47"/>
-      <c r="AR111" s="47"/>
-      <c r="AS111" s="47"/>
-      <c r="AT111" s="47"/>
-      <c r="AU111" s="47"/>
-      <c r="AV111" s="47"/>
-      <c r="AW111" s="47"/>
-      <c r="AX111" s="47" t="s">
-        <v>59</v>
-      </c>
-      <c r="AY111" s="47"/>
-      <c r="AZ111" s="47"/>
-      <c r="BA111" s="47"/>
-      <c r="BB111" s="47"/>
-      <c r="BC111" s="47"/>
-      <c r="BD111" s="47"/>
-      <c r="BE111" s="47"/>
-      <c r="BF111" s="47"/>
-      <c r="BG111" s="47"/>
-      <c r="BH111" s="47"/>
-      <c r="BI111" s="47"/>
-      <c r="BJ111" s="47" t="s">
+      <c r="W111" s="53"/>
+      <c r="X111" s="53"/>
+      <c r="Y111" s="53"/>
+      <c r="Z111" s="53"/>
+      <c r="AA111" s="53"/>
+      <c r="AB111" s="53"/>
+      <c r="AC111" s="53"/>
+      <c r="AD111" s="53"/>
+      <c r="AE111" s="53"/>
+      <c r="AF111" s="53"/>
+      <c r="AG111" s="53"/>
+      <c r="AH111" s="53"/>
+      <c r="AI111" s="53"/>
+      <c r="AJ111" s="53"/>
+      <c r="AK111" s="53"/>
+      <c r="AL111" s="53"/>
+      <c r="AM111" s="53"/>
+      <c r="AN111" s="53"/>
+      <c r="AO111" s="53"/>
+      <c r="AP111" s="53"/>
+      <c r="AQ111" s="53"/>
+      <c r="AR111" s="53"/>
+      <c r="AS111" s="53"/>
+      <c r="AT111" s="53"/>
+      <c r="AU111" s="53"/>
+      <c r="AV111" s="53"/>
+      <c r="AW111" s="53"/>
+      <c r="AX111" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY111" s="53"/>
+      <c r="AZ111" s="53"/>
+      <c r="BA111" s="53"/>
+      <c r="BB111" s="53"/>
+      <c r="BC111" s="53"/>
+      <c r="BD111" s="53"/>
+      <c r="BE111" s="53"/>
+      <c r="BF111" s="53"/>
+      <c r="BG111" s="53"/>
+      <c r="BH111" s="53"/>
+      <c r="BI111" s="53"/>
+      <c r="BJ111" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="BK111" s="47"/>
-      <c r="BL111" s="47"/>
-      <c r="BM111" s="47"/>
-      <c r="BN111" s="47"/>
-      <c r="BO111" s="47"/>
-      <c r="BP111" s="47" t="s">
+      <c r="BK111" s="53"/>
+      <c r="BL111" s="53"/>
+      <c r="BM111" s="53"/>
+      <c r="BN111" s="53"/>
+      <c r="BO111" s="53"/>
+      <c r="BP111" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="BQ111" s="47"/>
-      <c r="BR111" s="47"/>
-      <c r="BS111" s="47"/>
-      <c r="BT111" s="47"/>
-      <c r="BU111" s="47"/>
-      <c r="BV111" s="47"/>
-      <c r="BW111" s="47"/>
-      <c r="BX111" s="47"/>
-      <c r="BY111" s="47"/>
-      <c r="BZ111" s="47"/>
-      <c r="CA111" s="47"/>
-      <c r="CB111" s="47"/>
-      <c r="CC111" s="47"/>
-      <c r="CD111" s="47"/>
+      <c r="BQ111" s="53"/>
+      <c r="BR111" s="53"/>
+      <c r="BS111" s="53"/>
+      <c r="BT111" s="53"/>
+      <c r="BU111" s="53"/>
+      <c r="BV111" s="53"/>
+      <c r="BW111" s="53"/>
+      <c r="BX111" s="53"/>
+      <c r="BY111" s="53"/>
+      <c r="BZ111" s="53"/>
+      <c r="CA111" s="53"/>
+      <c r="CB111" s="53"/>
+      <c r="CC111" s="53"/>
+      <c r="CD111" s="53"/>
     </row>
     <row r="112" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I112" s="37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J112" s="37"/>
       <c r="K112" s="37"/>
@@ -13901,7 +13897,7 @@
       <c r="T112" s="37"/>
       <c r="U112" s="37"/>
       <c r="V112" s="37" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="W112" s="37"/>
       <c r="X112" s="37"/>
@@ -13931,7 +13927,7 @@
       <c r="AV112" s="37"/>
       <c r="AW112" s="37"/>
       <c r="AX112" s="37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AY112" s="37"/>
       <c r="AZ112" s="37"/>
@@ -13953,7 +13949,7 @@
       <c r="BN112" s="37"/>
       <c r="BO112" s="37"/>
       <c r="BP112" s="37" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BQ112" s="37"/>
       <c r="BR112" s="37"/>
@@ -14124,7 +14120,7 @@
     </row>
     <row r="115" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I115" s="36" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J115" s="36"/>
       <c r="K115" s="36"/>
@@ -14278,7 +14274,7 @@
     </row>
     <row r="117" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I117" s="36" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J117" s="36"/>
       <c r="K117" s="36"/>
@@ -14508,248 +14504,248 @@
     </row>
     <row r="122" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="123" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="I123" s="51" t="s">
-        <v>83</v>
-      </c>
-      <c r="J123" s="52"/>
-      <c r="K123" s="52"/>
-      <c r="L123" s="52"/>
-      <c r="M123" s="52"/>
-      <c r="N123" s="52"/>
-      <c r="O123" s="52"/>
-      <c r="P123" s="52"/>
-      <c r="Q123" s="52"/>
-      <c r="R123" s="52"/>
-      <c r="S123" s="52"/>
-      <c r="T123" s="52"/>
-      <c r="U123" s="52"/>
-      <c r="V123" s="52"/>
-      <c r="W123" s="52"/>
-      <c r="X123" s="52"/>
-      <c r="Y123" s="52"/>
-      <c r="Z123" s="52"/>
-      <c r="AA123" s="52"/>
-      <c r="AB123" s="52"/>
-      <c r="AC123" s="52"/>
-      <c r="AD123" s="52"/>
-      <c r="AE123" s="52"/>
-      <c r="AF123" s="52"/>
-      <c r="AG123" s="52"/>
-      <c r="AH123" s="52"/>
-      <c r="AI123" s="52"/>
-      <c r="AJ123" s="52"/>
-      <c r="AK123" s="52"/>
-      <c r="AL123" s="52"/>
-      <c r="AM123" s="52"/>
-      <c r="AN123" s="52"/>
-      <c r="AO123" s="52"/>
-      <c r="AP123" s="52"/>
-      <c r="AQ123" s="52"/>
-      <c r="AR123" s="52"/>
-      <c r="AS123" s="52"/>
-      <c r="AT123" s="52"/>
-      <c r="AU123" s="52"/>
-      <c r="AV123" s="52"/>
-      <c r="AW123" s="52"/>
-      <c r="AX123" s="52"/>
-      <c r="AY123" s="52"/>
-      <c r="AZ123" s="52"/>
-      <c r="BA123" s="52"/>
-      <c r="BB123" s="52"/>
-      <c r="BC123" s="52"/>
-      <c r="BD123" s="52"/>
-      <c r="BE123" s="52"/>
-      <c r="BF123" s="52"/>
-      <c r="BG123" s="52"/>
-      <c r="BH123" s="52"/>
-      <c r="BI123" s="52"/>
-      <c r="BJ123" s="52"/>
-      <c r="BK123" s="52"/>
-      <c r="BL123" s="52"/>
-      <c r="BM123" s="52"/>
-      <c r="BN123" s="52"/>
-      <c r="BO123" s="52"/>
-      <c r="BP123" s="52"/>
-      <c r="BQ123" s="52"/>
-      <c r="BR123" s="52"/>
-      <c r="BS123" s="52"/>
-      <c r="BT123" s="52"/>
-      <c r="BU123" s="52"/>
-      <c r="BV123" s="52"/>
-      <c r="BW123" s="52"/>
-      <c r="BX123" s="52"/>
-      <c r="BY123" s="52"/>
-      <c r="BZ123" s="52"/>
-      <c r="CA123" s="52"/>
-      <c r="CB123" s="52"/>
-      <c r="CC123" s="52"/>
-      <c r="CD123" s="53"/>
+      <c r="I123" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="J123" s="48"/>
+      <c r="K123" s="48"/>
+      <c r="L123" s="48"/>
+      <c r="M123" s="48"/>
+      <c r="N123" s="48"/>
+      <c r="O123" s="48"/>
+      <c r="P123" s="48"/>
+      <c r="Q123" s="48"/>
+      <c r="R123" s="48"/>
+      <c r="S123" s="48"/>
+      <c r="T123" s="48"/>
+      <c r="U123" s="48"/>
+      <c r="V123" s="48"/>
+      <c r="W123" s="48"/>
+      <c r="X123" s="48"/>
+      <c r="Y123" s="48"/>
+      <c r="Z123" s="48"/>
+      <c r="AA123" s="48"/>
+      <c r="AB123" s="48"/>
+      <c r="AC123" s="48"/>
+      <c r="AD123" s="48"/>
+      <c r="AE123" s="48"/>
+      <c r="AF123" s="48"/>
+      <c r="AG123" s="48"/>
+      <c r="AH123" s="48"/>
+      <c r="AI123" s="48"/>
+      <c r="AJ123" s="48"/>
+      <c r="AK123" s="48"/>
+      <c r="AL123" s="48"/>
+      <c r="AM123" s="48"/>
+      <c r="AN123" s="48"/>
+      <c r="AO123" s="48"/>
+      <c r="AP123" s="48"/>
+      <c r="AQ123" s="48"/>
+      <c r="AR123" s="48"/>
+      <c r="AS123" s="48"/>
+      <c r="AT123" s="48"/>
+      <c r="AU123" s="48"/>
+      <c r="AV123" s="48"/>
+      <c r="AW123" s="48"/>
+      <c r="AX123" s="48"/>
+      <c r="AY123" s="48"/>
+      <c r="AZ123" s="48"/>
+      <c r="BA123" s="48"/>
+      <c r="BB123" s="48"/>
+      <c r="BC123" s="48"/>
+      <c r="BD123" s="48"/>
+      <c r="BE123" s="48"/>
+      <c r="BF123" s="48"/>
+      <c r="BG123" s="48"/>
+      <c r="BH123" s="48"/>
+      <c r="BI123" s="48"/>
+      <c r="BJ123" s="48"/>
+      <c r="BK123" s="48"/>
+      <c r="BL123" s="48"/>
+      <c r="BM123" s="48"/>
+      <c r="BN123" s="48"/>
+      <c r="BO123" s="48"/>
+      <c r="BP123" s="48"/>
+      <c r="BQ123" s="48"/>
+      <c r="BR123" s="48"/>
+      <c r="BS123" s="48"/>
+      <c r="BT123" s="48"/>
+      <c r="BU123" s="48"/>
+      <c r="BV123" s="48"/>
+      <c r="BW123" s="48"/>
+      <c r="BX123" s="48"/>
+      <c r="BY123" s="48"/>
+      <c r="BZ123" s="48"/>
+      <c r="CA123" s="48"/>
+      <c r="CB123" s="48"/>
+      <c r="CC123" s="48"/>
+      <c r="CD123" s="49"/>
     </row>
     <row r="124" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="I124" s="54"/>
-      <c r="J124" s="55"/>
-      <c r="K124" s="55"/>
-      <c r="L124" s="55"/>
-      <c r="M124" s="55"/>
-      <c r="N124" s="55"/>
-      <c r="O124" s="55"/>
-      <c r="P124" s="55"/>
-      <c r="Q124" s="55"/>
-      <c r="R124" s="55"/>
-      <c r="S124" s="55"/>
-      <c r="T124" s="55"/>
-      <c r="U124" s="55"/>
-      <c r="V124" s="55"/>
-      <c r="W124" s="55"/>
-      <c r="X124" s="55"/>
-      <c r="Y124" s="55"/>
-      <c r="Z124" s="55"/>
-      <c r="AA124" s="55"/>
-      <c r="AB124" s="55"/>
-      <c r="AC124" s="55"/>
-      <c r="AD124" s="55"/>
-      <c r="AE124" s="55"/>
-      <c r="AF124" s="55"/>
-      <c r="AG124" s="55"/>
-      <c r="AH124" s="55"/>
-      <c r="AI124" s="55"/>
-      <c r="AJ124" s="55"/>
-      <c r="AK124" s="55"/>
-      <c r="AL124" s="55"/>
-      <c r="AM124" s="55"/>
-      <c r="AN124" s="55"/>
-      <c r="AO124" s="55"/>
-      <c r="AP124" s="55"/>
-      <c r="AQ124" s="55"/>
-      <c r="AR124" s="55"/>
-      <c r="AS124" s="55"/>
-      <c r="AT124" s="55"/>
-      <c r="AU124" s="55"/>
-      <c r="AV124" s="55"/>
-      <c r="AW124" s="55"/>
-      <c r="AX124" s="55"/>
-      <c r="AY124" s="55"/>
-      <c r="AZ124" s="55"/>
-      <c r="BA124" s="55"/>
-      <c r="BB124" s="55"/>
-      <c r="BC124" s="55"/>
-      <c r="BD124" s="55"/>
-      <c r="BE124" s="55"/>
-      <c r="BF124" s="55"/>
-      <c r="BG124" s="55"/>
-      <c r="BH124" s="55"/>
-      <c r="BI124" s="55"/>
-      <c r="BJ124" s="55"/>
-      <c r="BK124" s="55"/>
-      <c r="BL124" s="55"/>
-      <c r="BM124" s="55"/>
-      <c r="BN124" s="55"/>
-      <c r="BO124" s="55"/>
-      <c r="BP124" s="55"/>
-      <c r="BQ124" s="55"/>
-      <c r="BR124" s="55"/>
-      <c r="BS124" s="55"/>
-      <c r="BT124" s="55"/>
-      <c r="BU124" s="55"/>
-      <c r="BV124" s="55"/>
-      <c r="BW124" s="55"/>
-      <c r="BX124" s="55"/>
-      <c r="BY124" s="55"/>
-      <c r="BZ124" s="55"/>
-      <c r="CA124" s="55"/>
-      <c r="CB124" s="55"/>
-      <c r="CC124" s="55"/>
-      <c r="CD124" s="56"/>
+      <c r="I124" s="50"/>
+      <c r="J124" s="51"/>
+      <c r="K124" s="51"/>
+      <c r="L124" s="51"/>
+      <c r="M124" s="51"/>
+      <c r="N124" s="51"/>
+      <c r="O124" s="51"/>
+      <c r="P124" s="51"/>
+      <c r="Q124" s="51"/>
+      <c r="R124" s="51"/>
+      <c r="S124" s="51"/>
+      <c r="T124" s="51"/>
+      <c r="U124" s="51"/>
+      <c r="V124" s="51"/>
+      <c r="W124" s="51"/>
+      <c r="X124" s="51"/>
+      <c r="Y124" s="51"/>
+      <c r="Z124" s="51"/>
+      <c r="AA124" s="51"/>
+      <c r="AB124" s="51"/>
+      <c r="AC124" s="51"/>
+      <c r="AD124" s="51"/>
+      <c r="AE124" s="51"/>
+      <c r="AF124" s="51"/>
+      <c r="AG124" s="51"/>
+      <c r="AH124" s="51"/>
+      <c r="AI124" s="51"/>
+      <c r="AJ124" s="51"/>
+      <c r="AK124" s="51"/>
+      <c r="AL124" s="51"/>
+      <c r="AM124" s="51"/>
+      <c r="AN124" s="51"/>
+      <c r="AO124" s="51"/>
+      <c r="AP124" s="51"/>
+      <c r="AQ124" s="51"/>
+      <c r="AR124" s="51"/>
+      <c r="AS124" s="51"/>
+      <c r="AT124" s="51"/>
+      <c r="AU124" s="51"/>
+      <c r="AV124" s="51"/>
+      <c r="AW124" s="51"/>
+      <c r="AX124" s="51"/>
+      <c r="AY124" s="51"/>
+      <c r="AZ124" s="51"/>
+      <c r="BA124" s="51"/>
+      <c r="BB124" s="51"/>
+      <c r="BC124" s="51"/>
+      <c r="BD124" s="51"/>
+      <c r="BE124" s="51"/>
+      <c r="BF124" s="51"/>
+      <c r="BG124" s="51"/>
+      <c r="BH124" s="51"/>
+      <c r="BI124" s="51"/>
+      <c r="BJ124" s="51"/>
+      <c r="BK124" s="51"/>
+      <c r="BL124" s="51"/>
+      <c r="BM124" s="51"/>
+      <c r="BN124" s="51"/>
+      <c r="BO124" s="51"/>
+      <c r="BP124" s="51"/>
+      <c r="BQ124" s="51"/>
+      <c r="BR124" s="51"/>
+      <c r="BS124" s="51"/>
+      <c r="BT124" s="51"/>
+      <c r="BU124" s="51"/>
+      <c r="BV124" s="51"/>
+      <c r="BW124" s="51"/>
+      <c r="BX124" s="51"/>
+      <c r="BY124" s="51"/>
+      <c r="BZ124" s="51"/>
+      <c r="CA124" s="51"/>
+      <c r="CB124" s="51"/>
+      <c r="CC124" s="51"/>
+      <c r="CD124" s="52"/>
     </row>
     <row r="125" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="I125" s="47" t="s">
+      <c r="I125" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="J125" s="47"/>
-      <c r="K125" s="47"/>
-      <c r="L125" s="47"/>
-      <c r="M125" s="47"/>
-      <c r="N125" s="47"/>
-      <c r="O125" s="47"/>
-      <c r="P125" s="47"/>
-      <c r="Q125" s="47"/>
-      <c r="R125" s="47"/>
-      <c r="S125" s="47"/>
-      <c r="T125" s="47"/>
-      <c r="U125" s="47"/>
-      <c r="V125" s="47" t="s">
+      <c r="J125" s="53"/>
+      <c r="K125" s="53"/>
+      <c r="L125" s="53"/>
+      <c r="M125" s="53"/>
+      <c r="N125" s="53"/>
+      <c r="O125" s="53"/>
+      <c r="P125" s="53"/>
+      <c r="Q125" s="53"/>
+      <c r="R125" s="53"/>
+      <c r="S125" s="53"/>
+      <c r="T125" s="53"/>
+      <c r="U125" s="53"/>
+      <c r="V125" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="W125" s="47"/>
-      <c r="X125" s="47"/>
-      <c r="Y125" s="47"/>
-      <c r="Z125" s="47"/>
-      <c r="AA125" s="47"/>
-      <c r="AB125" s="47"/>
-      <c r="AC125" s="47"/>
-      <c r="AD125" s="47"/>
-      <c r="AE125" s="47"/>
-      <c r="AF125" s="47"/>
-      <c r="AG125" s="47"/>
-      <c r="AH125" s="47"/>
-      <c r="AI125" s="47"/>
-      <c r="AJ125" s="47"/>
-      <c r="AK125" s="47"/>
-      <c r="AL125" s="47"/>
-      <c r="AM125" s="47"/>
-      <c r="AN125" s="47"/>
-      <c r="AO125" s="47"/>
-      <c r="AP125" s="47"/>
-      <c r="AQ125" s="47"/>
-      <c r="AR125" s="47"/>
-      <c r="AS125" s="47"/>
-      <c r="AT125" s="47"/>
-      <c r="AU125" s="47"/>
-      <c r="AV125" s="47"/>
-      <c r="AW125" s="47"/>
-      <c r="AX125" s="47" t="s">
-        <v>59</v>
-      </c>
-      <c r="AY125" s="47"/>
-      <c r="AZ125" s="47"/>
-      <c r="BA125" s="47"/>
-      <c r="BB125" s="47"/>
-      <c r="BC125" s="47"/>
-      <c r="BD125" s="47"/>
-      <c r="BE125" s="47"/>
-      <c r="BF125" s="47"/>
-      <c r="BG125" s="47"/>
-      <c r="BH125" s="47"/>
-      <c r="BI125" s="47"/>
-      <c r="BJ125" s="47" t="s">
+      <c r="W125" s="53"/>
+      <c r="X125" s="53"/>
+      <c r="Y125" s="53"/>
+      <c r="Z125" s="53"/>
+      <c r="AA125" s="53"/>
+      <c r="AB125" s="53"/>
+      <c r="AC125" s="53"/>
+      <c r="AD125" s="53"/>
+      <c r="AE125" s="53"/>
+      <c r="AF125" s="53"/>
+      <c r="AG125" s="53"/>
+      <c r="AH125" s="53"/>
+      <c r="AI125" s="53"/>
+      <c r="AJ125" s="53"/>
+      <c r="AK125" s="53"/>
+      <c r="AL125" s="53"/>
+      <c r="AM125" s="53"/>
+      <c r="AN125" s="53"/>
+      <c r="AO125" s="53"/>
+      <c r="AP125" s="53"/>
+      <c r="AQ125" s="53"/>
+      <c r="AR125" s="53"/>
+      <c r="AS125" s="53"/>
+      <c r="AT125" s="53"/>
+      <c r="AU125" s="53"/>
+      <c r="AV125" s="53"/>
+      <c r="AW125" s="53"/>
+      <c r="AX125" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY125" s="53"/>
+      <c r="AZ125" s="53"/>
+      <c r="BA125" s="53"/>
+      <c r="BB125" s="53"/>
+      <c r="BC125" s="53"/>
+      <c r="BD125" s="53"/>
+      <c r="BE125" s="53"/>
+      <c r="BF125" s="53"/>
+      <c r="BG125" s="53"/>
+      <c r="BH125" s="53"/>
+      <c r="BI125" s="53"/>
+      <c r="BJ125" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="BK125" s="47"/>
-      <c r="BL125" s="47"/>
-      <c r="BM125" s="47"/>
-      <c r="BN125" s="47"/>
-      <c r="BO125" s="47"/>
-      <c r="BP125" s="47" t="s">
+      <c r="BK125" s="53"/>
+      <c r="BL125" s="53"/>
+      <c r="BM125" s="53"/>
+      <c r="BN125" s="53"/>
+      <c r="BO125" s="53"/>
+      <c r="BP125" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="BQ125" s="47"/>
-      <c r="BR125" s="47"/>
-      <c r="BS125" s="47"/>
-      <c r="BT125" s="47"/>
-      <c r="BU125" s="47"/>
-      <c r="BV125" s="47"/>
-      <c r="BW125" s="47"/>
-      <c r="BX125" s="47"/>
-      <c r="BY125" s="47"/>
-      <c r="BZ125" s="47"/>
-      <c r="CA125" s="47"/>
-      <c r="CB125" s="47"/>
-      <c r="CC125" s="47"/>
-      <c r="CD125" s="47"/>
+      <c r="BQ125" s="53"/>
+      <c r="BR125" s="53"/>
+      <c r="BS125" s="53"/>
+      <c r="BT125" s="53"/>
+      <c r="BU125" s="53"/>
+      <c r="BV125" s="53"/>
+      <c r="BW125" s="53"/>
+      <c r="BX125" s="53"/>
+      <c r="BY125" s="53"/>
+      <c r="BZ125" s="53"/>
+      <c r="CA125" s="53"/>
+      <c r="CB125" s="53"/>
+      <c r="CC125" s="53"/>
+      <c r="CD125" s="53"/>
     </row>
     <row r="126" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I126" s="37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J126" s="37"/>
       <c r="K126" s="37"/>
@@ -14764,7 +14760,7 @@
       <c r="T126" s="37"/>
       <c r="U126" s="37"/>
       <c r="V126" s="37" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="W126" s="37"/>
       <c r="X126" s="37"/>
@@ -14794,7 +14790,7 @@
       <c r="AV126" s="37"/>
       <c r="AW126" s="37"/>
       <c r="AX126" s="37" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AY126" s="37"/>
       <c r="AZ126" s="37"/>
@@ -14816,7 +14812,7 @@
       <c r="BN126" s="37"/>
       <c r="BO126" s="37"/>
       <c r="BP126" s="37" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="BQ126" s="37"/>
       <c r="BR126" s="37"/>
@@ -14987,7 +14983,7 @@
     </row>
     <row r="129" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I129" s="36" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J129" s="36"/>
       <c r="K129" s="36"/>
@@ -15141,7 +15137,7 @@
     </row>
     <row r="131" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I131" s="36" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J131" s="36"/>
       <c r="K131" s="36"/>
@@ -15371,248 +15367,248 @@
     </row>
     <row r="136" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="137" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="I137" s="51" t="s">
-        <v>87</v>
-      </c>
-      <c r="J137" s="52"/>
-      <c r="K137" s="52"/>
-      <c r="L137" s="52"/>
-      <c r="M137" s="52"/>
-      <c r="N137" s="52"/>
-      <c r="O137" s="52"/>
-      <c r="P137" s="52"/>
-      <c r="Q137" s="52"/>
-      <c r="R137" s="52"/>
-      <c r="S137" s="52"/>
-      <c r="T137" s="52"/>
-      <c r="U137" s="52"/>
-      <c r="V137" s="52"/>
-      <c r="W137" s="52"/>
-      <c r="X137" s="52"/>
-      <c r="Y137" s="52"/>
-      <c r="Z137" s="52"/>
-      <c r="AA137" s="52"/>
-      <c r="AB137" s="52"/>
-      <c r="AC137" s="52"/>
-      <c r="AD137" s="52"/>
-      <c r="AE137" s="52"/>
-      <c r="AF137" s="52"/>
-      <c r="AG137" s="52"/>
-      <c r="AH137" s="52"/>
-      <c r="AI137" s="52"/>
-      <c r="AJ137" s="52"/>
-      <c r="AK137" s="52"/>
-      <c r="AL137" s="52"/>
-      <c r="AM137" s="52"/>
-      <c r="AN137" s="52"/>
-      <c r="AO137" s="52"/>
-      <c r="AP137" s="52"/>
-      <c r="AQ137" s="52"/>
-      <c r="AR137" s="52"/>
-      <c r="AS137" s="52"/>
-      <c r="AT137" s="52"/>
-      <c r="AU137" s="52"/>
-      <c r="AV137" s="52"/>
-      <c r="AW137" s="52"/>
-      <c r="AX137" s="52"/>
-      <c r="AY137" s="52"/>
-      <c r="AZ137" s="52"/>
-      <c r="BA137" s="52"/>
-      <c r="BB137" s="52"/>
-      <c r="BC137" s="52"/>
-      <c r="BD137" s="52"/>
-      <c r="BE137" s="52"/>
-      <c r="BF137" s="52"/>
-      <c r="BG137" s="52"/>
-      <c r="BH137" s="52"/>
-      <c r="BI137" s="52"/>
-      <c r="BJ137" s="52"/>
-      <c r="BK137" s="52"/>
-      <c r="BL137" s="52"/>
-      <c r="BM137" s="52"/>
-      <c r="BN137" s="52"/>
-      <c r="BO137" s="52"/>
-      <c r="BP137" s="52"/>
-      <c r="BQ137" s="52"/>
-      <c r="BR137" s="52"/>
-      <c r="BS137" s="52"/>
-      <c r="BT137" s="52"/>
-      <c r="BU137" s="52"/>
-      <c r="BV137" s="52"/>
-      <c r="BW137" s="52"/>
-      <c r="BX137" s="52"/>
-      <c r="BY137" s="52"/>
-      <c r="BZ137" s="52"/>
-      <c r="CA137" s="52"/>
-      <c r="CB137" s="52"/>
-      <c r="CC137" s="52"/>
-      <c r="CD137" s="53"/>
+      <c r="I137" s="47" t="s">
+        <v>86</v>
+      </c>
+      <c r="J137" s="48"/>
+      <c r="K137" s="48"/>
+      <c r="L137" s="48"/>
+      <c r="M137" s="48"/>
+      <c r="N137" s="48"/>
+      <c r="O137" s="48"/>
+      <c r="P137" s="48"/>
+      <c r="Q137" s="48"/>
+      <c r="R137" s="48"/>
+      <c r="S137" s="48"/>
+      <c r="T137" s="48"/>
+      <c r="U137" s="48"/>
+      <c r="V137" s="48"/>
+      <c r="W137" s="48"/>
+      <c r="X137" s="48"/>
+      <c r="Y137" s="48"/>
+      <c r="Z137" s="48"/>
+      <c r="AA137" s="48"/>
+      <c r="AB137" s="48"/>
+      <c r="AC137" s="48"/>
+      <c r="AD137" s="48"/>
+      <c r="AE137" s="48"/>
+      <c r="AF137" s="48"/>
+      <c r="AG137" s="48"/>
+      <c r="AH137" s="48"/>
+      <c r="AI137" s="48"/>
+      <c r="AJ137" s="48"/>
+      <c r="AK137" s="48"/>
+      <c r="AL137" s="48"/>
+      <c r="AM137" s="48"/>
+      <c r="AN137" s="48"/>
+      <c r="AO137" s="48"/>
+      <c r="AP137" s="48"/>
+      <c r="AQ137" s="48"/>
+      <c r="AR137" s="48"/>
+      <c r="AS137" s="48"/>
+      <c r="AT137" s="48"/>
+      <c r="AU137" s="48"/>
+      <c r="AV137" s="48"/>
+      <c r="AW137" s="48"/>
+      <c r="AX137" s="48"/>
+      <c r="AY137" s="48"/>
+      <c r="AZ137" s="48"/>
+      <c r="BA137" s="48"/>
+      <c r="BB137" s="48"/>
+      <c r="BC137" s="48"/>
+      <c r="BD137" s="48"/>
+      <c r="BE137" s="48"/>
+      <c r="BF137" s="48"/>
+      <c r="BG137" s="48"/>
+      <c r="BH137" s="48"/>
+      <c r="BI137" s="48"/>
+      <c r="BJ137" s="48"/>
+      <c r="BK137" s="48"/>
+      <c r="BL137" s="48"/>
+      <c r="BM137" s="48"/>
+      <c r="BN137" s="48"/>
+      <c r="BO137" s="48"/>
+      <c r="BP137" s="48"/>
+      <c r="BQ137" s="48"/>
+      <c r="BR137" s="48"/>
+      <c r="BS137" s="48"/>
+      <c r="BT137" s="48"/>
+      <c r="BU137" s="48"/>
+      <c r="BV137" s="48"/>
+      <c r="BW137" s="48"/>
+      <c r="BX137" s="48"/>
+      <c r="BY137" s="48"/>
+      <c r="BZ137" s="48"/>
+      <c r="CA137" s="48"/>
+      <c r="CB137" s="48"/>
+      <c r="CC137" s="48"/>
+      <c r="CD137" s="49"/>
     </row>
     <row r="138" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="I138" s="54"/>
-      <c r="J138" s="55"/>
-      <c r="K138" s="55"/>
-      <c r="L138" s="55"/>
-      <c r="M138" s="55"/>
-      <c r="N138" s="55"/>
-      <c r="O138" s="55"/>
-      <c r="P138" s="55"/>
-      <c r="Q138" s="55"/>
-      <c r="R138" s="55"/>
-      <c r="S138" s="55"/>
-      <c r="T138" s="55"/>
-      <c r="U138" s="55"/>
-      <c r="V138" s="55"/>
-      <c r="W138" s="55"/>
-      <c r="X138" s="55"/>
-      <c r="Y138" s="55"/>
-      <c r="Z138" s="55"/>
-      <c r="AA138" s="55"/>
-      <c r="AB138" s="55"/>
-      <c r="AC138" s="55"/>
-      <c r="AD138" s="55"/>
-      <c r="AE138" s="55"/>
-      <c r="AF138" s="55"/>
-      <c r="AG138" s="55"/>
-      <c r="AH138" s="55"/>
-      <c r="AI138" s="55"/>
-      <c r="AJ138" s="55"/>
-      <c r="AK138" s="55"/>
-      <c r="AL138" s="55"/>
-      <c r="AM138" s="55"/>
-      <c r="AN138" s="55"/>
-      <c r="AO138" s="55"/>
-      <c r="AP138" s="55"/>
-      <c r="AQ138" s="55"/>
-      <c r="AR138" s="55"/>
-      <c r="AS138" s="55"/>
-      <c r="AT138" s="55"/>
-      <c r="AU138" s="55"/>
-      <c r="AV138" s="55"/>
-      <c r="AW138" s="55"/>
-      <c r="AX138" s="55"/>
-      <c r="AY138" s="55"/>
-      <c r="AZ138" s="55"/>
-      <c r="BA138" s="55"/>
-      <c r="BB138" s="55"/>
-      <c r="BC138" s="55"/>
-      <c r="BD138" s="55"/>
-      <c r="BE138" s="55"/>
-      <c r="BF138" s="55"/>
-      <c r="BG138" s="55"/>
-      <c r="BH138" s="55"/>
-      <c r="BI138" s="55"/>
-      <c r="BJ138" s="55"/>
-      <c r="BK138" s="55"/>
-      <c r="BL138" s="55"/>
-      <c r="BM138" s="55"/>
-      <c r="BN138" s="55"/>
-      <c r="BO138" s="55"/>
-      <c r="BP138" s="55"/>
-      <c r="BQ138" s="55"/>
-      <c r="BR138" s="55"/>
-      <c r="BS138" s="55"/>
-      <c r="BT138" s="55"/>
-      <c r="BU138" s="55"/>
-      <c r="BV138" s="55"/>
-      <c r="BW138" s="55"/>
-      <c r="BX138" s="55"/>
-      <c r="BY138" s="55"/>
-      <c r="BZ138" s="55"/>
-      <c r="CA138" s="55"/>
-      <c r="CB138" s="55"/>
-      <c r="CC138" s="55"/>
-      <c r="CD138" s="56"/>
+      <c r="I138" s="50"/>
+      <c r="J138" s="51"/>
+      <c r="K138" s="51"/>
+      <c r="L138" s="51"/>
+      <c r="M138" s="51"/>
+      <c r="N138" s="51"/>
+      <c r="O138" s="51"/>
+      <c r="P138" s="51"/>
+      <c r="Q138" s="51"/>
+      <c r="R138" s="51"/>
+      <c r="S138" s="51"/>
+      <c r="T138" s="51"/>
+      <c r="U138" s="51"/>
+      <c r="V138" s="51"/>
+      <c r="W138" s="51"/>
+      <c r="X138" s="51"/>
+      <c r="Y138" s="51"/>
+      <c r="Z138" s="51"/>
+      <c r="AA138" s="51"/>
+      <c r="AB138" s="51"/>
+      <c r="AC138" s="51"/>
+      <c r="AD138" s="51"/>
+      <c r="AE138" s="51"/>
+      <c r="AF138" s="51"/>
+      <c r="AG138" s="51"/>
+      <c r="AH138" s="51"/>
+      <c r="AI138" s="51"/>
+      <c r="AJ138" s="51"/>
+      <c r="AK138" s="51"/>
+      <c r="AL138" s="51"/>
+      <c r="AM138" s="51"/>
+      <c r="AN138" s="51"/>
+      <c r="AO138" s="51"/>
+      <c r="AP138" s="51"/>
+      <c r="AQ138" s="51"/>
+      <c r="AR138" s="51"/>
+      <c r="AS138" s="51"/>
+      <c r="AT138" s="51"/>
+      <c r="AU138" s="51"/>
+      <c r="AV138" s="51"/>
+      <c r="AW138" s="51"/>
+      <c r="AX138" s="51"/>
+      <c r="AY138" s="51"/>
+      <c r="AZ138" s="51"/>
+      <c r="BA138" s="51"/>
+      <c r="BB138" s="51"/>
+      <c r="BC138" s="51"/>
+      <c r="BD138" s="51"/>
+      <c r="BE138" s="51"/>
+      <c r="BF138" s="51"/>
+      <c r="BG138" s="51"/>
+      <c r="BH138" s="51"/>
+      <c r="BI138" s="51"/>
+      <c r="BJ138" s="51"/>
+      <c r="BK138" s="51"/>
+      <c r="BL138" s="51"/>
+      <c r="BM138" s="51"/>
+      <c r="BN138" s="51"/>
+      <c r="BO138" s="51"/>
+      <c r="BP138" s="51"/>
+      <c r="BQ138" s="51"/>
+      <c r="BR138" s="51"/>
+      <c r="BS138" s="51"/>
+      <c r="BT138" s="51"/>
+      <c r="BU138" s="51"/>
+      <c r="BV138" s="51"/>
+      <c r="BW138" s="51"/>
+      <c r="BX138" s="51"/>
+      <c r="BY138" s="51"/>
+      <c r="BZ138" s="51"/>
+      <c r="CA138" s="51"/>
+      <c r="CB138" s="51"/>
+      <c r="CC138" s="51"/>
+      <c r="CD138" s="52"/>
     </row>
     <row r="139" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="I139" s="47" t="s">
+      <c r="I139" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="J139" s="47"/>
-      <c r="K139" s="47"/>
-      <c r="L139" s="47"/>
-      <c r="M139" s="47"/>
-      <c r="N139" s="47"/>
-      <c r="O139" s="47"/>
-      <c r="P139" s="47"/>
-      <c r="Q139" s="47"/>
-      <c r="R139" s="47"/>
-      <c r="S139" s="47"/>
-      <c r="T139" s="47"/>
-      <c r="U139" s="47"/>
-      <c r="V139" s="47" t="s">
+      <c r="J139" s="53"/>
+      <c r="K139" s="53"/>
+      <c r="L139" s="53"/>
+      <c r="M139" s="53"/>
+      <c r="N139" s="53"/>
+      <c r="O139" s="53"/>
+      <c r="P139" s="53"/>
+      <c r="Q139" s="53"/>
+      <c r="R139" s="53"/>
+      <c r="S139" s="53"/>
+      <c r="T139" s="53"/>
+      <c r="U139" s="53"/>
+      <c r="V139" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="W139" s="47"/>
-      <c r="X139" s="47"/>
-      <c r="Y139" s="47"/>
-      <c r="Z139" s="47"/>
-      <c r="AA139" s="47"/>
-      <c r="AB139" s="47"/>
-      <c r="AC139" s="47"/>
-      <c r="AD139" s="47"/>
-      <c r="AE139" s="47"/>
-      <c r="AF139" s="47"/>
-      <c r="AG139" s="47"/>
-      <c r="AH139" s="47"/>
-      <c r="AI139" s="47"/>
-      <c r="AJ139" s="47"/>
-      <c r="AK139" s="47"/>
-      <c r="AL139" s="47"/>
-      <c r="AM139" s="47"/>
-      <c r="AN139" s="47"/>
-      <c r="AO139" s="47"/>
-      <c r="AP139" s="47"/>
-      <c r="AQ139" s="47"/>
-      <c r="AR139" s="47"/>
-      <c r="AS139" s="47"/>
-      <c r="AT139" s="47"/>
-      <c r="AU139" s="47"/>
-      <c r="AV139" s="47"/>
-      <c r="AW139" s="47"/>
-      <c r="AX139" s="47" t="s">
-        <v>59</v>
-      </c>
-      <c r="AY139" s="47"/>
-      <c r="AZ139" s="47"/>
-      <c r="BA139" s="47"/>
-      <c r="BB139" s="47"/>
-      <c r="BC139" s="47"/>
-      <c r="BD139" s="47"/>
-      <c r="BE139" s="47"/>
-      <c r="BF139" s="47"/>
-      <c r="BG139" s="47"/>
-      <c r="BH139" s="47"/>
-      <c r="BI139" s="47"/>
-      <c r="BJ139" s="47" t="s">
+      <c r="W139" s="53"/>
+      <c r="X139" s="53"/>
+      <c r="Y139" s="53"/>
+      <c r="Z139" s="53"/>
+      <c r="AA139" s="53"/>
+      <c r="AB139" s="53"/>
+      <c r="AC139" s="53"/>
+      <c r="AD139" s="53"/>
+      <c r="AE139" s="53"/>
+      <c r="AF139" s="53"/>
+      <c r="AG139" s="53"/>
+      <c r="AH139" s="53"/>
+      <c r="AI139" s="53"/>
+      <c r="AJ139" s="53"/>
+      <c r="AK139" s="53"/>
+      <c r="AL139" s="53"/>
+      <c r="AM139" s="53"/>
+      <c r="AN139" s="53"/>
+      <c r="AO139" s="53"/>
+      <c r="AP139" s="53"/>
+      <c r="AQ139" s="53"/>
+      <c r="AR139" s="53"/>
+      <c r="AS139" s="53"/>
+      <c r="AT139" s="53"/>
+      <c r="AU139" s="53"/>
+      <c r="AV139" s="53"/>
+      <c r="AW139" s="53"/>
+      <c r="AX139" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY139" s="53"/>
+      <c r="AZ139" s="53"/>
+      <c r="BA139" s="53"/>
+      <c r="BB139" s="53"/>
+      <c r="BC139" s="53"/>
+      <c r="BD139" s="53"/>
+      <c r="BE139" s="53"/>
+      <c r="BF139" s="53"/>
+      <c r="BG139" s="53"/>
+      <c r="BH139" s="53"/>
+      <c r="BI139" s="53"/>
+      <c r="BJ139" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="BK139" s="47"/>
-      <c r="BL139" s="47"/>
-      <c r="BM139" s="47"/>
-      <c r="BN139" s="47"/>
-      <c r="BO139" s="47"/>
-      <c r="BP139" s="47" t="s">
+      <c r="BK139" s="53"/>
+      <c r="BL139" s="53"/>
+      <c r="BM139" s="53"/>
+      <c r="BN139" s="53"/>
+      <c r="BO139" s="53"/>
+      <c r="BP139" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="BQ139" s="47"/>
-      <c r="BR139" s="47"/>
-      <c r="BS139" s="47"/>
-      <c r="BT139" s="47"/>
-      <c r="BU139" s="47"/>
-      <c r="BV139" s="47"/>
-      <c r="BW139" s="47"/>
-      <c r="BX139" s="47"/>
-      <c r="BY139" s="47"/>
-      <c r="BZ139" s="47"/>
-      <c r="CA139" s="47"/>
-      <c r="CB139" s="47"/>
-      <c r="CC139" s="47"/>
-      <c r="CD139" s="47"/>
+      <c r="BQ139" s="53"/>
+      <c r="BR139" s="53"/>
+      <c r="BS139" s="53"/>
+      <c r="BT139" s="53"/>
+      <c r="BU139" s="53"/>
+      <c r="BV139" s="53"/>
+      <c r="BW139" s="53"/>
+      <c r="BX139" s="53"/>
+      <c r="BY139" s="53"/>
+      <c r="BZ139" s="53"/>
+      <c r="CA139" s="53"/>
+      <c r="CB139" s="53"/>
+      <c r="CC139" s="53"/>
+      <c r="CD139" s="53"/>
     </row>
     <row r="140" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I140" s="37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J140" s="37"/>
       <c r="K140" s="37"/>
@@ -15627,7 +15623,7 @@
       <c r="T140" s="37"/>
       <c r="U140" s="37"/>
       <c r="V140" s="37" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="W140" s="37"/>
       <c r="X140" s="37"/>
@@ -15657,7 +15653,7 @@
       <c r="AV140" s="37"/>
       <c r="AW140" s="37"/>
       <c r="AX140" s="37" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AY140" s="37"/>
       <c r="AZ140" s="37"/>
@@ -15679,7 +15675,7 @@
       <c r="BN140" s="37"/>
       <c r="BO140" s="37"/>
       <c r="BP140" s="37" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BQ140" s="37"/>
       <c r="BR140" s="37"/>
@@ -15850,7 +15846,7 @@
     </row>
     <row r="143" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I143" s="36" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J143" s="36"/>
       <c r="K143" s="36"/>
@@ -16004,7 +16000,7 @@
     </row>
     <row r="145" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I145" s="36" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J145" s="36"/>
       <c r="K145" s="36"/>
@@ -16235,7 +16231,7 @@
     <row r="150" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="151" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I151" s="38" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J151" s="39"/>
       <c r="K151" s="39"/>
@@ -16465,248 +16461,248 @@
     </row>
     <row r="154" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="155" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="I155" s="51" t="s">
-        <v>91</v>
-      </c>
-      <c r="J155" s="52"/>
-      <c r="K155" s="52"/>
-      <c r="L155" s="52"/>
-      <c r="M155" s="52"/>
-      <c r="N155" s="52"/>
-      <c r="O155" s="52"/>
-      <c r="P155" s="52"/>
-      <c r="Q155" s="52"/>
-      <c r="R155" s="52"/>
-      <c r="S155" s="52"/>
-      <c r="T155" s="52"/>
-      <c r="U155" s="52"/>
-      <c r="V155" s="52"/>
-      <c r="W155" s="52"/>
-      <c r="X155" s="52"/>
-      <c r="Y155" s="52"/>
-      <c r="Z155" s="52"/>
-      <c r="AA155" s="52"/>
-      <c r="AB155" s="52"/>
-      <c r="AC155" s="52"/>
-      <c r="AD155" s="52"/>
-      <c r="AE155" s="52"/>
-      <c r="AF155" s="52"/>
-      <c r="AG155" s="52"/>
-      <c r="AH155" s="52"/>
-      <c r="AI155" s="52"/>
-      <c r="AJ155" s="52"/>
-      <c r="AK155" s="52"/>
-      <c r="AL155" s="52"/>
-      <c r="AM155" s="52"/>
-      <c r="AN155" s="52"/>
-      <c r="AO155" s="52"/>
-      <c r="AP155" s="52"/>
-      <c r="AQ155" s="52"/>
-      <c r="AR155" s="52"/>
-      <c r="AS155" s="52"/>
-      <c r="AT155" s="52"/>
-      <c r="AU155" s="52"/>
-      <c r="AV155" s="52"/>
-      <c r="AW155" s="52"/>
-      <c r="AX155" s="52"/>
-      <c r="AY155" s="52"/>
-      <c r="AZ155" s="52"/>
-      <c r="BA155" s="52"/>
-      <c r="BB155" s="52"/>
-      <c r="BC155" s="52"/>
-      <c r="BD155" s="52"/>
-      <c r="BE155" s="52"/>
-      <c r="BF155" s="52"/>
-      <c r="BG155" s="52"/>
-      <c r="BH155" s="52"/>
-      <c r="BI155" s="52"/>
-      <c r="BJ155" s="52"/>
-      <c r="BK155" s="52"/>
-      <c r="BL155" s="52"/>
-      <c r="BM155" s="52"/>
-      <c r="BN155" s="52"/>
-      <c r="BO155" s="52"/>
-      <c r="BP155" s="52"/>
-      <c r="BQ155" s="52"/>
-      <c r="BR155" s="52"/>
-      <c r="BS155" s="52"/>
-      <c r="BT155" s="52"/>
-      <c r="BU155" s="52"/>
-      <c r="BV155" s="52"/>
-      <c r="BW155" s="52"/>
-      <c r="BX155" s="52"/>
-      <c r="BY155" s="52"/>
-      <c r="BZ155" s="52"/>
-      <c r="CA155" s="52"/>
-      <c r="CB155" s="52"/>
-      <c r="CC155" s="52"/>
-      <c r="CD155" s="53"/>
+      <c r="I155" s="47" t="s">
+        <v>90</v>
+      </c>
+      <c r="J155" s="48"/>
+      <c r="K155" s="48"/>
+      <c r="L155" s="48"/>
+      <c r="M155" s="48"/>
+      <c r="N155" s="48"/>
+      <c r="O155" s="48"/>
+      <c r="P155" s="48"/>
+      <c r="Q155" s="48"/>
+      <c r="R155" s="48"/>
+      <c r="S155" s="48"/>
+      <c r="T155" s="48"/>
+      <c r="U155" s="48"/>
+      <c r="V155" s="48"/>
+      <c r="W155" s="48"/>
+      <c r="X155" s="48"/>
+      <c r="Y155" s="48"/>
+      <c r="Z155" s="48"/>
+      <c r="AA155" s="48"/>
+      <c r="AB155" s="48"/>
+      <c r="AC155" s="48"/>
+      <c r="AD155" s="48"/>
+      <c r="AE155" s="48"/>
+      <c r="AF155" s="48"/>
+      <c r="AG155" s="48"/>
+      <c r="AH155" s="48"/>
+      <c r="AI155" s="48"/>
+      <c r="AJ155" s="48"/>
+      <c r="AK155" s="48"/>
+      <c r="AL155" s="48"/>
+      <c r="AM155" s="48"/>
+      <c r="AN155" s="48"/>
+      <c r="AO155" s="48"/>
+      <c r="AP155" s="48"/>
+      <c r="AQ155" s="48"/>
+      <c r="AR155" s="48"/>
+      <c r="AS155" s="48"/>
+      <c r="AT155" s="48"/>
+      <c r="AU155" s="48"/>
+      <c r="AV155" s="48"/>
+      <c r="AW155" s="48"/>
+      <c r="AX155" s="48"/>
+      <c r="AY155" s="48"/>
+      <c r="AZ155" s="48"/>
+      <c r="BA155" s="48"/>
+      <c r="BB155" s="48"/>
+      <c r="BC155" s="48"/>
+      <c r="BD155" s="48"/>
+      <c r="BE155" s="48"/>
+      <c r="BF155" s="48"/>
+      <c r="BG155" s="48"/>
+      <c r="BH155" s="48"/>
+      <c r="BI155" s="48"/>
+      <c r="BJ155" s="48"/>
+      <c r="BK155" s="48"/>
+      <c r="BL155" s="48"/>
+      <c r="BM155" s="48"/>
+      <c r="BN155" s="48"/>
+      <c r="BO155" s="48"/>
+      <c r="BP155" s="48"/>
+      <c r="BQ155" s="48"/>
+      <c r="BR155" s="48"/>
+      <c r="BS155" s="48"/>
+      <c r="BT155" s="48"/>
+      <c r="BU155" s="48"/>
+      <c r="BV155" s="48"/>
+      <c r="BW155" s="48"/>
+      <c r="BX155" s="48"/>
+      <c r="BY155" s="48"/>
+      <c r="BZ155" s="48"/>
+      <c r="CA155" s="48"/>
+      <c r="CB155" s="48"/>
+      <c r="CC155" s="48"/>
+      <c r="CD155" s="49"/>
     </row>
     <row r="156" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="I156" s="54"/>
-      <c r="J156" s="55"/>
-      <c r="K156" s="55"/>
-      <c r="L156" s="55"/>
-      <c r="M156" s="55"/>
-      <c r="N156" s="55"/>
-      <c r="O156" s="55"/>
-      <c r="P156" s="55"/>
-      <c r="Q156" s="55"/>
-      <c r="R156" s="55"/>
-      <c r="S156" s="55"/>
-      <c r="T156" s="55"/>
-      <c r="U156" s="55"/>
-      <c r="V156" s="55"/>
-      <c r="W156" s="55"/>
-      <c r="X156" s="55"/>
-      <c r="Y156" s="55"/>
-      <c r="Z156" s="55"/>
-      <c r="AA156" s="55"/>
-      <c r="AB156" s="55"/>
-      <c r="AC156" s="55"/>
-      <c r="AD156" s="55"/>
-      <c r="AE156" s="55"/>
-      <c r="AF156" s="55"/>
-      <c r="AG156" s="55"/>
-      <c r="AH156" s="55"/>
-      <c r="AI156" s="55"/>
-      <c r="AJ156" s="55"/>
-      <c r="AK156" s="55"/>
-      <c r="AL156" s="55"/>
-      <c r="AM156" s="55"/>
-      <c r="AN156" s="55"/>
-      <c r="AO156" s="55"/>
-      <c r="AP156" s="55"/>
-      <c r="AQ156" s="55"/>
-      <c r="AR156" s="55"/>
-      <c r="AS156" s="55"/>
-      <c r="AT156" s="55"/>
-      <c r="AU156" s="55"/>
-      <c r="AV156" s="55"/>
-      <c r="AW156" s="55"/>
-      <c r="AX156" s="55"/>
-      <c r="AY156" s="55"/>
-      <c r="AZ156" s="55"/>
-      <c r="BA156" s="55"/>
-      <c r="BB156" s="55"/>
-      <c r="BC156" s="55"/>
-      <c r="BD156" s="55"/>
-      <c r="BE156" s="55"/>
-      <c r="BF156" s="55"/>
-      <c r="BG156" s="55"/>
-      <c r="BH156" s="55"/>
-      <c r="BI156" s="55"/>
-      <c r="BJ156" s="55"/>
-      <c r="BK156" s="55"/>
-      <c r="BL156" s="55"/>
-      <c r="BM156" s="55"/>
-      <c r="BN156" s="55"/>
-      <c r="BO156" s="55"/>
-      <c r="BP156" s="55"/>
-      <c r="BQ156" s="55"/>
-      <c r="BR156" s="55"/>
-      <c r="BS156" s="55"/>
-      <c r="BT156" s="55"/>
-      <c r="BU156" s="55"/>
-      <c r="BV156" s="55"/>
-      <c r="BW156" s="55"/>
-      <c r="BX156" s="55"/>
-      <c r="BY156" s="55"/>
-      <c r="BZ156" s="55"/>
-      <c r="CA156" s="55"/>
-      <c r="CB156" s="55"/>
-      <c r="CC156" s="55"/>
-      <c r="CD156" s="56"/>
+      <c r="I156" s="50"/>
+      <c r="J156" s="51"/>
+      <c r="K156" s="51"/>
+      <c r="L156" s="51"/>
+      <c r="M156" s="51"/>
+      <c r="N156" s="51"/>
+      <c r="O156" s="51"/>
+      <c r="P156" s="51"/>
+      <c r="Q156" s="51"/>
+      <c r="R156" s="51"/>
+      <c r="S156" s="51"/>
+      <c r="T156" s="51"/>
+      <c r="U156" s="51"/>
+      <c r="V156" s="51"/>
+      <c r="W156" s="51"/>
+      <c r="X156" s="51"/>
+      <c r="Y156" s="51"/>
+      <c r="Z156" s="51"/>
+      <c r="AA156" s="51"/>
+      <c r="AB156" s="51"/>
+      <c r="AC156" s="51"/>
+      <c r="AD156" s="51"/>
+      <c r="AE156" s="51"/>
+      <c r="AF156" s="51"/>
+      <c r="AG156" s="51"/>
+      <c r="AH156" s="51"/>
+      <c r="AI156" s="51"/>
+      <c r="AJ156" s="51"/>
+      <c r="AK156" s="51"/>
+      <c r="AL156" s="51"/>
+      <c r="AM156" s="51"/>
+      <c r="AN156" s="51"/>
+      <c r="AO156" s="51"/>
+      <c r="AP156" s="51"/>
+      <c r="AQ156" s="51"/>
+      <c r="AR156" s="51"/>
+      <c r="AS156" s="51"/>
+      <c r="AT156" s="51"/>
+      <c r="AU156" s="51"/>
+      <c r="AV156" s="51"/>
+      <c r="AW156" s="51"/>
+      <c r="AX156" s="51"/>
+      <c r="AY156" s="51"/>
+      <c r="AZ156" s="51"/>
+      <c r="BA156" s="51"/>
+      <c r="BB156" s="51"/>
+      <c r="BC156" s="51"/>
+      <c r="BD156" s="51"/>
+      <c r="BE156" s="51"/>
+      <c r="BF156" s="51"/>
+      <c r="BG156" s="51"/>
+      <c r="BH156" s="51"/>
+      <c r="BI156" s="51"/>
+      <c r="BJ156" s="51"/>
+      <c r="BK156" s="51"/>
+      <c r="BL156" s="51"/>
+      <c r="BM156" s="51"/>
+      <c r="BN156" s="51"/>
+      <c r="BO156" s="51"/>
+      <c r="BP156" s="51"/>
+      <c r="BQ156" s="51"/>
+      <c r="BR156" s="51"/>
+      <c r="BS156" s="51"/>
+      <c r="BT156" s="51"/>
+      <c r="BU156" s="51"/>
+      <c r="BV156" s="51"/>
+      <c r="BW156" s="51"/>
+      <c r="BX156" s="51"/>
+      <c r="BY156" s="51"/>
+      <c r="BZ156" s="51"/>
+      <c r="CA156" s="51"/>
+      <c r="CB156" s="51"/>
+      <c r="CC156" s="51"/>
+      <c r="CD156" s="52"/>
     </row>
     <row r="157" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="I157" s="47" t="s">
+      <c r="I157" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="J157" s="47"/>
-      <c r="K157" s="47"/>
-      <c r="L157" s="47"/>
-      <c r="M157" s="47"/>
-      <c r="N157" s="47"/>
-      <c r="O157" s="47"/>
-      <c r="P157" s="47"/>
-      <c r="Q157" s="47"/>
-      <c r="R157" s="47"/>
-      <c r="S157" s="47"/>
-      <c r="T157" s="47"/>
-      <c r="U157" s="47"/>
-      <c r="V157" s="47" t="s">
+      <c r="J157" s="53"/>
+      <c r="K157" s="53"/>
+      <c r="L157" s="53"/>
+      <c r="M157" s="53"/>
+      <c r="N157" s="53"/>
+      <c r="O157" s="53"/>
+      <c r="P157" s="53"/>
+      <c r="Q157" s="53"/>
+      <c r="R157" s="53"/>
+      <c r="S157" s="53"/>
+      <c r="T157" s="53"/>
+      <c r="U157" s="53"/>
+      <c r="V157" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="W157" s="47"/>
-      <c r="X157" s="47"/>
-      <c r="Y157" s="47"/>
-      <c r="Z157" s="47"/>
-      <c r="AA157" s="47"/>
-      <c r="AB157" s="47"/>
-      <c r="AC157" s="47"/>
-      <c r="AD157" s="47"/>
-      <c r="AE157" s="47"/>
-      <c r="AF157" s="47"/>
-      <c r="AG157" s="47"/>
-      <c r="AH157" s="47"/>
-      <c r="AI157" s="47"/>
-      <c r="AJ157" s="47"/>
-      <c r="AK157" s="47"/>
-      <c r="AL157" s="47"/>
-      <c r="AM157" s="47"/>
-      <c r="AN157" s="47"/>
-      <c r="AO157" s="47"/>
-      <c r="AP157" s="47"/>
-      <c r="AQ157" s="47"/>
-      <c r="AR157" s="47"/>
-      <c r="AS157" s="47"/>
-      <c r="AT157" s="47"/>
-      <c r="AU157" s="47"/>
-      <c r="AV157" s="47"/>
-      <c r="AW157" s="47"/>
-      <c r="AX157" s="47" t="s">
-        <v>59</v>
-      </c>
-      <c r="AY157" s="47"/>
-      <c r="AZ157" s="47"/>
-      <c r="BA157" s="47"/>
-      <c r="BB157" s="47"/>
-      <c r="BC157" s="47"/>
-      <c r="BD157" s="47"/>
-      <c r="BE157" s="47"/>
-      <c r="BF157" s="47"/>
-      <c r="BG157" s="47"/>
-      <c r="BH157" s="47"/>
-      <c r="BI157" s="47"/>
-      <c r="BJ157" s="47" t="s">
+      <c r="W157" s="53"/>
+      <c r="X157" s="53"/>
+      <c r="Y157" s="53"/>
+      <c r="Z157" s="53"/>
+      <c r="AA157" s="53"/>
+      <c r="AB157" s="53"/>
+      <c r="AC157" s="53"/>
+      <c r="AD157" s="53"/>
+      <c r="AE157" s="53"/>
+      <c r="AF157" s="53"/>
+      <c r="AG157" s="53"/>
+      <c r="AH157" s="53"/>
+      <c r="AI157" s="53"/>
+      <c r="AJ157" s="53"/>
+      <c r="AK157" s="53"/>
+      <c r="AL157" s="53"/>
+      <c r="AM157" s="53"/>
+      <c r="AN157" s="53"/>
+      <c r="AO157" s="53"/>
+      <c r="AP157" s="53"/>
+      <c r="AQ157" s="53"/>
+      <c r="AR157" s="53"/>
+      <c r="AS157" s="53"/>
+      <c r="AT157" s="53"/>
+      <c r="AU157" s="53"/>
+      <c r="AV157" s="53"/>
+      <c r="AW157" s="53"/>
+      <c r="AX157" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY157" s="53"/>
+      <c r="AZ157" s="53"/>
+      <c r="BA157" s="53"/>
+      <c r="BB157" s="53"/>
+      <c r="BC157" s="53"/>
+      <c r="BD157" s="53"/>
+      <c r="BE157" s="53"/>
+      <c r="BF157" s="53"/>
+      <c r="BG157" s="53"/>
+      <c r="BH157" s="53"/>
+      <c r="BI157" s="53"/>
+      <c r="BJ157" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="BK157" s="47"/>
-      <c r="BL157" s="47"/>
-      <c r="BM157" s="47"/>
-      <c r="BN157" s="47"/>
-      <c r="BO157" s="47"/>
-      <c r="BP157" s="47" t="s">
+      <c r="BK157" s="53"/>
+      <c r="BL157" s="53"/>
+      <c r="BM157" s="53"/>
+      <c r="BN157" s="53"/>
+      <c r="BO157" s="53"/>
+      <c r="BP157" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="BQ157" s="47"/>
-      <c r="BR157" s="47"/>
-      <c r="BS157" s="47"/>
-      <c r="BT157" s="47"/>
-      <c r="BU157" s="47"/>
-      <c r="BV157" s="47"/>
-      <c r="BW157" s="47"/>
-      <c r="BX157" s="47"/>
-      <c r="BY157" s="47"/>
-      <c r="BZ157" s="47"/>
-      <c r="CA157" s="47"/>
-      <c r="CB157" s="47"/>
-      <c r="CC157" s="47"/>
-      <c r="CD157" s="47"/>
+      <c r="BQ157" s="53"/>
+      <c r="BR157" s="53"/>
+      <c r="BS157" s="53"/>
+      <c r="BT157" s="53"/>
+      <c r="BU157" s="53"/>
+      <c r="BV157" s="53"/>
+      <c r="BW157" s="53"/>
+      <c r="BX157" s="53"/>
+      <c r="BY157" s="53"/>
+      <c r="BZ157" s="53"/>
+      <c r="CA157" s="53"/>
+      <c r="CB157" s="53"/>
+      <c r="CC157" s="53"/>
+      <c r="CD157" s="53"/>
     </row>
     <row r="158" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I158" s="37" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J158" s="37"/>
       <c r="K158" s="37"/>
@@ -16721,7 +16717,7 @@
       <c r="T158" s="37"/>
       <c r="U158" s="37"/>
       <c r="V158" s="37" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W158" s="37"/>
       <c r="X158" s="37"/>
@@ -16751,7 +16747,7 @@
       <c r="AV158" s="37"/>
       <c r="AW158" s="37"/>
       <c r="AX158" s="37" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AY158" s="37"/>
       <c r="AZ158" s="37"/>
@@ -16773,7 +16769,7 @@
       <c r="BN158" s="37"/>
       <c r="BO158" s="37"/>
       <c r="BP158" s="37" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="BQ158" s="37"/>
       <c r="BR158" s="37"/>
@@ -16944,7 +16940,7 @@
     </row>
     <row r="161" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I161" s="36" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J161" s="36"/>
       <c r="K161" s="36"/>
@@ -16959,7 +16955,7 @@
       <c r="T161" s="36"/>
       <c r="U161" s="36"/>
       <c r="V161" s="36" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="W161" s="36"/>
       <c r="X161" s="36"/>
@@ -17100,7 +17096,7 @@
     </row>
     <row r="163" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I163" s="36" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J163" s="36"/>
       <c r="K163" s="36"/>
